--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,91 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>447600</v>
+        <v>379900</v>
       </c>
       <c r="E8" s="3">
-        <v>380500</v>
+        <v>396400</v>
       </c>
       <c r="F8" s="3">
-        <v>303700</v>
+        <v>337000</v>
       </c>
       <c r="G8" s="3">
-        <v>293100</v>
+        <v>269000</v>
       </c>
       <c r="H8" s="3">
-        <v>203300</v>
+        <v>259600</v>
       </c>
       <c r="I8" s="3">
-        <v>157500</v>
+        <v>180100</v>
       </c>
       <c r="J8" s="3">
+        <v>139500</v>
+      </c>
+      <c r="K8" s="3">
         <v>130800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,37 +919,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-7000</v>
+        <v>-12100</v>
       </c>
       <c r="E15" s="3">
-        <v>-6500</v>
+        <v>-6200</v>
       </c>
       <c r="F15" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="G15" s="3">
-        <v>-4600</v>
+        <v>-5200</v>
       </c>
       <c r="H15" s="3">
-        <v>-3600</v>
+        <v>-4100</v>
       </c>
       <c r="I15" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="J15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-3300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>220100</v>
+        <v>167500</v>
       </c>
       <c r="E17" s="3">
-        <v>195800</v>
+        <v>195000</v>
       </c>
       <c r="F17" s="3">
-        <v>181500</v>
+        <v>173400</v>
       </c>
       <c r="G17" s="3">
-        <v>171400</v>
+        <v>160800</v>
       </c>
       <c r="H17" s="3">
-        <v>111900</v>
+        <v>151800</v>
       </c>
       <c r="I17" s="3">
-        <v>71300</v>
+        <v>99100</v>
       </c>
       <c r="J17" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K17" s="3">
         <v>55100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>227500</v>
+        <v>212300</v>
       </c>
       <c r="E18" s="3">
-        <v>184700</v>
+        <v>201500</v>
       </c>
       <c r="F18" s="3">
-        <v>122200</v>
+        <v>163500</v>
       </c>
       <c r="G18" s="3">
-        <v>121700</v>
+        <v>108200</v>
       </c>
       <c r="H18" s="3">
-        <v>91400</v>
+        <v>107800</v>
       </c>
       <c r="I18" s="3">
-        <v>86200</v>
+        <v>81000</v>
       </c>
       <c r="J18" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K18" s="3">
         <v>75700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-53300</v>
+        <v>-98000</v>
       </c>
       <c r="E20" s="3">
-        <v>-34500</v>
+        <v>-47200</v>
       </c>
       <c r="F20" s="3">
-        <v>16300</v>
+        <v>-30500</v>
       </c>
       <c r="G20" s="3">
-        <v>-50600</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
-        <v>-22400</v>
+        <v>-44800</v>
       </c>
       <c r="I20" s="3">
-        <v>-36300</v>
+        <v>-19800</v>
       </c>
       <c r="J20" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-38800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>181200</v>
+        <v>126500</v>
       </c>
       <c r="E21" s="3">
-        <v>156700</v>
+        <v>160400</v>
       </c>
       <c r="F21" s="3">
-        <v>144400</v>
+        <v>138800</v>
       </c>
       <c r="G21" s="3">
-        <v>75300</v>
+        <v>127900</v>
       </c>
       <c r="H21" s="3">
-        <v>72700</v>
+        <v>66700</v>
       </c>
       <c r="I21" s="3">
-        <v>53400</v>
+        <v>64400</v>
       </c>
       <c r="J21" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K21" s="3">
         <v>40100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>174200</v>
+        <v>114400</v>
       </c>
       <c r="E23" s="3">
-        <v>150200</v>
+        <v>154300</v>
       </c>
       <c r="F23" s="3">
-        <v>138500</v>
+        <v>133000</v>
       </c>
       <c r="G23" s="3">
-        <v>71100</v>
+        <v>122600</v>
       </c>
       <c r="H23" s="3">
-        <v>69100</v>
+        <v>63000</v>
       </c>
       <c r="I23" s="3">
-        <v>49900</v>
+        <v>61200</v>
       </c>
       <c r="J23" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K23" s="3">
         <v>36800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9500</v>
+        <v>5400</v>
       </c>
       <c r="E24" s="3">
-        <v>38100</v>
+        <v>-8400</v>
       </c>
       <c r="F24" s="3">
-        <v>39100</v>
+        <v>33800</v>
       </c>
       <c r="G24" s="3">
-        <v>22600</v>
+        <v>34600</v>
       </c>
       <c r="H24" s="3">
-        <v>18700</v>
+        <v>20000</v>
       </c>
       <c r="I24" s="3">
-        <v>14300</v>
+        <v>16600</v>
       </c>
       <c r="J24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>183700</v>
+        <v>109000</v>
       </c>
       <c r="E26" s="3">
-        <v>112100</v>
+        <v>162700</v>
       </c>
       <c r="F26" s="3">
-        <v>99400</v>
+        <v>99300</v>
       </c>
       <c r="G26" s="3">
-        <v>48600</v>
+        <v>88000</v>
       </c>
       <c r="H26" s="3">
-        <v>50400</v>
+        <v>43000</v>
       </c>
       <c r="I26" s="3">
-        <v>35600</v>
+        <v>44600</v>
       </c>
       <c r="J26" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K26" s="3">
         <v>25900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177500</v>
+        <v>109500</v>
       </c>
       <c r="E27" s="3">
-        <v>112100</v>
+        <v>157200</v>
       </c>
       <c r="F27" s="3">
         <v>99300</v>
       </c>
       <c r="G27" s="3">
-        <v>48500</v>
+        <v>88000</v>
       </c>
       <c r="H27" s="3">
-        <v>49700</v>
+        <v>43000</v>
       </c>
       <c r="I27" s="3">
-        <v>35100</v>
+        <v>44000</v>
       </c>
       <c r="J27" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K27" s="3">
         <v>25500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53300</v>
+        <v>98000</v>
       </c>
       <c r="E32" s="3">
-        <v>34500</v>
+        <v>47200</v>
       </c>
       <c r="F32" s="3">
-        <v>-16300</v>
+        <v>30500</v>
       </c>
       <c r="G32" s="3">
-        <v>50600</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
-        <v>22400</v>
+        <v>44800</v>
       </c>
       <c r="I32" s="3">
-        <v>36300</v>
+        <v>19800</v>
       </c>
       <c r="J32" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K32" s="3">
         <v>38800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>177500</v>
+        <v>109500</v>
       </c>
       <c r="E33" s="3">
-        <v>112100</v>
+        <v>157200</v>
       </c>
       <c r="F33" s="3">
         <v>99300</v>
       </c>
       <c r="G33" s="3">
-        <v>48500</v>
+        <v>88000</v>
       </c>
       <c r="H33" s="3">
-        <v>49700</v>
+        <v>43000</v>
       </c>
       <c r="I33" s="3">
-        <v>35100</v>
+        <v>44000</v>
       </c>
       <c r="J33" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K33" s="3">
         <v>25500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>177500</v>
+        <v>109500</v>
       </c>
       <c r="E35" s="3">
-        <v>112100</v>
+        <v>157200</v>
       </c>
       <c r="F35" s="3">
         <v>99300</v>
       </c>
       <c r="G35" s="3">
-        <v>48500</v>
+        <v>88000</v>
       </c>
       <c r="H35" s="3">
-        <v>49700</v>
+        <v>43000</v>
       </c>
       <c r="I35" s="3">
-        <v>35100</v>
+        <v>44000</v>
       </c>
       <c r="J35" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K35" s="3">
         <v>25500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,66 +1619,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1445100</v>
+        <v>2258100</v>
       </c>
       <c r="E41" s="3">
-        <v>1476800</v>
+        <v>1279900</v>
       </c>
       <c r="F41" s="3">
-        <v>1605100</v>
+        <v>1307900</v>
       </c>
       <c r="G41" s="3">
-        <v>1505500</v>
+        <v>1421600</v>
       </c>
       <c r="H41" s="3">
-        <v>1344400</v>
+        <v>1333300</v>
       </c>
       <c r="I41" s="3">
-        <v>830900</v>
+        <v>1190600</v>
       </c>
       <c r="J41" s="3">
+        <v>735900</v>
+      </c>
+      <c r="K41" s="3">
         <v>535600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>228000</v>
+        <v>120300</v>
       </c>
       <c r="E42" s="3">
-        <v>167300</v>
+        <v>201900</v>
       </c>
       <c r="F42" s="3">
-        <v>179100</v>
+        <v>148200</v>
       </c>
       <c r="G42" s="3">
-        <v>259000</v>
+        <v>158600</v>
       </c>
       <c r="H42" s="3">
-        <v>117300</v>
+        <v>229400</v>
       </c>
       <c r="I42" s="3">
-        <v>117700</v>
+        <v>103900</v>
       </c>
       <c r="J42" s="3">
+        <v>104300</v>
+      </c>
+      <c r="K42" s="3">
         <v>96300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,95 +1809,107 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4500</v>
+        <v>14200</v>
       </c>
       <c r="E47" s="3">
-        <v>34300</v>
+        <v>4000</v>
       </c>
       <c r="F47" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="G47" s="3">
-        <v>29000</v>
+        <v>27200</v>
       </c>
       <c r="H47" s="3">
-        <v>29400</v>
+        <v>25700</v>
       </c>
       <c r="I47" s="3">
-        <v>18000</v>
+        <v>26100</v>
       </c>
       <c r="J47" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K47" s="3">
         <v>15200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>195400</v>
+        <v>168500</v>
       </c>
       <c r="E48" s="3">
-        <v>196200</v>
+        <v>173100</v>
       </c>
       <c r="F48" s="3">
-        <v>191900</v>
+        <v>173700</v>
       </c>
       <c r="G48" s="3">
-        <v>162300</v>
+        <v>170000</v>
       </c>
       <c r="H48" s="3">
-        <v>151600</v>
+        <v>143700</v>
       </c>
       <c r="I48" s="3">
-        <v>151000</v>
+        <v>134300</v>
       </c>
       <c r="J48" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K48" s="3">
         <v>149200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10600</v>
+        <v>8600</v>
       </c>
       <c r="E49" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F49" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="G49" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="H49" s="3">
-        <v>9900</v>
+        <v>7500</v>
       </c>
       <c r="I49" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="J49" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K49" s="3">
         <v>7400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>57200</v>
+        <v>91500</v>
       </c>
       <c r="E52" s="3">
-        <v>9700</v>
+        <v>50700</v>
       </c>
       <c r="F52" s="3">
-        <v>5500</v>
+        <v>8600</v>
       </c>
       <c r="G52" s="3">
-        <v>11400</v>
+        <v>4900</v>
       </c>
       <c r="H52" s="3">
-        <v>5800</v>
+        <v>10100</v>
       </c>
       <c r="I52" s="3">
-        <v>8800</v>
+        <v>5200</v>
       </c>
       <c r="J52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K52" s="3">
         <v>13200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6844700</v>
+        <v>6445000</v>
       </c>
       <c r="E54" s="3">
-        <v>6494500</v>
+        <v>6062100</v>
       </c>
       <c r="F54" s="3">
-        <v>6409400</v>
+        <v>5751900</v>
       </c>
       <c r="G54" s="3">
-        <v>5861800</v>
+        <v>5676500</v>
       </c>
       <c r="H54" s="3">
-        <v>5520700</v>
+        <v>5191600</v>
       </c>
       <c r="I54" s="3">
-        <v>4433800</v>
+        <v>4889500</v>
       </c>
       <c r="J54" s="3">
+        <v>3926900</v>
+      </c>
+      <c r="K54" s="3">
         <v>3707300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>556900</v>
+        <v>460500</v>
       </c>
       <c r="E57" s="3">
-        <v>391200</v>
+        <v>493200</v>
       </c>
       <c r="F57" s="3">
-        <v>485700</v>
+        <v>346400</v>
       </c>
       <c r="G57" s="3">
-        <v>485100</v>
+        <v>430200</v>
       </c>
       <c r="H57" s="3">
-        <v>385500</v>
+        <v>429600</v>
       </c>
       <c r="I57" s="3">
-        <v>321000</v>
+        <v>341500</v>
       </c>
       <c r="J57" s="3">
+        <v>284300</v>
+      </c>
+      <c r="K57" s="3">
         <v>301300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2024,37 +2157,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>170300</v>
+        <v>202100</v>
       </c>
       <c r="E59" s="3">
-        <v>141800</v>
+        <v>150800</v>
       </c>
       <c r="F59" s="3">
-        <v>148000</v>
+        <v>125600</v>
       </c>
       <c r="G59" s="3">
-        <v>118700</v>
+        <v>131100</v>
       </c>
       <c r="H59" s="3">
-        <v>97400</v>
+        <v>105100</v>
       </c>
       <c r="I59" s="3">
-        <v>65000</v>
+        <v>86300</v>
       </c>
       <c r="J59" s="3">
+        <v>57500</v>
+      </c>
+      <c r="K59" s="3">
         <v>49900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,66 +2221,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42400</v>
+        <v>36800</v>
       </c>
       <c r="E61" s="3">
-        <v>33300</v>
+        <v>37500</v>
       </c>
       <c r="F61" s="3">
-        <v>34900</v>
+        <v>29500</v>
       </c>
       <c r="G61" s="3">
+        <v>30900</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K61" s="3">
         <v>9600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>127100</v>
+        <v>144100</v>
       </c>
       <c r="E62" s="3">
-        <v>117600</v>
+        <v>112600</v>
       </c>
       <c r="F62" s="3">
-        <v>64900</v>
+        <v>104200</v>
       </c>
       <c r="G62" s="3">
-        <v>60800</v>
+        <v>57500</v>
       </c>
       <c r="H62" s="3">
-        <v>57800</v>
+        <v>53900</v>
       </c>
       <c r="I62" s="3">
-        <v>61400</v>
+        <v>51200</v>
       </c>
       <c r="J62" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K62" s="3">
         <v>62500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5917400</v>
+        <v>5511700</v>
       </c>
       <c r="E66" s="3">
-        <v>5688200</v>
+        <v>5240900</v>
       </c>
       <c r="F66" s="3">
-        <v>5675900</v>
+        <v>5037900</v>
       </c>
       <c r="G66" s="3">
-        <v>5224500</v>
+        <v>5026900</v>
       </c>
       <c r="H66" s="3">
-        <v>4930600</v>
+        <v>4627200</v>
       </c>
       <c r="I66" s="3">
-        <v>3890600</v>
+        <v>4366900</v>
       </c>
       <c r="J66" s="3">
+        <v>3445800</v>
+      </c>
+      <c r="K66" s="3">
         <v>3184200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>800600</v>
+        <v>821000</v>
       </c>
       <c r="E72" s="3">
-        <v>679600</v>
+        <v>709100</v>
       </c>
       <c r="F72" s="3">
-        <v>606900</v>
+        <v>601900</v>
       </c>
       <c r="G72" s="3">
-        <v>510600</v>
+        <v>537500</v>
       </c>
       <c r="H72" s="3">
-        <v>463500</v>
+        <v>452200</v>
       </c>
       <c r="I72" s="3">
-        <v>416600</v>
+        <v>410500</v>
       </c>
       <c r="J72" s="3">
+        <v>368900</v>
+      </c>
+      <c r="K72" s="3">
         <v>396500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>927300</v>
+        <v>933300</v>
       </c>
       <c r="E76" s="3">
-        <v>806300</v>
+        <v>821200</v>
       </c>
       <c r="F76" s="3">
-        <v>733500</v>
+        <v>714100</v>
       </c>
       <c r="G76" s="3">
-        <v>637300</v>
+        <v>649700</v>
       </c>
       <c r="H76" s="3">
-        <v>590100</v>
+        <v>564400</v>
       </c>
       <c r="I76" s="3">
-        <v>543200</v>
+        <v>522600</v>
       </c>
       <c r="J76" s="3">
+        <v>481100</v>
+      </c>
+      <c r="K76" s="3">
         <v>523100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>177500</v>
+        <v>109500</v>
       </c>
       <c r="E81" s="3">
-        <v>112100</v>
+        <v>157200</v>
       </c>
       <c r="F81" s="3">
         <v>99300</v>
       </c>
       <c r="G81" s="3">
-        <v>48500</v>
+        <v>88000</v>
       </c>
       <c r="H81" s="3">
-        <v>49700</v>
+        <v>43000</v>
       </c>
       <c r="I81" s="3">
-        <v>35100</v>
+        <v>44000</v>
       </c>
       <c r="J81" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K81" s="3">
         <v>25500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7000</v>
+        <v>12100</v>
       </c>
       <c r="E83" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F83" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G83" s="3">
-        <v>4100</v>
+        <v>5200</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-290700</v>
+        <v>871000</v>
       </c>
       <c r="E89" s="3">
-        <v>-148100</v>
+        <v>-257500</v>
       </c>
       <c r="F89" s="3">
-        <v>-94900</v>
+        <v>-131100</v>
       </c>
       <c r="G89" s="3">
-        <v>317400</v>
+        <v>-84100</v>
       </c>
       <c r="H89" s="3">
-        <v>242200</v>
+        <v>281100</v>
       </c>
       <c r="I89" s="3">
-        <v>42900</v>
+        <v>214500</v>
       </c>
       <c r="J89" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-38900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6500</v>
+        <v>-20400</v>
       </c>
       <c r="E91" s="3">
-        <v>-7600</v>
+        <v>-5700</v>
       </c>
       <c r="F91" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G91" s="3">
-        <v>-27200</v>
+        <v>-6000</v>
       </c>
       <c r="H91" s="3">
-        <v>9000</v>
+        <v>-24100</v>
       </c>
       <c r="I91" s="3">
-        <v>-5400</v>
+        <v>7900</v>
       </c>
       <c r="J91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1900</v>
+        <v>-33500</v>
       </c>
       <c r="E94" s="3">
-        <v>6000</v>
+        <v>-1700</v>
       </c>
       <c r="F94" s="3">
-        <v>21800</v>
+        <v>5300</v>
       </c>
       <c r="G94" s="3">
-        <v>-27100</v>
+        <v>19300</v>
       </c>
       <c r="H94" s="3">
-        <v>17700</v>
+        <v>-24000</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,10 +3240,13 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-49200</v>
+        <v>16300</v>
       </c>
       <c r="E100" s="3">
-        <v>-49500</v>
+        <v>-43600</v>
       </c>
       <c r="F100" s="3">
-        <v>21000</v>
+        <v>-43900</v>
       </c>
       <c r="G100" s="3">
-        <v>-9800</v>
+        <v>18600</v>
       </c>
       <c r="H100" s="3">
-        <v>26700</v>
+        <v>-8700</v>
       </c>
       <c r="I100" s="3">
-        <v>63100</v>
+        <v>23600</v>
       </c>
       <c r="J100" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>395000</v>
+        <v>43100</v>
       </c>
       <c r="E101" s="3">
-        <v>-23900</v>
+        <v>349900</v>
       </c>
       <c r="F101" s="3">
-        <v>132900</v>
+        <v>-21200</v>
       </c>
       <c r="G101" s="3">
-        <v>-99600</v>
+        <v>117700</v>
       </c>
       <c r="H101" s="3">
-        <v>269300</v>
+        <v>-88200</v>
       </c>
       <c r="I101" s="3">
-        <v>182700</v>
+        <v>238500</v>
       </c>
       <c r="J101" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K101" s="3">
         <v>22700</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>53100</v>
+        <v>909000</v>
       </c>
       <c r="E102" s="3">
-        <v>-215500</v>
+        <v>47100</v>
       </c>
       <c r="F102" s="3">
-        <v>80700</v>
+        <v>-190800</v>
       </c>
       <c r="G102" s="3">
-        <v>185400</v>
+        <v>71500</v>
       </c>
       <c r="H102" s="3">
-        <v>551500</v>
+        <v>164200</v>
       </c>
       <c r="I102" s="3">
-        <v>291100</v>
+        <v>488400</v>
       </c>
       <c r="J102" s="3">
+        <v>257800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-21800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,98 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>379900</v>
+        <v>334000</v>
       </c>
       <c r="E8" s="3">
-        <v>396400</v>
+        <v>352100</v>
       </c>
       <c r="F8" s="3">
-        <v>337000</v>
+        <v>367400</v>
       </c>
       <c r="G8" s="3">
-        <v>269000</v>
+        <v>312400</v>
       </c>
       <c r="H8" s="3">
-        <v>259600</v>
+        <v>385600</v>
       </c>
       <c r="I8" s="3">
-        <v>180100</v>
+        <v>240600</v>
       </c>
       <c r="J8" s="3">
+        <v>166900</v>
+      </c>
+      <c r="K8" s="3">
         <v>139500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>130800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,8 +787,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,40 +942,46 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-12100</v>
+        <v>-11200</v>
       </c>
       <c r="E15" s="3">
-        <v>-6200</v>
+        <v>-11200</v>
       </c>
       <c r="F15" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="G15" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="H15" s="3">
-        <v>-4100</v>
+        <v>-16700</v>
       </c>
       <c r="I15" s="3">
-        <v>-3200</v>
+        <v>-3800</v>
       </c>
       <c r="J15" s="3">
         <v>-3000</v>
       </c>
       <c r="K15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L15" s="3">
         <v>-3300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>167500</v>
+        <v>132900</v>
       </c>
       <c r="E17" s="3">
-        <v>195000</v>
+        <v>155300</v>
       </c>
       <c r="F17" s="3">
-        <v>173400</v>
+        <v>180700</v>
       </c>
       <c r="G17" s="3">
         <v>160800</v>
       </c>
       <c r="H17" s="3">
-        <v>151800</v>
+        <v>203400</v>
       </c>
       <c r="I17" s="3">
-        <v>99100</v>
+        <v>140700</v>
       </c>
       <c r="J17" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K17" s="3">
         <v>63100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>55100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>212300</v>
+        <v>201100</v>
       </c>
       <c r="E18" s="3">
-        <v>201500</v>
+        <v>196800</v>
       </c>
       <c r="F18" s="3">
-        <v>163500</v>
+        <v>186700</v>
       </c>
       <c r="G18" s="3">
-        <v>108200</v>
+        <v>151600</v>
       </c>
       <c r="H18" s="3">
-        <v>107800</v>
+        <v>182200</v>
       </c>
       <c r="I18" s="3">
-        <v>81000</v>
+        <v>99900</v>
       </c>
       <c r="J18" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K18" s="3">
         <v>76300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>75700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-98000</v>
+        <v>-129400</v>
       </c>
       <c r="E20" s="3">
-        <v>-47200</v>
+        <v>-90800</v>
       </c>
       <c r="F20" s="3">
-        <v>-30500</v>
+        <v>-43800</v>
       </c>
       <c r="G20" s="3">
-        <v>14400</v>
+        <v>-28300</v>
       </c>
       <c r="H20" s="3">
-        <v>-44800</v>
+        <v>-66600</v>
       </c>
       <c r="I20" s="3">
-        <v>-19800</v>
+        <v>-41500</v>
       </c>
       <c r="J20" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-32100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-38800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>126500</v>
+        <v>82900</v>
       </c>
       <c r="E21" s="3">
-        <v>160400</v>
+        <v>117200</v>
       </c>
       <c r="F21" s="3">
-        <v>138800</v>
+        <v>148700</v>
       </c>
       <c r="G21" s="3">
-        <v>127900</v>
+        <v>116800</v>
       </c>
       <c r="H21" s="3">
-        <v>66700</v>
+        <v>132300</v>
       </c>
       <c r="I21" s="3">
-        <v>64400</v>
+        <v>61800</v>
       </c>
       <c r="J21" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K21" s="3">
         <v>47300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>114400</v>
+        <v>71700</v>
       </c>
       <c r="E23" s="3">
-        <v>154300</v>
+        <v>106000</v>
       </c>
       <c r="F23" s="3">
-        <v>133000</v>
+        <v>143000</v>
       </c>
       <c r="G23" s="3">
-        <v>122600</v>
+        <v>123300</v>
       </c>
       <c r="H23" s="3">
-        <v>63000</v>
+        <v>115600</v>
       </c>
       <c r="I23" s="3">
-        <v>61200</v>
+        <v>58400</v>
       </c>
       <c r="J23" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K23" s="3">
         <v>44200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5400</v>
+        <v>29500</v>
       </c>
       <c r="E24" s="3">
-        <v>-8400</v>
+        <v>5000</v>
       </c>
       <c r="F24" s="3">
-        <v>33800</v>
+        <v>-7800</v>
       </c>
       <c r="G24" s="3">
-        <v>34600</v>
+        <v>31300</v>
       </c>
       <c r="H24" s="3">
-        <v>20000</v>
+        <v>49500</v>
       </c>
       <c r="I24" s="3">
-        <v>16600</v>
+        <v>18500</v>
       </c>
       <c r="J24" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K24" s="3">
         <v>12700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>109000</v>
+        <v>42200</v>
       </c>
       <c r="E26" s="3">
-        <v>162700</v>
+        <v>101100</v>
       </c>
       <c r="F26" s="3">
-        <v>99300</v>
+        <v>150800</v>
       </c>
       <c r="G26" s="3">
-        <v>88000</v>
+        <v>92000</v>
       </c>
       <c r="H26" s="3">
-        <v>43000</v>
+        <v>66100</v>
       </c>
       <c r="I26" s="3">
-        <v>44600</v>
+        <v>39900</v>
       </c>
       <c r="J26" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K26" s="3">
         <v>31500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>109500</v>
+        <v>41800</v>
       </c>
       <c r="E27" s="3">
-        <v>157200</v>
+        <v>101500</v>
       </c>
       <c r="F27" s="3">
-        <v>99300</v>
+        <v>145700</v>
       </c>
       <c r="G27" s="3">
-        <v>88000</v>
+        <v>92000</v>
       </c>
       <c r="H27" s="3">
-        <v>43000</v>
+        <v>66100</v>
       </c>
       <c r="I27" s="3">
-        <v>44000</v>
+        <v>39900</v>
       </c>
       <c r="J27" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K27" s="3">
         <v>31100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>98000</v>
+        <v>129400</v>
       </c>
       <c r="E32" s="3">
-        <v>47200</v>
+        <v>90800</v>
       </c>
       <c r="F32" s="3">
-        <v>30500</v>
+        <v>43800</v>
       </c>
       <c r="G32" s="3">
-        <v>-14400</v>
+        <v>28300</v>
       </c>
       <c r="H32" s="3">
-        <v>44800</v>
+        <v>66600</v>
       </c>
       <c r="I32" s="3">
-        <v>19800</v>
+        <v>41500</v>
       </c>
       <c r="J32" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K32" s="3">
         <v>32100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>38800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>109500</v>
+        <v>41800</v>
       </c>
       <c r="E33" s="3">
-        <v>157200</v>
+        <v>101500</v>
       </c>
       <c r="F33" s="3">
-        <v>99300</v>
+        <v>145700</v>
       </c>
       <c r="G33" s="3">
-        <v>88000</v>
+        <v>92000</v>
       </c>
       <c r="H33" s="3">
-        <v>43000</v>
+        <v>66100</v>
       </c>
       <c r="I33" s="3">
-        <v>44000</v>
+        <v>39900</v>
       </c>
       <c r="J33" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K33" s="3">
         <v>31100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>109500</v>
+        <v>41800</v>
       </c>
       <c r="E35" s="3">
-        <v>157200</v>
+        <v>101500</v>
       </c>
       <c r="F35" s="3">
-        <v>99300</v>
+        <v>145700</v>
       </c>
       <c r="G35" s="3">
-        <v>88000</v>
+        <v>92000</v>
       </c>
       <c r="H35" s="3">
-        <v>43000</v>
+        <v>66100</v>
       </c>
       <c r="I35" s="3">
-        <v>44000</v>
+        <v>39900</v>
       </c>
       <c r="J35" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K35" s="3">
         <v>31100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,72 +1706,79 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2258100</v>
+        <v>1928800</v>
       </c>
       <c r="E41" s="3">
-        <v>1279900</v>
+        <v>2256300</v>
       </c>
       <c r="F41" s="3">
-        <v>1307900</v>
+        <v>1186300</v>
       </c>
       <c r="G41" s="3">
-        <v>1421600</v>
+        <v>1212300</v>
       </c>
       <c r="H41" s="3">
-        <v>1333300</v>
+        <v>1317700</v>
       </c>
       <c r="I41" s="3">
-        <v>1190600</v>
+        <v>1235900</v>
       </c>
       <c r="J41" s="3">
+        <v>1103600</v>
+      </c>
+      <c r="K41" s="3">
         <v>735900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>535600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>207100</v>
+      </c>
+      <c r="E42" s="3">
         <v>120300</v>
       </c>
-      <c r="E42" s="3">
-        <v>201900</v>
-      </c>
       <c r="F42" s="3">
-        <v>148200</v>
+        <v>187100</v>
       </c>
       <c r="G42" s="3">
-        <v>158600</v>
+        <v>137300</v>
       </c>
       <c r="H42" s="3">
-        <v>229400</v>
+        <v>147000</v>
       </c>
       <c r="I42" s="3">
-        <v>103900</v>
+        <v>212600</v>
       </c>
       <c r="J42" s="3">
+        <v>96300</v>
+      </c>
+      <c r="K42" s="3">
         <v>104300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>96300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1879,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,104 +1914,116 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14200</v>
+        <v>15300</v>
       </c>
       <c r="E47" s="3">
-        <v>4000</v>
+        <v>15200</v>
       </c>
       <c r="F47" s="3">
-        <v>30400</v>
+        <v>3700</v>
       </c>
       <c r="G47" s="3">
-        <v>27200</v>
+        <v>28200</v>
       </c>
       <c r="H47" s="3">
-        <v>25700</v>
+        <v>25200</v>
       </c>
       <c r="I47" s="3">
-        <v>26100</v>
+        <v>23800</v>
       </c>
       <c r="J47" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K47" s="3">
         <v>15900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>168500</v>
+        <v>370900</v>
       </c>
       <c r="E48" s="3">
-        <v>173100</v>
+        <v>381400</v>
       </c>
       <c r="F48" s="3">
-        <v>173700</v>
+        <v>160400</v>
       </c>
       <c r="G48" s="3">
-        <v>170000</v>
+        <v>161000</v>
       </c>
       <c r="H48" s="3">
-        <v>143700</v>
+        <v>157500</v>
       </c>
       <c r="I48" s="3">
-        <v>134300</v>
+        <v>133200</v>
       </c>
       <c r="J48" s="3">
+        <v>124500</v>
+      </c>
+      <c r="K48" s="3">
         <v>133800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>149200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8600</v>
+        <v>12500</v>
       </c>
       <c r="E49" s="3">
-        <v>9400</v>
+        <v>11400</v>
       </c>
       <c r="F49" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="G49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7900</v>
       </c>
-      <c r="H49" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>7900</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91500</v>
+        <v>103100</v>
       </c>
       <c r="E52" s="3">
-        <v>50700</v>
+        <v>80300</v>
       </c>
       <c r="F52" s="3">
-        <v>8600</v>
+        <v>47000</v>
       </c>
       <c r="G52" s="3">
-        <v>4900</v>
+        <v>8000</v>
       </c>
       <c r="H52" s="3">
-        <v>10100</v>
+        <v>4500</v>
       </c>
       <c r="I52" s="3">
-        <v>5200</v>
+        <v>9300</v>
       </c>
       <c r="J52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6445000</v>
+        <v>6956700</v>
       </c>
       <c r="E54" s="3">
-        <v>6062100</v>
+        <v>6644900</v>
       </c>
       <c r="F54" s="3">
-        <v>5751900</v>
+        <v>5619000</v>
       </c>
       <c r="G54" s="3">
-        <v>5676500</v>
+        <v>5331500</v>
       </c>
       <c r="H54" s="3">
-        <v>5191600</v>
+        <v>5261700</v>
       </c>
       <c r="I54" s="3">
-        <v>4889500</v>
+        <v>4812100</v>
       </c>
       <c r="J54" s="3">
+        <v>4532100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3926900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3707300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2226,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E57" s="3">
         <v>460500</v>
       </c>
-      <c r="E57" s="3">
-        <v>493200</v>
-      </c>
       <c r="F57" s="3">
-        <v>346400</v>
+        <v>457200</v>
       </c>
       <c r="G57" s="3">
-        <v>430200</v>
+        <v>321100</v>
       </c>
       <c r="H57" s="3">
-        <v>429600</v>
+        <v>398700</v>
       </c>
       <c r="I57" s="3">
-        <v>341500</v>
+        <v>398200</v>
       </c>
       <c r="J57" s="3">
+        <v>316500</v>
+      </c>
+      <c r="K57" s="3">
         <v>284300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>301300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2294,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202100</v>
+        <v>226400</v>
       </c>
       <c r="E59" s="3">
-        <v>150800</v>
+        <v>201900</v>
       </c>
       <c r="F59" s="3">
-        <v>125600</v>
+        <v>139800</v>
       </c>
       <c r="G59" s="3">
-        <v>131100</v>
+        <v>116400</v>
       </c>
       <c r="H59" s="3">
-        <v>105100</v>
+        <v>121500</v>
       </c>
       <c r="I59" s="3">
-        <v>86300</v>
+        <v>97400</v>
       </c>
       <c r="J59" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K59" s="3">
         <v>57500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,72 +2364,81 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E61" s="3">
         <v>36800</v>
       </c>
-      <c r="E61" s="3">
-        <v>37500</v>
-      </c>
       <c r="F61" s="3">
-        <v>29500</v>
+        <v>34800</v>
       </c>
       <c r="G61" s="3">
-        <v>30900</v>
+        <v>27300</v>
       </c>
       <c r="H61" s="3">
+        <v>28700</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>13700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>144100</v>
+        <v>153000</v>
       </c>
       <c r="E62" s="3">
-        <v>112600</v>
+        <v>157200</v>
       </c>
       <c r="F62" s="3">
-        <v>104200</v>
+        <v>104300</v>
       </c>
       <c r="G62" s="3">
-        <v>57500</v>
+        <v>96600</v>
       </c>
       <c r="H62" s="3">
-        <v>53900</v>
+        <v>53300</v>
       </c>
       <c r="I62" s="3">
-        <v>51200</v>
+        <v>49900</v>
       </c>
       <c r="J62" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K62" s="3">
         <v>54400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>62500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5511700</v>
+        <v>5775500</v>
       </c>
       <c r="E66" s="3">
-        <v>5240900</v>
+        <v>5521100</v>
       </c>
       <c r="F66" s="3">
-        <v>5037900</v>
+        <v>4857800</v>
       </c>
       <c r="G66" s="3">
-        <v>5026900</v>
+        <v>4669700</v>
       </c>
       <c r="H66" s="3">
-        <v>4627200</v>
+        <v>4659500</v>
       </c>
       <c r="I66" s="3">
-        <v>4366900</v>
+        <v>4289000</v>
       </c>
       <c r="J66" s="3">
+        <v>4047700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3445800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3184200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>821000</v>
+        <v>690800</v>
       </c>
       <c r="E72" s="3">
-        <v>709100</v>
+        <v>633400</v>
       </c>
       <c r="F72" s="3">
-        <v>601900</v>
+        <v>657200</v>
       </c>
       <c r="G72" s="3">
-        <v>537500</v>
+        <v>557900</v>
       </c>
       <c r="H72" s="3">
-        <v>452200</v>
+        <v>498200</v>
       </c>
       <c r="I72" s="3">
-        <v>410500</v>
+        <v>419200</v>
       </c>
       <c r="J72" s="3">
+        <v>380500</v>
+      </c>
+      <c r="K72" s="3">
         <v>368900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>396500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>933300</v>
+        <v>1181300</v>
       </c>
       <c r="E76" s="3">
-        <v>821200</v>
+        <v>1123800</v>
       </c>
       <c r="F76" s="3">
-        <v>714100</v>
+        <v>761200</v>
       </c>
       <c r="G76" s="3">
-        <v>649700</v>
+        <v>661900</v>
       </c>
       <c r="H76" s="3">
-        <v>564400</v>
+        <v>602200</v>
       </c>
       <c r="I76" s="3">
-        <v>522600</v>
+        <v>523100</v>
       </c>
       <c r="J76" s="3">
+        <v>484400</v>
+      </c>
+      <c r="K76" s="3">
         <v>481100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>523100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>109500</v>
+        <v>41800</v>
       </c>
       <c r="E81" s="3">
-        <v>157200</v>
+        <v>101500</v>
       </c>
       <c r="F81" s="3">
-        <v>99300</v>
+        <v>145700</v>
       </c>
       <c r="G81" s="3">
-        <v>88000</v>
+        <v>92000</v>
       </c>
       <c r="H81" s="3">
-        <v>43000</v>
+        <v>66100</v>
       </c>
       <c r="I81" s="3">
-        <v>44000</v>
+        <v>39900</v>
       </c>
       <c r="J81" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K81" s="3">
         <v>31100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12100</v>
+        <v>11200</v>
       </c>
       <c r="E83" s="3">
-        <v>6200</v>
+        <v>11200</v>
       </c>
       <c r="F83" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G83" s="3">
-        <v>5200</v>
+        <v>-6500</v>
       </c>
       <c r="H83" s="3">
-        <v>3700</v>
+        <v>16700</v>
       </c>
       <c r="I83" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J83" s="3">
         <v>3000</v>
       </c>
       <c r="K83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>871000</v>
+        <v>-338300</v>
       </c>
       <c r="E89" s="3">
-        <v>-257500</v>
+        <v>807400</v>
       </c>
       <c r="F89" s="3">
-        <v>-131100</v>
+        <v>-238700</v>
       </c>
       <c r="G89" s="3">
-        <v>-84100</v>
+        <v>-121500</v>
       </c>
       <c r="H89" s="3">
-        <v>281100</v>
+        <v>-77900</v>
       </c>
       <c r="I89" s="3">
-        <v>214500</v>
+        <v>260600</v>
       </c>
       <c r="J89" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K89" s="3">
         <v>38000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-38900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20400</v>
+        <v>-5100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5700</v>
+        <v>-19000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6700</v>
+        <v>-5300</v>
       </c>
       <c r="G91" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H91" s="3">
-        <v>-24100</v>
+        <v>-5600</v>
       </c>
       <c r="I91" s="3">
-        <v>7900</v>
+        <v>-22400</v>
       </c>
       <c r="J91" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33500</v>
+        <v>-2500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1700</v>
+        <v>-19900</v>
       </c>
       <c r="F94" s="3">
-        <v>5300</v>
+        <v>-1600</v>
       </c>
       <c r="G94" s="3">
-        <v>19300</v>
+        <v>2900</v>
       </c>
       <c r="H94" s="3">
-        <v>-24000</v>
+        <v>20000</v>
       </c>
       <c r="I94" s="3">
-        <v>15700</v>
+        <v>-22300</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,10 +3477,13 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16300</v>
+        <v>-17700</v>
       </c>
       <c r="E100" s="3">
-        <v>-43600</v>
+        <v>15200</v>
       </c>
       <c r="F100" s="3">
-        <v>-43900</v>
+        <v>-40400</v>
       </c>
       <c r="G100" s="3">
-        <v>18600</v>
+        <v>-50600</v>
       </c>
       <c r="H100" s="3">
-        <v>-8700</v>
+        <v>27200</v>
       </c>
       <c r="I100" s="3">
-        <v>23600</v>
+        <v>-8000</v>
       </c>
       <c r="J100" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K100" s="3">
         <v>55900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43100</v>
+        <v>60900</v>
       </c>
       <c r="E101" s="3">
-        <v>349900</v>
+        <v>39900</v>
       </c>
       <c r="F101" s="3">
-        <v>-21200</v>
+        <v>324300</v>
       </c>
       <c r="G101" s="3">
-        <v>117700</v>
+        <v>-19600</v>
       </c>
       <c r="H101" s="3">
-        <v>-88200</v>
+        <v>109100</v>
       </c>
       <c r="I101" s="3">
-        <v>238500</v>
+        <v>-81800</v>
       </c>
       <c r="J101" s="3">
+        <v>221100</v>
+      </c>
+      <c r="K101" s="3">
         <v>161900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22700</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>909000</v>
+        <v>-297600</v>
       </c>
       <c r="E102" s="3">
-        <v>47100</v>
+        <v>842600</v>
       </c>
       <c r="F102" s="3">
-        <v>-190800</v>
+        <v>43600</v>
       </c>
       <c r="G102" s="3">
-        <v>71500</v>
+        <v>-176900</v>
       </c>
       <c r="H102" s="3">
-        <v>164200</v>
+        <v>66300</v>
       </c>
       <c r="I102" s="3">
-        <v>488400</v>
+        <v>152200</v>
       </c>
       <c r="J102" s="3">
+        <v>452700</v>
+      </c>
+      <c r="K102" s="3">
         <v>257800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,112 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>334000</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>352100</v>
+        <v>275700</v>
       </c>
       <c r="F8" s="3">
-        <v>367400</v>
+        <v>320000</v>
       </c>
       <c r="G8" s="3">
-        <v>312400</v>
+        <v>320200</v>
       </c>
       <c r="H8" s="3">
-        <v>385600</v>
+        <v>334100</v>
       </c>
       <c r="I8" s="3">
+        <v>417200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>369500</v>
+      </c>
+      <c r="K8" s="3">
         <v>240600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>166900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>139500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>130800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +804,14 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +845,14 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,43 +985,55 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-11200</v>
+        <v>-10300</v>
       </c>
       <c r="E15" s="3">
-        <v>-11200</v>
+        <v>-10400</v>
       </c>
       <c r="F15" s="3">
-        <v>-5700</v>
+        <v>-20900</v>
       </c>
       <c r="G15" s="3">
-        <v>-5300</v>
+        <v>-10200</v>
       </c>
       <c r="H15" s="3">
-        <v>-16700</v>
+        <v>-5200</v>
       </c>
       <c r="I15" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-3800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-3300</v>
       </c>
       <c r="M15" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>132900</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>155300</v>
+        <v>112400</v>
       </c>
       <c r="F17" s="3">
-        <v>180700</v>
+        <v>127400</v>
       </c>
       <c r="G17" s="3">
-        <v>160800</v>
+        <v>141200</v>
       </c>
       <c r="H17" s="3">
-        <v>203400</v>
+        <v>164300</v>
       </c>
       <c r="I17" s="3">
+        <v>212800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K17" s="3">
         <v>140700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>91800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>63100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>55100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>201100</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>196800</v>
+        <v>163300</v>
       </c>
       <c r="F18" s="3">
-        <v>186700</v>
+        <v>192700</v>
       </c>
       <c r="G18" s="3">
-        <v>151600</v>
+        <v>179000</v>
       </c>
       <c r="H18" s="3">
-        <v>182200</v>
+        <v>169800</v>
       </c>
       <c r="I18" s="3">
+        <v>204400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>174600</v>
+      </c>
+      <c r="K18" s="3">
         <v>99900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>75100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>76300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>75700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1143,92 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-129400</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-90800</v>
+        <v>-106500</v>
       </c>
       <c r="F20" s="3">
-        <v>-43800</v>
+        <v>-124000</v>
       </c>
       <c r="G20" s="3">
-        <v>-28300</v>
+        <v>-82600</v>
       </c>
       <c r="H20" s="3">
-        <v>-66600</v>
+        <v>-39800</v>
       </c>
       <c r="I20" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-41500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-18300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-32100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-38800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>82900</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>117200</v>
+        <v>67700</v>
       </c>
       <c r="F21" s="3">
-        <v>148700</v>
+        <v>78900</v>
       </c>
       <c r="G21" s="3">
-        <v>116800</v>
+        <v>106600</v>
       </c>
       <c r="H21" s="3">
-        <v>132300</v>
+        <v>119900</v>
       </c>
       <c r="I21" s="3">
+        <v>145600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>125900</v>
+      </c>
+      <c r="K21" s="3">
         <v>61800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>59700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>47300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>40100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1262,96 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>71700</v>
+        <v>49400</v>
       </c>
       <c r="E23" s="3">
-        <v>106000</v>
+        <v>56800</v>
       </c>
       <c r="F23" s="3">
-        <v>143000</v>
+        <v>68700</v>
       </c>
       <c r="G23" s="3">
-        <v>123300</v>
+        <v>96400</v>
       </c>
       <c r="H23" s="3">
-        <v>115600</v>
+        <v>130000</v>
       </c>
       <c r="I23" s="3">
+        <v>136200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K23" s="3">
         <v>58400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>56700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>44200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>36800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29500</v>
+        <v>-14400</v>
       </c>
       <c r="E24" s="3">
-        <v>5000</v>
+        <v>25200</v>
       </c>
       <c r="F24" s="3">
-        <v>-7800</v>
+        <v>28300</v>
       </c>
       <c r="G24" s="3">
-        <v>31300</v>
+        <v>4500</v>
       </c>
       <c r="H24" s="3">
-        <v>49500</v>
+        <v>-7100</v>
       </c>
       <c r="I24" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K24" s="3">
         <v>18500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>12700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>42200</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>101100</v>
+        <v>31600</v>
       </c>
       <c r="F26" s="3">
-        <v>150800</v>
+        <v>40400</v>
       </c>
       <c r="G26" s="3">
-        <v>92000</v>
+        <v>91900</v>
       </c>
       <c r="H26" s="3">
-        <v>66100</v>
+        <v>137100</v>
       </c>
       <c r="I26" s="3">
+        <v>105600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K26" s="3">
         <v>39900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>41400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>31500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>25900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>41800</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>101500</v>
+        <v>31000</v>
       </c>
       <c r="F27" s="3">
-        <v>145700</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="3">
-        <v>92000</v>
+        <v>92300</v>
       </c>
       <c r="H27" s="3">
-        <v>66100</v>
+        <v>132500</v>
       </c>
       <c r="I27" s="3">
+        <v>105700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K27" s="3">
         <v>39900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>40800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>31100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>25500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1631,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>129400</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>90800</v>
+        <v>106500</v>
       </c>
       <c r="F32" s="3">
-        <v>43800</v>
+        <v>124000</v>
       </c>
       <c r="G32" s="3">
-        <v>28300</v>
+        <v>82600</v>
       </c>
       <c r="H32" s="3">
-        <v>66600</v>
+        <v>39800</v>
       </c>
       <c r="I32" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K32" s="3">
         <v>41500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>18300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>32100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>38800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>41800</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>101500</v>
+        <v>31000</v>
       </c>
       <c r="F33" s="3">
-        <v>145700</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="3">
-        <v>92000</v>
+        <v>92300</v>
       </c>
       <c r="H33" s="3">
-        <v>66100</v>
+        <v>132500</v>
       </c>
       <c r="I33" s="3">
+        <v>105700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K33" s="3">
         <v>39900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>40800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>31100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>25500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>41800</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>101500</v>
+        <v>31000</v>
       </c>
       <c r="F35" s="3">
-        <v>145700</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="3">
-        <v>92000</v>
+        <v>92300</v>
       </c>
       <c r="H35" s="3">
-        <v>66100</v>
+        <v>132500</v>
       </c>
       <c r="I35" s="3">
+        <v>105700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K35" s="3">
         <v>39900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>40800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>31100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>25500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,78 +1879,92 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1928800</v>
+        <v>485700</v>
       </c>
       <c r="E41" s="3">
-        <v>2256300</v>
+        <v>1337400</v>
       </c>
       <c r="F41" s="3">
-        <v>1186300</v>
+        <v>1754000</v>
       </c>
       <c r="G41" s="3">
-        <v>1212300</v>
+        <v>2162100</v>
       </c>
       <c r="H41" s="3">
-        <v>1317700</v>
+        <v>1078800</v>
       </c>
       <c r="I41" s="3">
+        <v>1102500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1198200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1235900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1103600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>735900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>535600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>207100</v>
+        <v>1254000</v>
       </c>
       <c r="E42" s="3">
-        <v>120300</v>
+        <v>193800</v>
       </c>
       <c r="F42" s="3">
-        <v>187100</v>
+        <v>188300</v>
       </c>
       <c r="G42" s="3">
-        <v>137300</v>
+        <v>115200</v>
       </c>
       <c r="H42" s="3">
-        <v>147000</v>
+        <v>170200</v>
       </c>
       <c r="I42" s="3">
+        <v>124900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>133700</v>
+      </c>
+      <c r="K42" s="3">
         <v>212600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>96300</v>
-      </c>
-      <c r="K42" s="3">
-        <v>104300</v>
       </c>
       <c r="L42" s="3">
         <v>96300</v>
       </c>
       <c r="M42" s="3">
+        <v>104300</v>
+      </c>
+      <c r="N42" s="3">
+        <v>96300</v>
+      </c>
+      <c r="O42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1998,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2039,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +2080,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,113 +2121,137 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15300</v>
+        <v>16300</v>
       </c>
       <c r="E47" s="3">
         <v>15200</v>
       </c>
       <c r="F47" s="3">
-        <v>3700</v>
+        <v>13900</v>
       </c>
       <c r="G47" s="3">
-        <v>28200</v>
+        <v>14500</v>
       </c>
       <c r="H47" s="3">
-        <v>25200</v>
+        <v>3400</v>
       </c>
       <c r="I47" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K47" s="3">
         <v>23800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>24200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>15900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>15200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>370900</v>
+        <v>372000</v>
       </c>
       <c r="E48" s="3">
-        <v>381400</v>
+        <v>348900</v>
       </c>
       <c r="F48" s="3">
-        <v>160400</v>
+        <v>337300</v>
       </c>
       <c r="G48" s="3">
-        <v>161000</v>
+        <v>365500</v>
       </c>
       <c r="H48" s="3">
-        <v>157500</v>
+        <v>145900</v>
       </c>
       <c r="I48" s="3">
+        <v>146400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>143300</v>
+      </c>
+      <c r="K48" s="3">
         <v>133200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>124500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>133800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>149200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="E49" s="3">
-        <v>11400</v>
+        <v>13200</v>
       </c>
       <c r="F49" s="3">
-        <v>8700</v>
+        <v>11300</v>
       </c>
       <c r="G49" s="3">
-        <v>8000</v>
+        <v>10900</v>
       </c>
       <c r="H49" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N49" s="3">
         <v>7400</v>
       </c>
-      <c r="I49" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>8100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2326,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>103100</v>
+        <v>73200</v>
       </c>
       <c r="E52" s="3">
-        <v>80300</v>
+        <v>67500</v>
       </c>
       <c r="F52" s="3">
-        <v>47000</v>
+        <v>93700</v>
       </c>
       <c r="G52" s="3">
-        <v>8000</v>
+        <v>69200</v>
       </c>
       <c r="H52" s="3">
-        <v>4500</v>
+        <v>42700</v>
       </c>
       <c r="I52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K52" s="3">
         <v>9300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>13200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6956700</v>
+        <v>7278600</v>
       </c>
       <c r="E54" s="3">
-        <v>6644900</v>
+        <v>6689300</v>
       </c>
       <c r="F54" s="3">
-        <v>5619000</v>
+        <v>6326200</v>
       </c>
       <c r="G54" s="3">
-        <v>5331500</v>
+        <v>6359400</v>
       </c>
       <c r="H54" s="3">
-        <v>5261700</v>
+        <v>5109700</v>
       </c>
       <c r="I54" s="3">
+        <v>4848300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4784700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4812100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4532100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3926900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3707300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2487,51 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>623000</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>460500</v>
+        <v>396300</v>
       </c>
       <c r="F57" s="3">
-        <v>457200</v>
+        <v>566600</v>
       </c>
       <c r="G57" s="3">
-        <v>321100</v>
+        <v>436200</v>
       </c>
       <c r="H57" s="3">
-        <v>398700</v>
+        <v>415800</v>
       </c>
       <c r="I57" s="3">
+        <v>292000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>362600</v>
+      </c>
+      <c r="K57" s="3">
         <v>398200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>316500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>284300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>301300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,43 +2565,55 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>226400</v>
+        <v>35500</v>
       </c>
       <c r="E59" s="3">
-        <v>201900</v>
+        <v>138200</v>
       </c>
       <c r="F59" s="3">
-        <v>139800</v>
+        <v>205900</v>
       </c>
       <c r="G59" s="3">
-        <v>116400</v>
+        <v>193500</v>
       </c>
       <c r="H59" s="3">
-        <v>121500</v>
+        <v>127100</v>
       </c>
       <c r="I59" s="3">
+        <v>105900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K59" s="3">
         <v>97400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>80000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>57500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>49900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,78 +2647,96 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>36800</v>
+        <v>32800</v>
       </c>
       <c r="F61" s="3">
-        <v>34800</v>
+        <v>31500</v>
       </c>
       <c r="G61" s="3">
-        <v>27300</v>
+        <v>35300</v>
       </c>
       <c r="H61" s="3">
-        <v>28700</v>
+        <v>31600</v>
       </c>
       <c r="I61" s="3">
+        <v>24800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>13700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>153000</v>
+        <v>129600</v>
       </c>
       <c r="E62" s="3">
-        <v>157200</v>
+        <v>135800</v>
       </c>
       <c r="F62" s="3">
-        <v>104300</v>
+        <v>139100</v>
       </c>
       <c r="G62" s="3">
-        <v>96600</v>
+        <v>150700</v>
       </c>
       <c r="H62" s="3">
-        <v>53300</v>
+        <v>94900</v>
       </c>
       <c r="I62" s="3">
+        <v>87800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K62" s="3">
         <v>49900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>47400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>54400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>62500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5775500</v>
+        <v>5986900</v>
       </c>
       <c r="E66" s="3">
-        <v>5521100</v>
+        <v>5540700</v>
       </c>
       <c r="F66" s="3">
-        <v>4857800</v>
+        <v>5252000</v>
       </c>
       <c r="G66" s="3">
-        <v>4669700</v>
+        <v>5289100</v>
       </c>
       <c r="H66" s="3">
-        <v>4659500</v>
+        <v>4417500</v>
       </c>
       <c r="I66" s="3">
+        <v>4246400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4237100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4289000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4047700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3445800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3184200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>690800</v>
+        <v>785800</v>
       </c>
       <c r="E72" s="3">
-        <v>633400</v>
+        <v>678600</v>
       </c>
       <c r="F72" s="3">
-        <v>657200</v>
+        <v>628200</v>
       </c>
       <c r="G72" s="3">
-        <v>557900</v>
+        <v>600400</v>
       </c>
       <c r="H72" s="3">
-        <v>498200</v>
+        <v>597700</v>
       </c>
       <c r="I72" s="3">
+        <v>507300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>453000</v>
+      </c>
+      <c r="K72" s="3">
         <v>419200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>380500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>368900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>396500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1181300</v>
+        <v>1291700</v>
       </c>
       <c r="E76" s="3">
-        <v>1123800</v>
+        <v>1148600</v>
       </c>
       <c r="F76" s="3">
-        <v>761200</v>
+        <v>1074200</v>
       </c>
       <c r="G76" s="3">
-        <v>661900</v>
+        <v>1070300</v>
       </c>
       <c r="H76" s="3">
-        <v>602200</v>
+        <v>692200</v>
       </c>
       <c r="I76" s="3">
+        <v>601900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>547600</v>
+      </c>
+      <c r="K76" s="3">
         <v>523100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>484400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>481100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>523100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>41800</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>101500</v>
+        <v>31000</v>
       </c>
       <c r="F81" s="3">
-        <v>145700</v>
+        <v>40000</v>
       </c>
       <c r="G81" s="3">
-        <v>92000</v>
+        <v>92300</v>
       </c>
       <c r="H81" s="3">
-        <v>66100</v>
+        <v>132500</v>
       </c>
       <c r="I81" s="3">
+        <v>105700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K81" s="3">
         <v>39900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>40800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>31100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>25500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3428,51 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="E83" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="F83" s="3">
-        <v>5700</v>
+        <v>10200</v>
       </c>
       <c r="G83" s="3">
-        <v>-6500</v>
+        <v>10200</v>
       </c>
       <c r="H83" s="3">
-        <v>16700</v>
+        <v>-10100</v>
       </c>
       <c r="I83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-338300</v>
+        <v>469500</v>
       </c>
       <c r="E89" s="3">
-        <v>807400</v>
+        <v>-513400</v>
       </c>
       <c r="F89" s="3">
-        <v>-238700</v>
+        <v>-307700</v>
       </c>
       <c r="G89" s="3">
-        <v>-121500</v>
+        <v>734200</v>
       </c>
       <c r="H89" s="3">
-        <v>-77900</v>
+        <v>-217000</v>
       </c>
       <c r="I89" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="K89" s="3">
         <v>260600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>198900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>38000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-38900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3732,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-22400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2500</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-19900</v>
+        <v>-1700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1600</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
-        <v>2900</v>
+        <v>-18100</v>
       </c>
       <c r="H94" s="3">
-        <v>20000</v>
+        <v>-1500</v>
       </c>
       <c r="I94" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>14500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,10 +3948,16 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +4073,133 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17700</v>
+        <v>-32700</v>
       </c>
       <c r="E100" s="3">
-        <v>15200</v>
+        <v>-28400</v>
       </c>
       <c r="F100" s="3">
-        <v>-40400</v>
+        <v>-16100</v>
       </c>
       <c r="G100" s="3">
-        <v>-50600</v>
+        <v>13800</v>
       </c>
       <c r="H100" s="3">
-        <v>27200</v>
+        <v>-36700</v>
       </c>
       <c r="I100" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>21900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>55900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>60900</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>39900</v>
+        <v>12400</v>
       </c>
       <c r="F101" s="3">
-        <v>324300</v>
+        <v>55400</v>
       </c>
       <c r="G101" s="3">
-        <v>-19600</v>
+        <v>36300</v>
       </c>
       <c r="H101" s="3">
-        <v>109100</v>
+        <v>294900</v>
       </c>
       <c r="I101" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>99200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-81800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>221100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>161900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>22700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-297600</v>
+        <v>87200</v>
       </c>
       <c r="E102" s="3">
-        <v>842600</v>
+        <v>-531200</v>
       </c>
       <c r="F102" s="3">
-        <v>43600</v>
+        <v>-270600</v>
       </c>
       <c r="G102" s="3">
-        <v>-176900</v>
+        <v>766200</v>
       </c>
       <c r="H102" s="3">
-        <v>66300</v>
+        <v>39700</v>
       </c>
       <c r="I102" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K102" s="3">
         <v>152200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>452700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>257800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-21800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -733,26 +733,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>285200</v>
       </c>
       <c r="E8" s="3">
-        <v>275700</v>
+        <v>567500</v>
       </c>
       <c r="F8" s="3">
-        <v>320000</v>
+        <v>283200</v>
       </c>
       <c r="G8" s="3">
-        <v>320200</v>
+        <v>283400</v>
       </c>
       <c r="H8" s="3">
-        <v>334100</v>
+        <v>425900</v>
       </c>
       <c r="I8" s="3">
-        <v>417200</v>
+        <v>749400</v>
       </c>
       <c r="J8" s="3">
-        <v>369500</v>
+        <v>327000</v>
       </c>
       <c r="K8" s="3">
         <v>240600</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-10300</v>
+        <v>-9100</v>
       </c>
       <c r="E15" s="3">
-        <v>-10400</v>
+        <v>-20100</v>
       </c>
       <c r="F15" s="3">
-        <v>-20900</v>
+        <v>-18500</v>
       </c>
       <c r="G15" s="3">
-        <v>-10200</v>
+        <v>-9000</v>
       </c>
       <c r="H15" s="3">
-        <v>-5200</v>
+        <v>-16200</v>
       </c>
       <c r="I15" s="3">
-        <v>-13500</v>
+        <v>-27700</v>
       </c>
       <c r="J15" s="3">
-        <v>-31200</v>
+        <v>-27600</v>
       </c>
       <c r="K15" s="3">
         <v>-3800</v>
@@ -1051,26 +1051,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>113500</v>
       </c>
       <c r="E17" s="3">
-        <v>112400</v>
+        <v>228400</v>
       </c>
       <c r="F17" s="3">
-        <v>127400</v>
+        <v>112700</v>
       </c>
       <c r="G17" s="3">
-        <v>141200</v>
+        <v>125000</v>
       </c>
       <c r="H17" s="3">
-        <v>164300</v>
+        <v>257200</v>
       </c>
       <c r="I17" s="3">
-        <v>212800</v>
+        <v>388400</v>
       </c>
       <c r="J17" s="3">
-        <v>194900</v>
+        <v>172500</v>
       </c>
       <c r="K17" s="3">
         <v>140700</v>
@@ -1092,26 +1092,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>171700</v>
       </c>
       <c r="E18" s="3">
-        <v>163300</v>
+        <v>339100</v>
       </c>
       <c r="F18" s="3">
-        <v>192700</v>
+        <v>170500</v>
       </c>
       <c r="G18" s="3">
-        <v>179000</v>
+        <v>158400</v>
       </c>
       <c r="H18" s="3">
-        <v>169800</v>
+        <v>168700</v>
       </c>
       <c r="I18" s="3">
-        <v>204400</v>
+        <v>361000</v>
       </c>
       <c r="J18" s="3">
-        <v>174600</v>
+        <v>154500</v>
       </c>
       <c r="K18" s="3">
         <v>99900</v>
@@ -1150,26 +1150,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-128000</v>
       </c>
       <c r="E20" s="3">
-        <v>-106500</v>
+        <v>-219500</v>
       </c>
       <c r="F20" s="3">
-        <v>-124000</v>
+        <v>-109700</v>
       </c>
       <c r="G20" s="3">
-        <v>-82600</v>
+        <v>-73100</v>
       </c>
       <c r="H20" s="3">
-        <v>-39800</v>
+        <v>-67500</v>
       </c>
       <c r="I20" s="3">
-        <v>-68200</v>
+        <v>-125800</v>
       </c>
       <c r="J20" s="3">
-        <v>-63800</v>
+        <v>-56500</v>
       </c>
       <c r="K20" s="3">
         <v>-41500</v>
@@ -1191,26 +1191,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>54300</v>
       </c>
       <c r="E21" s="3">
-        <v>67700</v>
+        <v>138200</v>
       </c>
       <c r="F21" s="3">
-        <v>78900</v>
+        <v>69800</v>
       </c>
       <c r="G21" s="3">
-        <v>106600</v>
+        <v>72100</v>
       </c>
       <c r="H21" s="3">
-        <v>119900</v>
+        <v>114500</v>
       </c>
       <c r="I21" s="3">
-        <v>145600</v>
+        <v>257000</v>
       </c>
       <c r="J21" s="3">
-        <v>125900</v>
+        <v>111500</v>
       </c>
       <c r="K21" s="3">
         <v>61800</v>
@@ -1274,25 +1274,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49400</v>
+        <v>43700</v>
       </c>
       <c r="E23" s="3">
-        <v>56800</v>
+        <v>119600</v>
       </c>
       <c r="F23" s="3">
-        <v>68700</v>
+        <v>60800</v>
       </c>
       <c r="G23" s="3">
-        <v>96400</v>
+        <v>85300</v>
       </c>
       <c r="H23" s="3">
-        <v>130000</v>
+        <v>101200</v>
       </c>
       <c r="I23" s="3">
-        <v>136200</v>
+        <v>235300</v>
       </c>
       <c r="J23" s="3">
-        <v>110800</v>
+        <v>98000</v>
       </c>
       <c r="K23" s="3">
         <v>58400</v>
@@ -1315,25 +1315,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-14400</v>
+        <v>12800</v>
       </c>
       <c r="E24" s="3">
-        <v>25200</v>
+        <v>51000</v>
       </c>
       <c r="F24" s="3">
-        <v>28300</v>
+        <v>25000</v>
       </c>
       <c r="G24" s="3">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="H24" s="3">
-        <v>-7100</v>
+        <v>11800</v>
       </c>
       <c r="I24" s="3">
-        <v>30600</v>
+        <v>74300</v>
       </c>
       <c r="J24" s="3">
-        <v>47500</v>
+        <v>42000</v>
       </c>
       <c r="K24" s="3">
         <v>18500</v>
@@ -1396,26 +1396,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>30900</v>
       </c>
       <c r="E26" s="3">
-        <v>31600</v>
+        <v>68600</v>
       </c>
       <c r="F26" s="3">
-        <v>40400</v>
+        <v>35800</v>
       </c>
       <c r="G26" s="3">
-        <v>91900</v>
+        <v>81300</v>
       </c>
       <c r="H26" s="3">
-        <v>137100</v>
+        <v>89400</v>
       </c>
       <c r="I26" s="3">
-        <v>105600</v>
+        <v>160900</v>
       </c>
       <c r="J26" s="3">
-        <v>63300</v>
+        <v>56000</v>
       </c>
       <c r="K26" s="3">
         <v>39900</v>
@@ -1437,26 +1437,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>31000</v>
       </c>
       <c r="E27" s="3">
-        <v>31000</v>
+        <v>67600</v>
       </c>
       <c r="F27" s="3">
-        <v>40000</v>
+        <v>35400</v>
       </c>
       <c r="G27" s="3">
-        <v>92300</v>
+        <v>81700</v>
       </c>
       <c r="H27" s="3">
-        <v>132500</v>
+        <v>84600</v>
       </c>
       <c r="I27" s="3">
-        <v>105700</v>
+        <v>161000</v>
       </c>
       <c r="J27" s="3">
-        <v>63300</v>
+        <v>56000</v>
       </c>
       <c r="K27" s="3">
         <v>39900</v>
@@ -1642,26 +1642,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>128000</v>
       </c>
       <c r="E32" s="3">
-        <v>106500</v>
+        <v>219500</v>
       </c>
       <c r="F32" s="3">
-        <v>124000</v>
+        <v>109700</v>
       </c>
       <c r="G32" s="3">
-        <v>82600</v>
+        <v>73100</v>
       </c>
       <c r="H32" s="3">
-        <v>39800</v>
+        <v>67500</v>
       </c>
       <c r="I32" s="3">
-        <v>68200</v>
+        <v>125800</v>
       </c>
       <c r="J32" s="3">
-        <v>63800</v>
+        <v>56500</v>
       </c>
       <c r="K32" s="3">
         <v>41500</v>
@@ -1683,26 +1683,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>31000</v>
       </c>
       <c r="E33" s="3">
-        <v>31000</v>
+        <v>67600</v>
       </c>
       <c r="F33" s="3">
-        <v>40000</v>
+        <v>35400</v>
       </c>
       <c r="G33" s="3">
-        <v>92300</v>
+        <v>81700</v>
       </c>
       <c r="H33" s="3">
-        <v>132500</v>
+        <v>84600</v>
       </c>
       <c r="I33" s="3">
-        <v>105700</v>
+        <v>161000</v>
       </c>
       <c r="J33" s="3">
-        <v>63300</v>
+        <v>56000</v>
       </c>
       <c r="K33" s="3">
         <v>39900</v>
@@ -1765,26 +1765,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>31000</v>
       </c>
       <c r="E35" s="3">
-        <v>31000</v>
+        <v>67600</v>
       </c>
       <c r="F35" s="3">
-        <v>40000</v>
+        <v>35400</v>
       </c>
       <c r="G35" s="3">
-        <v>92300</v>
+        <v>81700</v>
       </c>
       <c r="H35" s="3">
-        <v>132500</v>
+        <v>84600</v>
       </c>
       <c r="I35" s="3">
-        <v>105700</v>
+        <v>161000</v>
       </c>
       <c r="J35" s="3">
-        <v>63300</v>
+        <v>56000</v>
       </c>
       <c r="K35" s="3">
         <v>39900</v>
@@ -1887,25 +1887,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>485700</v>
+        <v>1408400</v>
       </c>
       <c r="E41" s="3">
-        <v>1337400</v>
+        <v>1183500</v>
       </c>
       <c r="F41" s="3">
-        <v>1754000</v>
+        <v>1552100</v>
       </c>
       <c r="G41" s="3">
-        <v>2162100</v>
+        <v>2059700</v>
       </c>
       <c r="H41" s="3">
-        <v>1078800</v>
+        <v>954700</v>
       </c>
       <c r="I41" s="3">
-        <v>1102500</v>
+        <v>975600</v>
       </c>
       <c r="J41" s="3">
-        <v>1198200</v>
+        <v>1060300</v>
       </c>
       <c r="K41" s="3">
         <v>1235900</v>
@@ -1928,25 +1928,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1254000</v>
+        <v>131100</v>
       </c>
       <c r="E42" s="3">
-        <v>193800</v>
+        <v>171500</v>
       </c>
       <c r="F42" s="3">
-        <v>188300</v>
+        <v>166700</v>
       </c>
       <c r="G42" s="3">
-        <v>115200</v>
+        <v>109800</v>
       </c>
       <c r="H42" s="3">
-        <v>170200</v>
+        <v>150600</v>
       </c>
       <c r="I42" s="3">
-        <v>124900</v>
+        <v>110500</v>
       </c>
       <c r="J42" s="3">
-        <v>133700</v>
+        <v>118300</v>
       </c>
       <c r="K42" s="3">
         <v>212600</v>
@@ -2133,25 +2133,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16300</v>
+        <v>14500</v>
       </c>
       <c r="E47" s="3">
-        <v>15200</v>
+        <v>13400</v>
       </c>
       <c r="F47" s="3">
-        <v>13900</v>
+        <v>12300</v>
       </c>
       <c r="G47" s="3">
-        <v>14500</v>
+        <v>13800</v>
       </c>
       <c r="H47" s="3">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="I47" s="3">
-        <v>25600</v>
+        <v>22700</v>
       </c>
       <c r="J47" s="3">
-        <v>22900</v>
+        <v>20300</v>
       </c>
       <c r="K47" s="3">
         <v>23800</v>
@@ -2174,25 +2174,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>372000</v>
+        <v>329200</v>
       </c>
       <c r="E48" s="3">
-        <v>348900</v>
+        <v>308700</v>
       </c>
       <c r="F48" s="3">
-        <v>337300</v>
+        <v>298500</v>
       </c>
       <c r="G48" s="3">
-        <v>365500</v>
+        <v>348200</v>
       </c>
       <c r="H48" s="3">
-        <v>145900</v>
+        <v>129100</v>
       </c>
       <c r="I48" s="3">
-        <v>146400</v>
+        <v>129600</v>
       </c>
       <c r="J48" s="3">
-        <v>143300</v>
+        <v>126800</v>
       </c>
       <c r="K48" s="3">
         <v>133200</v>
@@ -2215,25 +2215,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16000</v>
+        <v>14100</v>
       </c>
       <c r="E49" s="3">
-        <v>13200</v>
+        <v>11700</v>
       </c>
       <c r="F49" s="3">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G49" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="H49" s="3">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="I49" s="3">
-        <v>7300</v>
+        <v>6400</v>
       </c>
       <c r="J49" s="3">
-        <v>6700</v>
+        <v>5900</v>
       </c>
       <c r="K49" s="3">
         <v>6900</v>
@@ -2338,25 +2338,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73200</v>
+        <v>64800</v>
       </c>
       <c r="E52" s="3">
-        <v>67500</v>
+        <v>59700</v>
       </c>
       <c r="F52" s="3">
-        <v>93700</v>
+        <v>82900</v>
       </c>
       <c r="G52" s="3">
-        <v>69200</v>
+        <v>65900</v>
       </c>
       <c r="H52" s="3">
-        <v>42700</v>
+        <v>37800</v>
       </c>
       <c r="I52" s="3">
-        <v>7200</v>
+        <v>6400</v>
       </c>
       <c r="J52" s="3">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="K52" s="3">
         <v>9300</v>
@@ -2420,25 +2420,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7278600</v>
+        <v>6441000</v>
       </c>
       <c r="E54" s="3">
-        <v>6689300</v>
+        <v>5919500</v>
       </c>
       <c r="F54" s="3">
-        <v>6326200</v>
+        <v>5598200</v>
       </c>
       <c r="G54" s="3">
-        <v>6359400</v>
+        <v>6058400</v>
       </c>
       <c r="H54" s="3">
-        <v>5109700</v>
+        <v>4521700</v>
       </c>
       <c r="I54" s="3">
-        <v>4848300</v>
+        <v>4290400</v>
       </c>
       <c r="J54" s="3">
-        <v>4784700</v>
+        <v>4234100</v>
       </c>
       <c r="K54" s="3">
         <v>4812100</v>
@@ -2494,26 +2494,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>479600</v>
       </c>
       <c r="E57" s="3">
-        <v>396300</v>
+        <v>350700</v>
       </c>
       <c r="F57" s="3">
-        <v>566600</v>
+        <v>501400</v>
       </c>
       <c r="G57" s="3">
-        <v>436200</v>
+        <v>415500</v>
       </c>
       <c r="H57" s="3">
-        <v>415800</v>
+        <v>367900</v>
       </c>
       <c r="I57" s="3">
-        <v>292000</v>
+        <v>258400</v>
       </c>
       <c r="J57" s="3">
-        <v>362600</v>
+        <v>320900</v>
       </c>
       <c r="K57" s="3">
         <v>398200</v>
@@ -2577,25 +2577,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35500</v>
+        <v>129800</v>
       </c>
       <c r="E59" s="3">
-        <v>138200</v>
+        <v>122300</v>
       </c>
       <c r="F59" s="3">
-        <v>205900</v>
+        <v>182200</v>
       </c>
       <c r="G59" s="3">
-        <v>193500</v>
+        <v>184300</v>
       </c>
       <c r="H59" s="3">
-        <v>127100</v>
+        <v>112500</v>
       </c>
       <c r="I59" s="3">
-        <v>105900</v>
+        <v>93700</v>
       </c>
       <c r="J59" s="3">
-        <v>110500</v>
+        <v>97800</v>
       </c>
       <c r="K59" s="3">
         <v>97400</v>
@@ -2659,25 +2659,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>30400</v>
       </c>
       <c r="E61" s="3">
-        <v>32800</v>
+        <v>29000</v>
       </c>
       <c r="F61" s="3">
-        <v>31500</v>
+        <v>27900</v>
       </c>
       <c r="G61" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="H61" s="3">
-        <v>31600</v>
+        <v>28000</v>
       </c>
       <c r="I61" s="3">
-        <v>24800</v>
+        <v>22000</v>
       </c>
       <c r="J61" s="3">
-        <v>26100</v>
+        <v>23100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -2700,25 +2700,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>129600</v>
+        <v>114700</v>
       </c>
       <c r="E62" s="3">
-        <v>135800</v>
+        <v>120200</v>
       </c>
       <c r="F62" s="3">
-        <v>139100</v>
+        <v>123100</v>
       </c>
       <c r="G62" s="3">
-        <v>150700</v>
+        <v>143500</v>
       </c>
       <c r="H62" s="3">
-        <v>94900</v>
+        <v>84000</v>
       </c>
       <c r="I62" s="3">
-        <v>87800</v>
+        <v>77700</v>
       </c>
       <c r="J62" s="3">
-        <v>48500</v>
+        <v>42900</v>
       </c>
       <c r="K62" s="3">
         <v>49900</v>
@@ -2864,25 +2864,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5986900</v>
+        <v>5297900</v>
       </c>
       <c r="E66" s="3">
-        <v>5540700</v>
+        <v>4903100</v>
       </c>
       <c r="F66" s="3">
-        <v>5252000</v>
+        <v>4647600</v>
       </c>
       <c r="G66" s="3">
-        <v>5289100</v>
+        <v>5038800</v>
       </c>
       <c r="H66" s="3">
-        <v>4417500</v>
+        <v>3909200</v>
       </c>
       <c r="I66" s="3">
-        <v>4246400</v>
+        <v>3757700</v>
       </c>
       <c r="J66" s="3">
-        <v>4237100</v>
+        <v>3749600</v>
       </c>
       <c r="K66" s="3">
         <v>4289000</v>
@@ -3086,25 +3086,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>785800</v>
+        <v>695400</v>
       </c>
       <c r="E72" s="3">
-        <v>678600</v>
+        <v>600600</v>
       </c>
       <c r="F72" s="3">
-        <v>628200</v>
+        <v>555900</v>
       </c>
       <c r="G72" s="3">
-        <v>600400</v>
+        <v>572000</v>
       </c>
       <c r="H72" s="3">
-        <v>597700</v>
+        <v>528900</v>
       </c>
       <c r="I72" s="3">
-        <v>507300</v>
+        <v>449000</v>
       </c>
       <c r="J72" s="3">
-        <v>453000</v>
+        <v>400900</v>
       </c>
       <c r="K72" s="3">
         <v>419200</v>
@@ -3250,25 +3250,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1291700</v>
+        <v>1143100</v>
       </c>
       <c r="E76" s="3">
-        <v>1148600</v>
+        <v>1016400</v>
       </c>
       <c r="F76" s="3">
-        <v>1074200</v>
+        <v>950600</v>
       </c>
       <c r="G76" s="3">
-        <v>1070300</v>
+        <v>1019700</v>
       </c>
       <c r="H76" s="3">
-        <v>692200</v>
+        <v>612600</v>
       </c>
       <c r="I76" s="3">
-        <v>601900</v>
+        <v>532600</v>
       </c>
       <c r="J76" s="3">
-        <v>547600</v>
+        <v>484600</v>
       </c>
       <c r="K76" s="3">
         <v>523100</v>
@@ -3377,26 +3377,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>31000</v>
       </c>
       <c r="E81" s="3">
-        <v>31000</v>
+        <v>67600</v>
       </c>
       <c r="F81" s="3">
-        <v>40000</v>
+        <v>35400</v>
       </c>
       <c r="G81" s="3">
-        <v>92300</v>
+        <v>81700</v>
       </c>
       <c r="H81" s="3">
-        <v>132500</v>
+        <v>84600</v>
       </c>
       <c r="I81" s="3">
-        <v>105700</v>
+        <v>161000</v>
       </c>
       <c r="J81" s="3">
-        <v>63300</v>
+        <v>56000</v>
       </c>
       <c r="K81" s="3">
         <v>39900</v>
@@ -3436,25 +3436,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12000</v>
+        <v>10600</v>
       </c>
       <c r="E83" s="3">
-        <v>10900</v>
+        <v>18700</v>
       </c>
       <c r="F83" s="3">
-        <v>10200</v>
+        <v>9000</v>
       </c>
       <c r="G83" s="3">
-        <v>10200</v>
+        <v>-13200</v>
       </c>
       <c r="H83" s="3">
-        <v>-10100</v>
+        <v>13300</v>
       </c>
       <c r="I83" s="3">
-        <v>9400</v>
+        <v>21800</v>
       </c>
       <c r="J83" s="3">
-        <v>15200</v>
+        <v>13400</v>
       </c>
       <c r="K83" s="3">
         <v>3400</v>
@@ -3682,25 +3682,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>469500</v>
+        <v>87600</v>
       </c>
       <c r="E89" s="3">
-        <v>-513400</v>
+        <v>-726600</v>
       </c>
       <c r="F89" s="3">
-        <v>-307700</v>
+        <v>-272300</v>
       </c>
       <c r="G89" s="3">
-        <v>734200</v>
+        <v>649700</v>
       </c>
       <c r="H89" s="3">
-        <v>-217000</v>
+        <v>-192100</v>
       </c>
       <c r="I89" s="3">
-        <v>-110500</v>
+        <v>-160500</v>
       </c>
       <c r="J89" s="3">
-        <v>-70900</v>
+        <v>-62700</v>
       </c>
       <c r="K89" s="3">
         <v>260600</v>
@@ -3740,25 +3740,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-9500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5700</v>
-      </c>
       <c r="J91" s="3">
-        <v>-5100</v>
+        <v>-4500</v>
       </c>
       <c r="K91" s="3">
         <v>-22400</v>
@@ -3862,26 +3862,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-7900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1700</v>
+        <v>-3600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2300</v>
+        <v>-2000</v>
       </c>
       <c r="G94" s="3">
-        <v>-18100</v>
+        <v>-16000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
+        <v>-1300</v>
       </c>
       <c r="I94" s="3">
-        <v>2600</v>
+        <v>18400</v>
       </c>
       <c r="J94" s="3">
-        <v>18100</v>
+        <v>16100</v>
       </c>
       <c r="K94" s="3">
         <v>-22300</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-26300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4085,25 +4085,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-32700</v>
+        <v>-28900</v>
       </c>
       <c r="E100" s="3">
-        <v>-28400</v>
+        <v>-39400</v>
       </c>
       <c r="F100" s="3">
-        <v>-16100</v>
+        <v>-14200</v>
       </c>
       <c r="G100" s="3">
-        <v>13800</v>
+        <v>12200</v>
       </c>
       <c r="H100" s="3">
-        <v>-36700</v>
+        <v>-32500</v>
       </c>
       <c r="I100" s="3">
-        <v>-46000</v>
+        <v>-18800</v>
       </c>
       <c r="J100" s="3">
-        <v>24800</v>
+        <v>21900</v>
       </c>
       <c r="K100" s="3">
         <v>-8000</v>
@@ -4125,26 +4125,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>26300</v>
       </c>
       <c r="E101" s="3">
-        <v>12400</v>
+        <v>60000</v>
       </c>
       <c r="F101" s="3">
-        <v>55400</v>
+        <v>49000</v>
       </c>
       <c r="G101" s="3">
-        <v>36300</v>
+        <v>32100</v>
       </c>
       <c r="H101" s="3">
-        <v>294900</v>
+        <v>261000</v>
       </c>
       <c r="I101" s="3">
-        <v>-17800</v>
+        <v>72000</v>
       </c>
       <c r="J101" s="3">
-        <v>99200</v>
+        <v>87800</v>
       </c>
       <c r="K101" s="3">
         <v>-81800</v>
@@ -4167,25 +4167,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>87200</v>
+        <v>77200</v>
       </c>
       <c r="E102" s="3">
-        <v>-531200</v>
+        <v>-709500</v>
       </c>
       <c r="F102" s="3">
-        <v>-270600</v>
+        <v>-239500</v>
       </c>
       <c r="G102" s="3">
-        <v>766200</v>
+        <v>678000</v>
       </c>
       <c r="H102" s="3">
-        <v>39700</v>
+        <v>35100</v>
       </c>
       <c r="I102" s="3">
-        <v>-160900</v>
+        <v>-89000</v>
       </c>
       <c r="J102" s="3">
-        <v>60300</v>
+        <v>53300</v>
       </c>
       <c r="K102" s="3">
         <v>152200</v>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,118 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>285200</v>
+        <v>433600</v>
       </c>
       <c r="E8" s="3">
-        <v>567500</v>
+        <v>277100</v>
       </c>
       <c r="F8" s="3">
-        <v>283200</v>
+        <v>551400</v>
       </c>
       <c r="G8" s="3">
-        <v>283400</v>
+        <v>275200</v>
       </c>
       <c r="H8" s="3">
-        <v>425900</v>
+        <v>517100</v>
       </c>
       <c r="I8" s="3">
-        <v>749400</v>
+        <v>413800</v>
       </c>
       <c r="J8" s="3">
+        <v>728200</v>
+      </c>
+      <c r="K8" s="3">
         <v>327000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>240600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>166900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>139500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>130800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,49 +1010,55 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-9100</v>
+        <v>-14700</v>
       </c>
       <c r="E15" s="3">
-        <v>-20100</v>
+        <v>-8900</v>
       </c>
       <c r="F15" s="3">
-        <v>-18500</v>
+        <v>-19500</v>
       </c>
       <c r="G15" s="3">
-        <v>-9000</v>
+        <v>-17900</v>
       </c>
       <c r="H15" s="3">
-        <v>-16200</v>
+        <v>-26700</v>
       </c>
       <c r="I15" s="3">
-        <v>-27700</v>
+        <v>-15800</v>
       </c>
       <c r="J15" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-27600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-3800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-3000</v>
       </c>
       <c r="M15" s="3">
         <v>-3000</v>
       </c>
       <c r="N15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O15" s="3">
         <v>-3300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>113500</v>
+        <v>209200</v>
       </c>
       <c r="E17" s="3">
-        <v>228400</v>
+        <v>110200</v>
       </c>
       <c r="F17" s="3">
-        <v>112700</v>
+        <v>222000</v>
       </c>
       <c r="G17" s="3">
-        <v>125000</v>
+        <v>109500</v>
       </c>
       <c r="H17" s="3">
-        <v>257200</v>
+        <v>264900</v>
       </c>
       <c r="I17" s="3">
-        <v>388400</v>
+        <v>249900</v>
       </c>
       <c r="J17" s="3">
+        <v>377400</v>
+      </c>
+      <c r="K17" s="3">
         <v>172500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>140700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>91800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>63100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>55100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>171700</v>
+        <v>224400</v>
       </c>
       <c r="E18" s="3">
-        <v>339100</v>
+        <v>166800</v>
       </c>
       <c r="F18" s="3">
-        <v>170500</v>
+        <v>329500</v>
       </c>
       <c r="G18" s="3">
-        <v>158400</v>
+        <v>165700</v>
       </c>
       <c r="H18" s="3">
-        <v>168700</v>
+        <v>252200</v>
       </c>
       <c r="I18" s="3">
-        <v>361000</v>
+        <v>163900</v>
       </c>
       <c r="J18" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K18" s="3">
         <v>154500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>99900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>75100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-128000</v>
+        <v>-163800</v>
       </c>
       <c r="E20" s="3">
-        <v>-219500</v>
+        <v>-124400</v>
       </c>
       <c r="F20" s="3">
-        <v>-109700</v>
+        <v>-213300</v>
       </c>
       <c r="G20" s="3">
-        <v>-73100</v>
+        <v>-106600</v>
       </c>
       <c r="H20" s="3">
-        <v>-67500</v>
+        <v>-264100</v>
       </c>
       <c r="I20" s="3">
-        <v>-125800</v>
+        <v>-65600</v>
       </c>
       <c r="J20" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-56500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-32100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-38800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>54300</v>
+        <v>75300</v>
       </c>
       <c r="E21" s="3">
-        <v>138200</v>
+        <v>52700</v>
       </c>
       <c r="F21" s="3">
-        <v>69800</v>
+        <v>134300</v>
       </c>
       <c r="G21" s="3">
-        <v>72100</v>
+        <v>67800</v>
       </c>
       <c r="H21" s="3">
-        <v>114500</v>
+        <v>14800</v>
       </c>
       <c r="I21" s="3">
-        <v>257000</v>
+        <v>111200</v>
       </c>
       <c r="J21" s="3">
+        <v>249700</v>
+      </c>
+      <c r="K21" s="3">
         <v>111500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>61800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>59700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>43700</v>
+        <v>60600</v>
       </c>
       <c r="E23" s="3">
-        <v>119600</v>
+        <v>42500</v>
       </c>
       <c r="F23" s="3">
-        <v>60800</v>
+        <v>116200</v>
       </c>
       <c r="G23" s="3">
-        <v>85300</v>
+        <v>59100</v>
       </c>
       <c r="H23" s="3">
-        <v>101200</v>
+        <v>-11900</v>
       </c>
       <c r="I23" s="3">
-        <v>235300</v>
+        <v>98300</v>
       </c>
       <c r="J23" s="3">
+        <v>228600</v>
+      </c>
+      <c r="K23" s="3">
         <v>98000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>56700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12800</v>
+        <v>29600</v>
       </c>
       <c r="E24" s="3">
-        <v>51000</v>
+        <v>12400</v>
       </c>
       <c r="F24" s="3">
-        <v>25000</v>
+        <v>49600</v>
       </c>
       <c r="G24" s="3">
-        <v>4000</v>
+        <v>24300</v>
       </c>
       <c r="H24" s="3">
-        <v>11800</v>
+        <v>22200</v>
       </c>
       <c r="I24" s="3">
-        <v>74300</v>
+        <v>11500</v>
       </c>
       <c r="J24" s="3">
+        <v>72200</v>
+      </c>
+      <c r="K24" s="3">
         <v>42000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30900</v>
+        <v>31000</v>
       </c>
       <c r="E26" s="3">
-        <v>68600</v>
+        <v>30100</v>
       </c>
       <c r="F26" s="3">
-        <v>35800</v>
+        <v>66600</v>
       </c>
       <c r="G26" s="3">
-        <v>81300</v>
+        <v>34700</v>
       </c>
       <c r="H26" s="3">
-        <v>89400</v>
+        <v>-34100</v>
       </c>
       <c r="I26" s="3">
-        <v>160900</v>
+        <v>86800</v>
       </c>
       <c r="J26" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K26" s="3">
         <v>56000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="E27" s="3">
-        <v>67600</v>
+        <v>30100</v>
       </c>
       <c r="F27" s="3">
-        <v>35400</v>
+        <v>65700</v>
       </c>
       <c r="G27" s="3">
-        <v>81700</v>
+        <v>34400</v>
       </c>
       <c r="H27" s="3">
-        <v>84600</v>
+        <v>-29500</v>
       </c>
       <c r="I27" s="3">
-        <v>161000</v>
+        <v>82200</v>
       </c>
       <c r="J27" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K27" s="3">
         <v>56000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>39900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>128000</v>
+        <v>163800</v>
       </c>
       <c r="E32" s="3">
-        <v>219500</v>
+        <v>124400</v>
       </c>
       <c r="F32" s="3">
-        <v>109700</v>
+        <v>213300</v>
       </c>
       <c r="G32" s="3">
-        <v>73100</v>
+        <v>106600</v>
       </c>
       <c r="H32" s="3">
-        <v>67500</v>
+        <v>264100</v>
       </c>
       <c r="I32" s="3">
-        <v>125800</v>
+        <v>65600</v>
       </c>
       <c r="J32" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K32" s="3">
         <v>56500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>32100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>38800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="E33" s="3">
-        <v>67600</v>
+        <v>30100</v>
       </c>
       <c r="F33" s="3">
-        <v>35400</v>
+        <v>65700</v>
       </c>
       <c r="G33" s="3">
-        <v>81700</v>
+        <v>34400</v>
       </c>
       <c r="H33" s="3">
-        <v>84600</v>
+        <v>-29500</v>
       </c>
       <c r="I33" s="3">
-        <v>161000</v>
+        <v>82200</v>
       </c>
       <c r="J33" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K33" s="3">
         <v>56000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>39900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="E35" s="3">
-        <v>67600</v>
+        <v>30100</v>
       </c>
       <c r="F35" s="3">
-        <v>35400</v>
+        <v>65700</v>
       </c>
       <c r="G35" s="3">
-        <v>81700</v>
+        <v>34400</v>
       </c>
       <c r="H35" s="3">
-        <v>84600</v>
+        <v>-29500</v>
       </c>
       <c r="I35" s="3">
-        <v>161000</v>
+        <v>82200</v>
       </c>
       <c r="J35" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K35" s="3">
         <v>56000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>39900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,90 +1966,97 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1408400</v>
+        <v>1574800</v>
       </c>
       <c r="E41" s="3">
-        <v>1183500</v>
+        <v>1368400</v>
       </c>
       <c r="F41" s="3">
-        <v>1552100</v>
+        <v>1149900</v>
       </c>
       <c r="G41" s="3">
-        <v>2059700</v>
+        <v>1508100</v>
       </c>
       <c r="H41" s="3">
-        <v>954700</v>
+        <v>2228000</v>
       </c>
       <c r="I41" s="3">
-        <v>975600</v>
+        <v>927600</v>
       </c>
       <c r="J41" s="3">
+        <v>947900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1060300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1235900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1103600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>735900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>535600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>131100</v>
+        <v>91400</v>
       </c>
       <c r="E42" s="3">
-        <v>171500</v>
+        <v>127400</v>
       </c>
       <c r="F42" s="3">
-        <v>166700</v>
+        <v>166600</v>
       </c>
       <c r="G42" s="3">
-        <v>109800</v>
+        <v>161900</v>
       </c>
       <c r="H42" s="3">
-        <v>150600</v>
+        <v>118700</v>
       </c>
       <c r="I42" s="3">
-        <v>110500</v>
+        <v>146300</v>
       </c>
       <c r="J42" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K42" s="3">
         <v>118300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>212600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>96300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>104300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>96300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,8 +2140,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,131 +2228,143 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14500</v>
+        <v>15300</v>
       </c>
       <c r="E47" s="3">
-        <v>13400</v>
+        <v>14000</v>
       </c>
       <c r="F47" s="3">
-        <v>12300</v>
+        <v>13000</v>
       </c>
       <c r="G47" s="3">
-        <v>13800</v>
+        <v>12000</v>
       </c>
       <c r="H47" s="3">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="I47" s="3">
-        <v>22700</v>
+        <v>2900</v>
       </c>
       <c r="J47" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K47" s="3">
         <v>20300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>329200</v>
+        <v>358300</v>
       </c>
       <c r="E48" s="3">
-        <v>308700</v>
+        <v>319800</v>
       </c>
       <c r="F48" s="3">
-        <v>298500</v>
+        <v>299900</v>
       </c>
       <c r="G48" s="3">
-        <v>348200</v>
+        <v>290000</v>
       </c>
       <c r="H48" s="3">
-        <v>129100</v>
+        <v>376600</v>
       </c>
       <c r="I48" s="3">
-        <v>129600</v>
+        <v>125400</v>
       </c>
       <c r="J48" s="3">
+        <v>125900</v>
+      </c>
+      <c r="K48" s="3">
         <v>126800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>133200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>133800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>149200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14100</v>
+        <v>16500</v>
       </c>
       <c r="E49" s="3">
-        <v>11700</v>
+        <v>13700</v>
       </c>
       <c r="F49" s="3">
-        <v>10000</v>
+        <v>11300</v>
       </c>
       <c r="G49" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="H49" s="3">
-        <v>7000</v>
+        <v>11300</v>
       </c>
       <c r="I49" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="J49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64800</v>
+        <v>54100</v>
       </c>
       <c r="E52" s="3">
-        <v>59700</v>
+        <v>63000</v>
       </c>
       <c r="F52" s="3">
-        <v>82900</v>
+        <v>58000</v>
       </c>
       <c r="G52" s="3">
-        <v>65900</v>
+        <v>80600</v>
       </c>
       <c r="H52" s="3">
-        <v>37800</v>
+        <v>41300</v>
       </c>
       <c r="I52" s="3">
-        <v>6400</v>
+        <v>36700</v>
       </c>
       <c r="J52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6441000</v>
+        <v>7310000</v>
       </c>
       <c r="E54" s="3">
-        <v>5919500</v>
+        <v>6258200</v>
       </c>
       <c r="F54" s="3">
-        <v>5598200</v>
+        <v>5751500</v>
       </c>
       <c r="G54" s="3">
-        <v>6058400</v>
+        <v>5439300</v>
       </c>
       <c r="H54" s="3">
-        <v>4521700</v>
+        <v>6523200</v>
       </c>
       <c r="I54" s="3">
-        <v>4290400</v>
+        <v>4393400</v>
       </c>
       <c r="J54" s="3">
+        <v>4168600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4234100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4812100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4532100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3926900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3707300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>479600</v>
+        <v>499900</v>
       </c>
       <c r="E57" s="3">
-        <v>350700</v>
+        <v>466000</v>
       </c>
       <c r="F57" s="3">
-        <v>501400</v>
+        <v>340700</v>
       </c>
       <c r="G57" s="3">
-        <v>415500</v>
+        <v>487100</v>
       </c>
       <c r="H57" s="3">
-        <v>367900</v>
+        <v>449500</v>
       </c>
       <c r="I57" s="3">
-        <v>258400</v>
+        <v>357500</v>
       </c>
       <c r="J57" s="3">
+        <v>251100</v>
+      </c>
+      <c r="K57" s="3">
         <v>320900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>398200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>316500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>284300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>301300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,49 +2704,55 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129800</v>
+        <v>261700</v>
       </c>
       <c r="E59" s="3">
-        <v>122300</v>
+        <v>126100</v>
       </c>
       <c r="F59" s="3">
-        <v>182200</v>
+        <v>118900</v>
       </c>
       <c r="G59" s="3">
-        <v>184300</v>
+        <v>177000</v>
       </c>
       <c r="H59" s="3">
-        <v>112500</v>
+        <v>199400</v>
       </c>
       <c r="I59" s="3">
-        <v>93700</v>
+        <v>109300</v>
       </c>
       <c r="J59" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K59" s="3">
         <v>97800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>80000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>57500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,90 +2792,99 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30400</v>
+        <v>31300</v>
       </c>
       <c r="E61" s="3">
-        <v>29000</v>
+        <v>29600</v>
       </c>
       <c r="F61" s="3">
-        <v>27900</v>
+        <v>28200</v>
       </c>
       <c r="G61" s="3">
-        <v>33600</v>
+        <v>27100</v>
       </c>
       <c r="H61" s="3">
-        <v>28000</v>
+        <v>36400</v>
       </c>
       <c r="I61" s="3">
-        <v>22000</v>
+        <v>27200</v>
       </c>
       <c r="J61" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K61" s="3">
         <v>23100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>13700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>114700</v>
+        <v>122200</v>
       </c>
       <c r="E62" s="3">
-        <v>120200</v>
+        <v>111400</v>
       </c>
       <c r="F62" s="3">
-        <v>123100</v>
+        <v>116800</v>
       </c>
       <c r="G62" s="3">
-        <v>143500</v>
+        <v>119600</v>
       </c>
       <c r="H62" s="3">
-        <v>84000</v>
+        <v>155200</v>
       </c>
       <c r="I62" s="3">
-        <v>77700</v>
+        <v>81600</v>
       </c>
       <c r="J62" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K62" s="3">
         <v>42900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>49900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>54400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>62500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5297900</v>
+        <v>6221200</v>
       </c>
       <c r="E66" s="3">
-        <v>4903100</v>
+        <v>5147500</v>
       </c>
       <c r="F66" s="3">
-        <v>4647600</v>
+        <v>4763900</v>
       </c>
       <c r="G66" s="3">
-        <v>5038800</v>
+        <v>4515700</v>
       </c>
       <c r="H66" s="3">
-        <v>3909200</v>
+        <v>5450300</v>
       </c>
       <c r="I66" s="3">
-        <v>3757700</v>
+        <v>3798200</v>
       </c>
       <c r="J66" s="3">
+        <v>3651100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3749600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4289000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4047700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3445800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3184200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>695400</v>
+        <v>604500</v>
       </c>
       <c r="E72" s="3">
-        <v>600600</v>
+        <v>675700</v>
       </c>
       <c r="F72" s="3">
-        <v>555900</v>
+        <v>583500</v>
       </c>
       <c r="G72" s="3">
-        <v>572000</v>
+        <v>540200</v>
       </c>
       <c r="H72" s="3">
-        <v>528900</v>
+        <v>588700</v>
       </c>
       <c r="I72" s="3">
-        <v>449000</v>
+        <v>513900</v>
       </c>
       <c r="J72" s="3">
+        <v>436200</v>
+      </c>
+      <c r="K72" s="3">
         <v>400900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>419200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>380500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>368900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>396500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1143100</v>
+        <v>1088800</v>
       </c>
       <c r="E76" s="3">
-        <v>1016400</v>
+        <v>1110600</v>
       </c>
       <c r="F76" s="3">
-        <v>950600</v>
+        <v>987500</v>
       </c>
       <c r="G76" s="3">
-        <v>1019700</v>
+        <v>923600</v>
       </c>
       <c r="H76" s="3">
-        <v>612600</v>
+        <v>1072900</v>
       </c>
       <c r="I76" s="3">
-        <v>532600</v>
+        <v>595200</v>
       </c>
       <c r="J76" s="3">
+        <v>517500</v>
+      </c>
+      <c r="K76" s="3">
         <v>484600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>523100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>484400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>481100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>523100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="E81" s="3">
-        <v>67600</v>
+        <v>30100</v>
       </c>
       <c r="F81" s="3">
-        <v>35400</v>
+        <v>65700</v>
       </c>
       <c r="G81" s="3">
-        <v>81700</v>
+        <v>34400</v>
       </c>
       <c r="H81" s="3">
-        <v>84600</v>
+        <v>-29500</v>
       </c>
       <c r="I81" s="3">
-        <v>161000</v>
+        <v>82200</v>
       </c>
       <c r="J81" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K81" s="3">
         <v>56000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>39900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10600</v>
+        <v>14700</v>
       </c>
       <c r="E83" s="3">
-        <v>18700</v>
+        <v>10300</v>
       </c>
       <c r="F83" s="3">
-        <v>9000</v>
+        <v>18100</v>
       </c>
       <c r="G83" s="3">
-        <v>-13200</v>
+        <v>8700</v>
       </c>
       <c r="H83" s="3">
-        <v>13300</v>
+        <v>26700</v>
       </c>
       <c r="I83" s="3">
-        <v>21800</v>
+        <v>12900</v>
       </c>
       <c r="J83" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K83" s="3">
         <v>13400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3000</v>
       </c>
       <c r="M83" s="3">
         <v>3000</v>
       </c>
       <c r="N83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O83" s="3">
         <v>3300</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>87600</v>
+        <v>-32900</v>
       </c>
       <c r="E89" s="3">
-        <v>-726600</v>
+        <v>85100</v>
       </c>
       <c r="F89" s="3">
-        <v>-272300</v>
+        <v>-705900</v>
       </c>
       <c r="G89" s="3">
-        <v>649700</v>
+        <v>-264500</v>
       </c>
       <c r="H89" s="3">
-        <v>-192100</v>
+        <v>631300</v>
       </c>
       <c r="I89" s="3">
-        <v>-160500</v>
+        <v>-186600</v>
       </c>
       <c r="J89" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-62700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>260600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>198900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-38900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8400</v>
+        <v>-13200</v>
       </c>
       <c r="E91" s="3">
-        <v>-8800</v>
+        <v>-8200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4100</v>
+        <v>-8500</v>
       </c>
       <c r="G91" s="3">
-        <v>-15300</v>
+        <v>-4000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4300</v>
+        <v>-14800</v>
       </c>
       <c r="I91" s="3">
-        <v>-9500</v>
+        <v>-4200</v>
       </c>
       <c r="J91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>7300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7900</v>
+        <v>-14100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3600</v>
+        <v>-7700</v>
       </c>
       <c r="F94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-16000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
-        <v>18400</v>
-      </c>
       <c r="J94" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K94" s="3">
         <v>16100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>14500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-5100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3936,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-26300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-25500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3954,10 +4187,13 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-28900</v>
+        <v>-9000</v>
       </c>
       <c r="E100" s="3">
-        <v>-39400</v>
+        <v>-28100</v>
       </c>
       <c r="F100" s="3">
-        <v>-14200</v>
+        <v>-38300</v>
       </c>
       <c r="G100" s="3">
-        <v>12200</v>
+        <v>-13800</v>
       </c>
       <c r="H100" s="3">
-        <v>-32500</v>
+        <v>11800</v>
       </c>
       <c r="I100" s="3">
-        <v>-18800</v>
+        <v>-31600</v>
       </c>
       <c r="J100" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="K100" s="3">
         <v>21900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>55900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26300</v>
+        <v>27200</v>
       </c>
       <c r="E101" s="3">
-        <v>60000</v>
+        <v>25600</v>
       </c>
       <c r="F101" s="3">
-        <v>49000</v>
+        <v>58300</v>
       </c>
       <c r="G101" s="3">
-        <v>32100</v>
+        <v>47600</v>
       </c>
       <c r="H101" s="3">
-        <v>261000</v>
+        <v>31200</v>
       </c>
       <c r="I101" s="3">
-        <v>72000</v>
+        <v>253600</v>
       </c>
       <c r="J101" s="3">
+        <v>69900</v>
+      </c>
+      <c r="K101" s="3">
         <v>87800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-81800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>221100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>161900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22700</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>77200</v>
+        <v>-28800</v>
       </c>
       <c r="E102" s="3">
-        <v>-709500</v>
+        <v>75000</v>
       </c>
       <c r="F102" s="3">
-        <v>-239500</v>
+        <v>-689400</v>
       </c>
       <c r="G102" s="3">
-        <v>678000</v>
+        <v>-232700</v>
       </c>
       <c r="H102" s="3">
-        <v>35100</v>
+        <v>658800</v>
       </c>
       <c r="I102" s="3">
-        <v>-89000</v>
+        <v>34100</v>
       </c>
       <c r="J102" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="K102" s="3">
         <v>53300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>152200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>452700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>257800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>433600</v>
+        <v>377300</v>
       </c>
       <c r="E8" s="3">
-        <v>277100</v>
+        <v>420100</v>
       </c>
       <c r="F8" s="3">
-        <v>551400</v>
+        <v>268500</v>
       </c>
       <c r="G8" s="3">
-        <v>275200</v>
+        <v>534300</v>
       </c>
       <c r="H8" s="3">
-        <v>517100</v>
+        <v>266600</v>
       </c>
       <c r="I8" s="3">
-        <v>413800</v>
+        <v>501000</v>
       </c>
       <c r="J8" s="3">
+        <v>401000</v>
+      </c>
+      <c r="K8" s="3">
         <v>728200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>327000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>240600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>166900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>139500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1033,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-14700</v>
+        <v>-11000</v>
       </c>
       <c r="E15" s="3">
-        <v>-8900</v>
+        <v>-14300</v>
       </c>
       <c r="F15" s="3">
-        <v>-19500</v>
+        <v>-8600</v>
       </c>
       <c r="G15" s="3">
-        <v>-17900</v>
+        <v>-18900</v>
       </c>
       <c r="H15" s="3">
-        <v>-26700</v>
+        <v>-17400</v>
       </c>
       <c r="I15" s="3">
-        <v>-15800</v>
+        <v>-25900</v>
       </c>
       <c r="J15" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-26900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-27600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-3800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-3000</v>
       </c>
       <c r="N15" s="3">
         <v>-3000</v>
       </c>
       <c r="O15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P15" s="3">
         <v>-3300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>209200</v>
+        <v>175500</v>
       </c>
       <c r="E17" s="3">
-        <v>110200</v>
+        <v>202700</v>
       </c>
       <c r="F17" s="3">
-        <v>222000</v>
+        <v>106800</v>
       </c>
       <c r="G17" s="3">
-        <v>109500</v>
+        <v>215100</v>
       </c>
       <c r="H17" s="3">
-        <v>264900</v>
+        <v>106100</v>
       </c>
       <c r="I17" s="3">
-        <v>249900</v>
+        <v>256700</v>
       </c>
       <c r="J17" s="3">
+        <v>242200</v>
+      </c>
+      <c r="K17" s="3">
         <v>377400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>172500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>140700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>91800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>63100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>55100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>224400</v>
+        <v>201800</v>
       </c>
       <c r="E18" s="3">
-        <v>166800</v>
+        <v>217400</v>
       </c>
       <c r="F18" s="3">
-        <v>329500</v>
+        <v>161600</v>
       </c>
       <c r="G18" s="3">
-        <v>165700</v>
+        <v>319200</v>
       </c>
       <c r="H18" s="3">
-        <v>252200</v>
+        <v>160500</v>
       </c>
       <c r="I18" s="3">
-        <v>163900</v>
+        <v>244300</v>
       </c>
       <c r="J18" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K18" s="3">
         <v>350800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>154500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>99900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>76300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-163800</v>
+        <v>-175800</v>
       </c>
       <c r="E20" s="3">
-        <v>-124400</v>
+        <v>-158700</v>
       </c>
       <c r="F20" s="3">
-        <v>-213300</v>
+        <v>-120500</v>
       </c>
       <c r="G20" s="3">
-        <v>-106600</v>
+        <v>-206700</v>
       </c>
       <c r="H20" s="3">
-        <v>-264100</v>
+        <v>-103300</v>
       </c>
       <c r="I20" s="3">
-        <v>-65600</v>
+        <v>-255800</v>
       </c>
       <c r="J20" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-122200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-56500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-32100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-38800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>75300</v>
+        <v>37000</v>
       </c>
       <c r="E21" s="3">
-        <v>52700</v>
+        <v>73000</v>
       </c>
       <c r="F21" s="3">
-        <v>134300</v>
+        <v>51100</v>
       </c>
       <c r="G21" s="3">
-        <v>67800</v>
+        <v>130100</v>
       </c>
       <c r="H21" s="3">
-        <v>14800</v>
+        <v>65700</v>
       </c>
       <c r="I21" s="3">
-        <v>111200</v>
+        <v>14400</v>
       </c>
       <c r="J21" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K21" s="3">
         <v>249700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>111500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>61800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>59700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>47300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>60600</v>
+        <v>26000</v>
       </c>
       <c r="E23" s="3">
-        <v>42500</v>
+        <v>58700</v>
       </c>
       <c r="F23" s="3">
-        <v>116200</v>
+        <v>41100</v>
       </c>
       <c r="G23" s="3">
-        <v>59100</v>
+        <v>112500</v>
       </c>
       <c r="H23" s="3">
-        <v>-11900</v>
+        <v>57200</v>
       </c>
       <c r="I23" s="3">
-        <v>98300</v>
+        <v>-11500</v>
       </c>
       <c r="J23" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K23" s="3">
         <v>228600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>58400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>56700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29600</v>
+        <v>-4500</v>
       </c>
       <c r="E24" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>48000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>72200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>42000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>18500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>15400</v>
+      </c>
+      <c r="O24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>12400</v>
       </c>
-      <c r="F24" s="3">
-        <v>49600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>22200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>72200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>42000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>18500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>15400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>12700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>11000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>12400</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31000</v>
+        <v>30500</v>
       </c>
       <c r="E26" s="3">
-        <v>30100</v>
+        <v>30000</v>
       </c>
       <c r="F26" s="3">
-        <v>66600</v>
+        <v>29100</v>
       </c>
       <c r="G26" s="3">
-        <v>34700</v>
+        <v>64500</v>
       </c>
       <c r="H26" s="3">
-        <v>-34100</v>
+        <v>33700</v>
       </c>
       <c r="I26" s="3">
-        <v>86800</v>
+        <v>-33000</v>
       </c>
       <c r="J26" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K26" s="3">
         <v>156400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>56000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>31500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="E27" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="F27" s="3">
-        <v>65700</v>
+        <v>29100</v>
       </c>
       <c r="G27" s="3">
-        <v>34400</v>
+        <v>63700</v>
       </c>
       <c r="H27" s="3">
-        <v>-29500</v>
+        <v>33400</v>
       </c>
       <c r="I27" s="3">
-        <v>82200</v>
+        <v>-28600</v>
       </c>
       <c r="J27" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K27" s="3">
         <v>156400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>163800</v>
+        <v>175800</v>
       </c>
       <c r="E32" s="3">
-        <v>124400</v>
+        <v>158700</v>
       </c>
       <c r="F32" s="3">
-        <v>213300</v>
+        <v>120500</v>
       </c>
       <c r="G32" s="3">
-        <v>106600</v>
+        <v>206700</v>
       </c>
       <c r="H32" s="3">
-        <v>264100</v>
+        <v>103300</v>
       </c>
       <c r="I32" s="3">
-        <v>65600</v>
+        <v>255800</v>
       </c>
       <c r="J32" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K32" s="3">
         <v>122200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>56500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>32100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>38800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="E33" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="F33" s="3">
-        <v>65700</v>
+        <v>29100</v>
       </c>
       <c r="G33" s="3">
-        <v>34400</v>
+        <v>63700</v>
       </c>
       <c r="H33" s="3">
-        <v>-29500</v>
+        <v>33400</v>
       </c>
       <c r="I33" s="3">
-        <v>82200</v>
+        <v>-28600</v>
       </c>
       <c r="J33" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K33" s="3">
         <v>156400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="E35" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="F35" s="3">
-        <v>65700</v>
+        <v>29100</v>
       </c>
       <c r="G35" s="3">
-        <v>34400</v>
+        <v>63700</v>
       </c>
       <c r="H35" s="3">
-        <v>-29500</v>
+        <v>33400</v>
       </c>
       <c r="I35" s="3">
-        <v>82200</v>
+        <v>-28600</v>
       </c>
       <c r="J35" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K35" s="3">
         <v>156400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2053,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1574800</v>
+        <v>1970000</v>
       </c>
       <c r="E41" s="3">
-        <v>1368400</v>
+        <v>1525800</v>
       </c>
       <c r="F41" s="3">
-        <v>1149900</v>
+        <v>1325900</v>
       </c>
       <c r="G41" s="3">
-        <v>1508100</v>
+        <v>1114200</v>
       </c>
       <c r="H41" s="3">
-        <v>2228000</v>
+        <v>1461200</v>
       </c>
       <c r="I41" s="3">
-        <v>927600</v>
+        <v>2158700</v>
       </c>
       <c r="J41" s="3">
+        <v>898700</v>
+      </c>
+      <c r="K41" s="3">
         <v>947900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1060300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1235900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1103600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>735900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>535600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91400</v>
+        <v>115700</v>
       </c>
       <c r="E42" s="3">
-        <v>127400</v>
+        <v>88600</v>
       </c>
       <c r="F42" s="3">
-        <v>166600</v>
+        <v>123400</v>
       </c>
       <c r="G42" s="3">
-        <v>161900</v>
+        <v>161400</v>
       </c>
       <c r="H42" s="3">
-        <v>118700</v>
+        <v>156900</v>
       </c>
       <c r="I42" s="3">
-        <v>146300</v>
+        <v>115000</v>
       </c>
       <c r="J42" s="3">
+        <v>141800</v>
+      </c>
+      <c r="K42" s="3">
         <v>107400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>118300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>212600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>96300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>104300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>96300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2333,152 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15300</v>
+        <v>16300</v>
       </c>
       <c r="E47" s="3">
-        <v>14000</v>
+        <v>14800</v>
       </c>
       <c r="F47" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G47" s="3">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="H47" s="3">
-        <v>15000</v>
+        <v>11600</v>
       </c>
       <c r="I47" s="3">
-        <v>2900</v>
+        <v>14500</v>
       </c>
       <c r="J47" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K47" s="3">
         <v>22000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>15900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>15200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>358300</v>
+        <v>386900</v>
       </c>
       <c r="E48" s="3">
-        <v>319800</v>
+        <v>347100</v>
       </c>
       <c r="F48" s="3">
-        <v>299900</v>
+        <v>309900</v>
       </c>
       <c r="G48" s="3">
-        <v>290000</v>
+        <v>290600</v>
       </c>
       <c r="H48" s="3">
-        <v>376600</v>
+        <v>281000</v>
       </c>
       <c r="I48" s="3">
-        <v>125400</v>
+        <v>364900</v>
       </c>
       <c r="J48" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K48" s="3">
         <v>125900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>133200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>124500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>133800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>149200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16500</v>
+        <v>19600</v>
       </c>
       <c r="E49" s="3">
-        <v>13700</v>
+        <v>16000</v>
       </c>
       <c r="F49" s="3">
-        <v>11300</v>
+        <v>13300</v>
       </c>
       <c r="G49" s="3">
-        <v>9800</v>
+        <v>11000</v>
       </c>
       <c r="H49" s="3">
-        <v>11300</v>
+        <v>9400</v>
       </c>
       <c r="I49" s="3">
-        <v>6800</v>
+        <v>10900</v>
       </c>
       <c r="J49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>54100</v>
+        <v>45700</v>
       </c>
       <c r="E52" s="3">
-        <v>63000</v>
+        <v>52400</v>
       </c>
       <c r="F52" s="3">
-        <v>58000</v>
+        <v>61000</v>
       </c>
       <c r="G52" s="3">
-        <v>80600</v>
+        <v>56200</v>
       </c>
       <c r="H52" s="3">
-        <v>41300</v>
+        <v>78100</v>
       </c>
       <c r="I52" s="3">
-        <v>36700</v>
+        <v>40000</v>
       </c>
       <c r="J52" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7310000</v>
+        <v>7627200</v>
       </c>
       <c r="E54" s="3">
-        <v>6258200</v>
+        <v>7082600</v>
       </c>
       <c r="F54" s="3">
-        <v>5751500</v>
+        <v>6063500</v>
       </c>
       <c r="G54" s="3">
-        <v>5439300</v>
+        <v>5572600</v>
       </c>
       <c r="H54" s="3">
-        <v>6523200</v>
+        <v>5270100</v>
       </c>
       <c r="I54" s="3">
-        <v>4393400</v>
+        <v>6320300</v>
       </c>
       <c r="J54" s="3">
+        <v>4256700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4168600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4234100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4812100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4532100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3926900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3707300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>499900</v>
+        <v>584300</v>
       </c>
       <c r="E57" s="3">
-        <v>466000</v>
+        <v>484300</v>
       </c>
       <c r="F57" s="3">
-        <v>340700</v>
+        <v>451500</v>
       </c>
       <c r="G57" s="3">
-        <v>487100</v>
+        <v>330100</v>
       </c>
       <c r="H57" s="3">
-        <v>449500</v>
+        <v>472000</v>
       </c>
       <c r="I57" s="3">
-        <v>357500</v>
+        <v>435500</v>
       </c>
       <c r="J57" s="3">
+        <v>346300</v>
+      </c>
+      <c r="K57" s="3">
         <v>251100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>320900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>398200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>316500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>284300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>301300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2841,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>261700</v>
+        <v>241100</v>
       </c>
       <c r="E59" s="3">
-        <v>126100</v>
+        <v>253500</v>
       </c>
       <c r="F59" s="3">
-        <v>118900</v>
+        <v>122200</v>
       </c>
       <c r="G59" s="3">
-        <v>177000</v>
+        <v>115200</v>
       </c>
       <c r="H59" s="3">
-        <v>199400</v>
+        <v>171500</v>
       </c>
       <c r="I59" s="3">
-        <v>109300</v>
+        <v>193200</v>
       </c>
       <c r="J59" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K59" s="3">
         <v>91000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>97400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>80000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>57500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +2935,105 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31300</v>
+        <v>30600</v>
       </c>
       <c r="E61" s="3">
-        <v>29600</v>
+        <v>30300</v>
       </c>
       <c r="F61" s="3">
-        <v>28200</v>
+        <v>28600</v>
       </c>
       <c r="G61" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="H61" s="3">
-        <v>36400</v>
+        <v>26300</v>
       </c>
       <c r="I61" s="3">
-        <v>27200</v>
+        <v>35200</v>
       </c>
       <c r="J61" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K61" s="3">
         <v>21300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>13700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>122200</v>
+        <v>108300</v>
       </c>
       <c r="E62" s="3">
-        <v>111400</v>
+        <v>118400</v>
       </c>
       <c r="F62" s="3">
-        <v>116800</v>
+        <v>107900</v>
       </c>
       <c r="G62" s="3">
-        <v>119600</v>
+        <v>113100</v>
       </c>
       <c r="H62" s="3">
-        <v>155200</v>
+        <v>115900</v>
       </c>
       <c r="I62" s="3">
-        <v>81600</v>
+        <v>150400</v>
       </c>
       <c r="J62" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K62" s="3">
         <v>75500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>42900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>49900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>54400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>62500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6221200</v>
+        <v>6419000</v>
       </c>
       <c r="E66" s="3">
-        <v>5147500</v>
+        <v>6027700</v>
       </c>
       <c r="F66" s="3">
-        <v>4763900</v>
+        <v>4987400</v>
       </c>
       <c r="G66" s="3">
-        <v>4515700</v>
+        <v>4615700</v>
       </c>
       <c r="H66" s="3">
-        <v>5450300</v>
+        <v>4375200</v>
       </c>
       <c r="I66" s="3">
-        <v>3798200</v>
+        <v>5280700</v>
       </c>
       <c r="J66" s="3">
+        <v>3680100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3651100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3749600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4289000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4047700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3445800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3184200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>604500</v>
+        <v>678300</v>
       </c>
       <c r="E72" s="3">
-        <v>675700</v>
+        <v>585700</v>
       </c>
       <c r="F72" s="3">
-        <v>583500</v>
+        <v>654600</v>
       </c>
       <c r="G72" s="3">
-        <v>540200</v>
+        <v>565400</v>
       </c>
       <c r="H72" s="3">
-        <v>588700</v>
+        <v>523400</v>
       </c>
       <c r="I72" s="3">
-        <v>513900</v>
+        <v>570400</v>
       </c>
       <c r="J72" s="3">
+        <v>497900</v>
+      </c>
+      <c r="K72" s="3">
         <v>436200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>400900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>419200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>380500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>368900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>396500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1088800</v>
+        <v>1208200</v>
       </c>
       <c r="E76" s="3">
-        <v>1110600</v>
+        <v>1054900</v>
       </c>
       <c r="F76" s="3">
-        <v>987500</v>
+        <v>1076100</v>
       </c>
       <c r="G76" s="3">
-        <v>923600</v>
+        <v>956800</v>
       </c>
       <c r="H76" s="3">
-        <v>1072900</v>
+        <v>894900</v>
       </c>
       <c r="I76" s="3">
-        <v>595200</v>
+        <v>1039600</v>
       </c>
       <c r="J76" s="3">
+        <v>576700</v>
+      </c>
+      <c r="K76" s="3">
         <v>517500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>484600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>523100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>484400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>481100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>523100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="E81" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="F81" s="3">
-        <v>65700</v>
+        <v>29100</v>
       </c>
       <c r="G81" s="3">
-        <v>34400</v>
+        <v>63700</v>
       </c>
       <c r="H81" s="3">
-        <v>-29500</v>
+        <v>33400</v>
       </c>
       <c r="I81" s="3">
-        <v>82200</v>
+        <v>-28600</v>
       </c>
       <c r="J81" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K81" s="3">
         <v>156400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14700</v>
+        <v>11000</v>
       </c>
       <c r="E83" s="3">
-        <v>10300</v>
+        <v>14300</v>
       </c>
       <c r="F83" s="3">
-        <v>18100</v>
+        <v>10000</v>
       </c>
       <c r="G83" s="3">
-        <v>8700</v>
+        <v>17600</v>
       </c>
       <c r="H83" s="3">
-        <v>26700</v>
+        <v>8500</v>
       </c>
       <c r="I83" s="3">
-        <v>12900</v>
+        <v>25900</v>
       </c>
       <c r="J83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K83" s="3">
         <v>21100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3000</v>
       </c>
       <c r="N83" s="3">
         <v>3000</v>
       </c>
       <c r="O83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P83" s="3">
         <v>3300</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32900</v>
+        <v>258600</v>
       </c>
       <c r="E89" s="3">
-        <v>85100</v>
+        <v>-31800</v>
       </c>
       <c r="F89" s="3">
-        <v>-705900</v>
+        <v>82500</v>
       </c>
       <c r="G89" s="3">
-        <v>-264500</v>
+        <v>-684000</v>
       </c>
       <c r="H89" s="3">
-        <v>631300</v>
+        <v>-256300</v>
       </c>
       <c r="I89" s="3">
-        <v>-186600</v>
+        <v>611600</v>
       </c>
       <c r="J89" s="3">
+        <v>-180800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-156000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-62700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>260600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>198900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-38900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13200</v>
+        <v>-7300</v>
       </c>
       <c r="E91" s="3">
-        <v>-8200</v>
+        <v>-12800</v>
       </c>
       <c r="F91" s="3">
-        <v>-8500</v>
+        <v>-7900</v>
       </c>
       <c r="G91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>7300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14100</v>
+        <v>-4200</v>
       </c>
       <c r="E94" s="3">
-        <v>-7700</v>
+        <v>-11800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3500</v>
+        <v>-7400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2000</v>
+        <v>-3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-15500</v>
+        <v>-1900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1300</v>
+        <v>-15100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K94" s="3">
         <v>17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-5100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4172,11 +4406,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-25500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4190,10 +4424,13 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9000</v>
+        <v>-16200</v>
       </c>
       <c r="E100" s="3">
-        <v>-28100</v>
+        <v>-8800</v>
       </c>
       <c r="F100" s="3">
-        <v>-38300</v>
+        <v>-27200</v>
       </c>
       <c r="G100" s="3">
-        <v>-13800</v>
+        <v>-37100</v>
       </c>
       <c r="H100" s="3">
-        <v>11800</v>
+        <v>-13400</v>
       </c>
       <c r="I100" s="3">
-        <v>-31600</v>
+        <v>11500</v>
       </c>
       <c r="J100" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-18300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>55900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>27200</v>
+        <v>7900</v>
       </c>
       <c r="E101" s="3">
-        <v>25600</v>
+        <v>26300</v>
       </c>
       <c r="F101" s="3">
-        <v>58300</v>
+        <v>24800</v>
       </c>
       <c r="G101" s="3">
-        <v>47600</v>
+        <v>56500</v>
       </c>
       <c r="H101" s="3">
-        <v>31200</v>
+        <v>46200</v>
       </c>
       <c r="I101" s="3">
-        <v>253600</v>
+        <v>30300</v>
       </c>
       <c r="J101" s="3">
+        <v>245700</v>
+      </c>
+      <c r="K101" s="3">
         <v>69900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>87800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-81800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>221100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>161900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22700</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28800</v>
+        <v>245900</v>
       </c>
       <c r="E102" s="3">
-        <v>75000</v>
+        <v>-27900</v>
       </c>
       <c r="F102" s="3">
-        <v>-689400</v>
+        <v>72600</v>
       </c>
       <c r="G102" s="3">
-        <v>-232700</v>
+        <v>-667900</v>
       </c>
       <c r="H102" s="3">
-        <v>658800</v>
+        <v>-225400</v>
       </c>
       <c r="I102" s="3">
-        <v>34100</v>
+        <v>638300</v>
       </c>
       <c r="J102" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-86500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>53300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>152200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>452700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>257800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,139 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>377300</v>
+        <v>516200</v>
       </c>
       <c r="E8" s="3">
-        <v>420100</v>
+        <v>914900</v>
       </c>
       <c r="F8" s="3">
-        <v>268500</v>
+        <v>404000</v>
       </c>
       <c r="G8" s="3">
-        <v>534300</v>
+        <v>405400</v>
       </c>
       <c r="H8" s="3">
-        <v>266600</v>
+        <v>395000</v>
       </c>
       <c r="I8" s="3">
+        <v>786100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>386400</v>
+      </c>
+      <c r="K8" s="3">
         <v>501000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>401000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>728200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>327000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>240600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>166900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>139500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>130800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +843,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +896,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1076,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-11000</v>
+        <v>-11900</v>
       </c>
       <c r="E15" s="3">
-        <v>-14300</v>
+        <v>-25700</v>
       </c>
       <c r="F15" s="3">
-        <v>-8600</v>
+        <v>-22400</v>
       </c>
       <c r="G15" s="3">
-        <v>-18900</v>
+        <v>-13800</v>
       </c>
       <c r="H15" s="3">
-        <v>-17400</v>
+        <v>-12700</v>
       </c>
       <c r="I15" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-25900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-15300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-26900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-27600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-3800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-3300</v>
       </c>
       <c r="Q15" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="S15" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1151,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>175500</v>
+        <v>250800</v>
       </c>
       <c r="E17" s="3">
-        <v>202700</v>
+        <v>438300</v>
       </c>
       <c r="F17" s="3">
-        <v>106800</v>
+        <v>187900</v>
       </c>
       <c r="G17" s="3">
-        <v>215100</v>
+        <v>195600</v>
       </c>
       <c r="H17" s="3">
-        <v>106100</v>
+        <v>157200</v>
       </c>
       <c r="I17" s="3">
+        <v>316400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>153800</v>
+      </c>
+      <c r="K17" s="3">
         <v>256700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>242200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>377400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>172500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>140700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>91800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>63100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>55100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>201800</v>
+        <v>265400</v>
       </c>
       <c r="E18" s="3">
-        <v>217400</v>
+        <v>476600</v>
       </c>
       <c r="F18" s="3">
-        <v>161600</v>
+        <v>216100</v>
       </c>
       <c r="G18" s="3">
-        <v>319200</v>
+        <v>209800</v>
       </c>
       <c r="H18" s="3">
-        <v>160500</v>
+        <v>237800</v>
       </c>
       <c r="I18" s="3">
+        <v>469700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>232700</v>
+      </c>
+      <c r="K18" s="3">
         <v>244300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>158800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>350800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>154500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>99900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>75100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>76300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>75700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1278,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-175800</v>
+        <v>-216800</v>
       </c>
       <c r="E20" s="3">
-        <v>-158700</v>
+        <v>-399700</v>
       </c>
       <c r="F20" s="3">
-        <v>-120500</v>
+        <v>-188200</v>
       </c>
       <c r="G20" s="3">
-        <v>-206700</v>
+        <v>-153200</v>
       </c>
       <c r="H20" s="3">
-        <v>-103300</v>
+        <v>-166300</v>
       </c>
       <c r="I20" s="3">
+        <v>-306900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-255800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-63500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-122200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-56500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-41500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-18300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-32100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>37000</v>
+        <v>62600</v>
       </c>
       <c r="E21" s="3">
-        <v>73000</v>
+        <v>100500</v>
       </c>
       <c r="F21" s="3">
-        <v>51100</v>
+        <v>38500</v>
       </c>
       <c r="G21" s="3">
-        <v>130100</v>
+        <v>56500</v>
       </c>
       <c r="H21" s="3">
-        <v>65700</v>
+        <v>86500</v>
       </c>
       <c r="I21" s="3">
+        <v>188300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>67300</v>
+      </c>
+      <c r="K21" s="3">
         <v>14400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>107800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>249700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>111500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>61800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>59700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>47300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>40100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1433,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26000</v>
+        <v>48600</v>
       </c>
       <c r="E23" s="3">
-        <v>58700</v>
+        <v>76900</v>
       </c>
       <c r="F23" s="3">
-        <v>41100</v>
+        <v>27900</v>
       </c>
       <c r="G23" s="3">
-        <v>112500</v>
+        <v>56700</v>
       </c>
       <c r="H23" s="3">
-        <v>57200</v>
+        <v>71500</v>
       </c>
       <c r="I23" s="3">
+        <v>162800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>95300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>228600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>98000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>58400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>56700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>44200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>36800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4500</v>
+        <v>15000</v>
       </c>
       <c r="E24" s="3">
-        <v>28700</v>
+        <v>-37000</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>-4800</v>
       </c>
       <c r="G24" s="3">
-        <v>48000</v>
+        <v>27700</v>
       </c>
       <c r="H24" s="3">
-        <v>23600</v>
+        <v>17700</v>
       </c>
       <c r="I24" s="3">
+        <v>70600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K24" s="3">
         <v>21500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>72200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>42000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>18500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>15400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>12700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30500</v>
+        <v>33600</v>
       </c>
       <c r="E26" s="3">
-        <v>30000</v>
+        <v>114000</v>
       </c>
       <c r="F26" s="3">
-        <v>29100</v>
+        <v>32700</v>
       </c>
       <c r="G26" s="3">
-        <v>64500</v>
+        <v>29000</v>
       </c>
       <c r="H26" s="3">
-        <v>33700</v>
+        <v>53800</v>
       </c>
       <c r="I26" s="3">
+        <v>92200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-33000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>84100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>156400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>56000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>39900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>41400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>31500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>25900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30900</v>
+        <v>33500</v>
       </c>
       <c r="E27" s="3">
-        <v>31000</v>
+        <v>114500</v>
       </c>
       <c r="F27" s="3">
-        <v>29100</v>
+        <v>33100</v>
       </c>
       <c r="G27" s="3">
-        <v>63700</v>
+        <v>29900</v>
       </c>
       <c r="H27" s="3">
-        <v>33400</v>
+        <v>53800</v>
       </c>
       <c r="I27" s="3">
+        <v>90900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-28600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>79700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>156400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>56000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>39900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>40800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>31100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>25500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1910,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>175800</v>
+        <v>216800</v>
       </c>
       <c r="E32" s="3">
-        <v>158700</v>
+        <v>399700</v>
       </c>
       <c r="F32" s="3">
-        <v>120500</v>
+        <v>188200</v>
       </c>
       <c r="G32" s="3">
-        <v>206700</v>
+        <v>153200</v>
       </c>
       <c r="H32" s="3">
-        <v>103300</v>
+        <v>166300</v>
       </c>
       <c r="I32" s="3">
+        <v>306900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>177000</v>
+      </c>
+      <c r="K32" s="3">
         <v>255800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>63500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>122200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>56500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>41500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>18300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>32100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>38800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30900</v>
+        <v>33500</v>
       </c>
       <c r="E33" s="3">
-        <v>31000</v>
+        <v>114500</v>
       </c>
       <c r="F33" s="3">
-        <v>29100</v>
+        <v>33100</v>
       </c>
       <c r="G33" s="3">
-        <v>63700</v>
+        <v>29900</v>
       </c>
       <c r="H33" s="3">
-        <v>33400</v>
+        <v>53800</v>
       </c>
       <c r="I33" s="3">
+        <v>90900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-28600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>79700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>156400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>56000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>39900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>40800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>31100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>25500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2069,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30900</v>
+        <v>33500</v>
       </c>
       <c r="E35" s="3">
-        <v>31000</v>
+        <v>114500</v>
       </c>
       <c r="F35" s="3">
-        <v>29100</v>
+        <v>33100</v>
       </c>
       <c r="G35" s="3">
-        <v>63700</v>
+        <v>29900</v>
       </c>
       <c r="H35" s="3">
-        <v>33400</v>
+        <v>53800</v>
       </c>
       <c r="I35" s="3">
+        <v>90900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-28600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>79700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>156400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>56000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>39900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>40800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>31100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>25500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2226,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1970000</v>
+        <v>1925700</v>
       </c>
       <c r="E41" s="3">
-        <v>1525800</v>
+        <v>1928600</v>
       </c>
       <c r="F41" s="3">
-        <v>1325900</v>
+        <v>1901000</v>
       </c>
       <c r="G41" s="3">
-        <v>1114200</v>
+        <v>2016500</v>
       </c>
       <c r="H41" s="3">
-        <v>1461200</v>
+        <v>1279400</v>
       </c>
       <c r="I41" s="3">
+        <v>1075200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2158700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>898700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>947900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1060300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1235900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1103600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>735900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>535600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>115700</v>
+        <v>117400</v>
       </c>
       <c r="E42" s="3">
-        <v>88600</v>
+        <v>104800</v>
       </c>
       <c r="F42" s="3">
-        <v>123400</v>
+        <v>111600</v>
       </c>
       <c r="G42" s="3">
-        <v>161400</v>
+        <v>97600</v>
       </c>
       <c r="H42" s="3">
-        <v>156900</v>
+        <v>119100</v>
       </c>
       <c r="I42" s="3">
+        <v>155800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>151400</v>
+      </c>
+      <c r="K42" s="3">
         <v>115000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>141800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>107400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>118300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>212600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>96300</v>
-      </c>
-      <c r="O42" s="3">
-        <v>104300</v>
       </c>
       <c r="P42" s="3">
         <v>96300</v>
       </c>
       <c r="Q42" s="3">
+        <v>104300</v>
+      </c>
+      <c r="R42" s="3">
+        <v>96300</v>
+      </c>
+      <c r="S42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2434,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2487,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,149 +2540,173 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16300</v>
+        <v>19400</v>
       </c>
       <c r="E47" s="3">
-        <v>14800</v>
+        <v>20400</v>
       </c>
       <c r="F47" s="3">
-        <v>13600</v>
+        <v>15700</v>
       </c>
       <c r="G47" s="3">
-        <v>12600</v>
+        <v>19600</v>
       </c>
       <c r="H47" s="3">
-        <v>11600</v>
+        <v>13100</v>
       </c>
       <c r="I47" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K47" s="3">
         <v>14500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>22000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>20300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>23800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>24200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>15900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>15200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>386900</v>
+        <v>442100</v>
       </c>
       <c r="E48" s="3">
-        <v>347100</v>
+        <v>409000</v>
       </c>
       <c r="F48" s="3">
-        <v>309900</v>
+        <v>373400</v>
       </c>
       <c r="G48" s="3">
-        <v>290600</v>
+        <v>458800</v>
       </c>
       <c r="H48" s="3">
-        <v>281000</v>
+        <v>299000</v>
       </c>
       <c r="I48" s="3">
+        <v>280400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K48" s="3">
         <v>364900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>121500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>125900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>126800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>133200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>124500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>133800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>149200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19600</v>
+        <v>28400</v>
       </c>
       <c r="E49" s="3">
-        <v>16000</v>
+        <v>23500</v>
       </c>
       <c r="F49" s="3">
-        <v>13300</v>
+        <v>18900</v>
       </c>
       <c r="G49" s="3">
-        <v>11000</v>
+        <v>21100</v>
       </c>
       <c r="H49" s="3">
-        <v>9400</v>
+        <v>12800</v>
       </c>
       <c r="I49" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K49" s="3">
         <v>10900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>8100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>7900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>7400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2805,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45700</v>
+        <v>9700</v>
       </c>
       <c r="E52" s="3">
-        <v>52400</v>
+        <v>9300</v>
       </c>
       <c r="F52" s="3">
-        <v>61000</v>
+        <v>44100</v>
       </c>
       <c r="G52" s="3">
-        <v>56200</v>
+        <v>75100</v>
       </c>
       <c r="H52" s="3">
-        <v>78100</v>
+        <v>58900</v>
       </c>
       <c r="I52" s="3">
+        <v>54300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K52" s="3">
         <v>40000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>35600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>13200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7627200</v>
+        <v>9068900</v>
       </c>
       <c r="E54" s="3">
-        <v>7082600</v>
+        <v>8574800</v>
       </c>
       <c r="F54" s="3">
-        <v>6063500</v>
+        <v>7360100</v>
       </c>
       <c r="G54" s="3">
-        <v>5572600</v>
+        <v>9346900</v>
       </c>
       <c r="H54" s="3">
-        <v>5270100</v>
+        <v>5851200</v>
       </c>
       <c r="I54" s="3">
+        <v>5377400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5085500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6320300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4256700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4168600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4234100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4812100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4532100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3926900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3707300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3010,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>584300</v>
+        <v>660400</v>
       </c>
       <c r="E57" s="3">
-        <v>484300</v>
+        <v>573500</v>
       </c>
       <c r="F57" s="3">
-        <v>451500</v>
+        <v>563900</v>
       </c>
       <c r="G57" s="3">
-        <v>330100</v>
+        <v>640100</v>
       </c>
       <c r="H57" s="3">
-        <v>472000</v>
+        <v>435700</v>
       </c>
       <c r="I57" s="3">
+        <v>318500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>455500</v>
+      </c>
+      <c r="K57" s="3">
         <v>435500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>346300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>251100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>320900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>398200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>316500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>284300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>301300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,55 +3112,67 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>241100</v>
+        <v>324200</v>
       </c>
       <c r="E59" s="3">
-        <v>253500</v>
+        <v>301400</v>
       </c>
       <c r="F59" s="3">
-        <v>122200</v>
+        <v>232700</v>
       </c>
       <c r="G59" s="3">
-        <v>115200</v>
+        <v>335100</v>
       </c>
       <c r="H59" s="3">
-        <v>171500</v>
+        <v>117900</v>
       </c>
       <c r="I59" s="3">
+        <v>111100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K59" s="3">
         <v>193200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>105900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>91000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>97800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>97400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>80000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>57500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>49900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,102 +3218,120 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30600</v>
+        <v>29100</v>
       </c>
       <c r="E61" s="3">
-        <v>30300</v>
+        <v>28200</v>
       </c>
       <c r="F61" s="3">
-        <v>28600</v>
+        <v>29600</v>
       </c>
       <c r="G61" s="3">
-        <v>27300</v>
+        <v>40100</v>
       </c>
       <c r="H61" s="3">
-        <v>26300</v>
+        <v>27600</v>
       </c>
       <c r="I61" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K61" s="3">
         <v>35200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>26400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>21300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>23100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>13700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>9600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>108300</v>
+        <v>101200</v>
       </c>
       <c r="E62" s="3">
-        <v>118400</v>
+        <v>96900</v>
       </c>
       <c r="F62" s="3">
-        <v>107900</v>
+        <v>104500</v>
       </c>
       <c r="G62" s="3">
-        <v>113100</v>
+        <v>156400</v>
       </c>
       <c r="H62" s="3">
-        <v>115900</v>
+        <v>104200</v>
       </c>
       <c r="I62" s="3">
+        <v>109200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K62" s="3">
         <v>150400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>79000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>75500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>42900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>49900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>47400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>54400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>62500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6419000</v>
+        <v>7625400</v>
       </c>
       <c r="E66" s="3">
-        <v>6027700</v>
+        <v>7282500</v>
       </c>
       <c r="F66" s="3">
-        <v>4987400</v>
+        <v>6194200</v>
       </c>
       <c r="G66" s="3">
-        <v>4615700</v>
+        <v>7966300</v>
       </c>
       <c r="H66" s="3">
-        <v>4375200</v>
+        <v>4812800</v>
       </c>
       <c r="I66" s="3">
+        <v>4454100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4222000</v>
+      </c>
+      <c r="K66" s="3">
         <v>5280700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3680100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3651100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3749600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4289000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4047700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3445800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3184200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>678300</v>
+        <v>823500</v>
       </c>
       <c r="E72" s="3">
-        <v>585700</v>
+        <v>724800</v>
       </c>
       <c r="F72" s="3">
-        <v>654600</v>
+        <v>654500</v>
       </c>
       <c r="G72" s="3">
-        <v>565400</v>
+        <v>760500</v>
       </c>
       <c r="H72" s="3">
-        <v>523400</v>
+        <v>631700</v>
       </c>
       <c r="I72" s="3">
+        <v>545600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K72" s="3">
         <v>570400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>497900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>436200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>400900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>419200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>380500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>368900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>396500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1208200</v>
+        <v>1443500</v>
       </c>
       <c r="E76" s="3">
-        <v>1054900</v>
+        <v>1292200</v>
       </c>
       <c r="F76" s="3">
-        <v>1076100</v>
+        <v>1165900</v>
       </c>
       <c r="G76" s="3">
-        <v>956800</v>
+        <v>1380600</v>
       </c>
       <c r="H76" s="3">
-        <v>894900</v>
+        <v>1038400</v>
       </c>
       <c r="I76" s="3">
+        <v>923300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>863500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1039600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>576700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>517500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>484600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>523100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>484400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>481100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>523100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4087,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30900</v>
+        <v>33500</v>
       </c>
       <c r="E81" s="3">
-        <v>31000</v>
+        <v>114500</v>
       </c>
       <c r="F81" s="3">
-        <v>29100</v>
+        <v>33100</v>
       </c>
       <c r="G81" s="3">
-        <v>63700</v>
+        <v>29900</v>
       </c>
       <c r="H81" s="3">
-        <v>33400</v>
+        <v>53800</v>
       </c>
       <c r="I81" s="3">
+        <v>90900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-28600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>79700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>156400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>56000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>39900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>40800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>31100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>25500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4223,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E83" s="3">
-        <v>14300</v>
+        <v>23600</v>
       </c>
       <c r="F83" s="3">
-        <v>10000</v>
+        <v>10600</v>
       </c>
       <c r="G83" s="3">
-        <v>17600</v>
+        <v>-200</v>
       </c>
       <c r="H83" s="3">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="I83" s="3">
+        <v>25500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K83" s="3">
         <v>25900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>21100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>13400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>3300</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>258600</v>
+        <v>-22500</v>
       </c>
       <c r="E89" s="3">
-        <v>-31800</v>
+        <v>124700</v>
       </c>
       <c r="F89" s="3">
-        <v>82500</v>
+        <v>249600</v>
       </c>
       <c r="G89" s="3">
-        <v>-684000</v>
+        <v>-30700</v>
       </c>
       <c r="H89" s="3">
-        <v>-256300</v>
+        <v>79600</v>
       </c>
       <c r="I89" s="3">
+        <v>-660000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-247300</v>
+      </c>
+      <c r="K89" s="3">
         <v>611600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-180800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-156000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-62700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>260600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>198900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>38000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4615,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7300</v>
+        <v>-12100</v>
       </c>
       <c r="E91" s="3">
-        <v>-12800</v>
+        <v>-17500</v>
       </c>
       <c r="F91" s="3">
-        <v>-7900</v>
+        <v>-7000</v>
       </c>
       <c r="G91" s="3">
-        <v>-8300</v>
+        <v>-12400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3900</v>
+        <v>-7700</v>
       </c>
       <c r="I91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-14400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-22400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>7300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4770,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4200</v>
+        <v>-9700</v>
       </c>
       <c r="E94" s="3">
-        <v>-11800</v>
+        <v>-13800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7400</v>
+        <v>-4300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3400</v>
+        <v>-13200</v>
       </c>
       <c r="H94" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-15100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>16100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-22300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>14500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4409,14 +4877,14 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-25500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4427,10 +4895,16 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +5056,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16200</v>
+        <v>-7700</v>
       </c>
       <c r="E100" s="3">
-        <v>-8800</v>
+        <v>-42300</v>
       </c>
       <c r="F100" s="3">
-        <v>-27200</v>
+        <v>-15600</v>
       </c>
       <c r="G100" s="3">
-        <v>-37100</v>
+        <v>-8500</v>
       </c>
       <c r="H100" s="3">
-        <v>-13400</v>
+        <v>-26300</v>
       </c>
       <c r="I100" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K100" s="3">
         <v>11500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-30600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-18300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>21900</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-8000</v>
       </c>
       <c r="N100" s="3">
         <v>21900</v>
       </c>
       <c r="O100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="P100" s="3">
+        <v>21900</v>
+      </c>
+      <c r="Q100" s="3">
         <v>55900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7900</v>
+        <v>-146200</v>
       </c>
       <c r="E101" s="3">
-        <v>26300</v>
+        <v>7800</v>
       </c>
       <c r="F101" s="3">
-        <v>24800</v>
+        <v>7700</v>
       </c>
       <c r="G101" s="3">
-        <v>56500</v>
+        <v>-15700</v>
       </c>
       <c r="H101" s="3">
-        <v>46200</v>
+        <v>37700</v>
       </c>
       <c r="I101" s="3">
+        <v>81800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K101" s="3">
         <v>30300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>245700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>69900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>87800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-81800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>221100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>161900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>22700</v>
       </c>
-      <c r="Q101" s="3" t="s">
+      <c r="S101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>245900</v>
+        <v>-186100</v>
       </c>
       <c r="E102" s="3">
-        <v>-27900</v>
+        <v>76400</v>
       </c>
       <c r="F102" s="3">
-        <v>72600</v>
+        <v>237300</v>
       </c>
       <c r="G102" s="3">
-        <v>-667900</v>
+        <v>-26900</v>
       </c>
       <c r="H102" s="3">
-        <v>-225400</v>
+        <v>70100</v>
       </c>
       <c r="I102" s="3">
+        <v>-644600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-217500</v>
+      </c>
+      <c r="K102" s="3">
         <v>638300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>33000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-86500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>53300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>152200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>452700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>257800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>516200</v>
+        <v>649100</v>
       </c>
       <c r="E8" s="3">
-        <v>914900</v>
+        <v>478200</v>
       </c>
       <c r="F8" s="3">
-        <v>404000</v>
+        <v>847600</v>
       </c>
       <c r="G8" s="3">
-        <v>405400</v>
+        <v>374300</v>
       </c>
       <c r="H8" s="3">
-        <v>395000</v>
+        <v>555900</v>
       </c>
       <c r="I8" s="3">
-        <v>786100</v>
+        <v>365900</v>
       </c>
       <c r="J8" s="3">
+        <v>728200</v>
+      </c>
+      <c r="K8" s="3">
         <v>386400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>501000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>401000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>728200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>327000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>240600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>166900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>139500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>130800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-11900</v>
+        <v>-16100</v>
       </c>
       <c r="E15" s="3">
-        <v>-25700</v>
+        <v>-11000</v>
       </c>
       <c r="F15" s="3">
-        <v>-22400</v>
+        <v>-23900</v>
       </c>
       <c r="G15" s="3">
-        <v>-13800</v>
+        <v>-20700</v>
       </c>
       <c r="H15" s="3">
-        <v>-12700</v>
+        <v>-18900</v>
       </c>
       <c r="I15" s="3">
-        <v>-27800</v>
+        <v>-11700</v>
       </c>
       <c r="J15" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-24600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-25900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-15300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-26900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-27600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-3800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-3000</v>
       </c>
       <c r="Q15" s="3">
         <v>-3000</v>
       </c>
       <c r="R15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S15" s="3">
         <v>-3300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>250800</v>
+        <v>274400</v>
       </c>
       <c r="E17" s="3">
-        <v>438300</v>
+        <v>232400</v>
       </c>
       <c r="F17" s="3">
-        <v>187900</v>
+        <v>406000</v>
       </c>
       <c r="G17" s="3">
-        <v>195600</v>
+        <v>174100</v>
       </c>
       <c r="H17" s="3">
-        <v>157200</v>
+        <v>269100</v>
       </c>
       <c r="I17" s="3">
-        <v>316400</v>
+        <v>145600</v>
       </c>
       <c r="J17" s="3">
+        <v>293100</v>
+      </c>
+      <c r="K17" s="3">
         <v>153800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>256700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>242200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>377400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>172500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>140700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>91800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>63100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>55100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>265400</v>
+        <v>374700</v>
       </c>
       <c r="E18" s="3">
-        <v>476600</v>
+        <v>245900</v>
       </c>
       <c r="F18" s="3">
-        <v>216100</v>
+        <v>441500</v>
       </c>
       <c r="G18" s="3">
-        <v>209800</v>
+        <v>200200</v>
       </c>
       <c r="H18" s="3">
-        <v>237800</v>
+        <v>286800</v>
       </c>
       <c r="I18" s="3">
-        <v>469700</v>
+        <v>220300</v>
       </c>
       <c r="J18" s="3">
+        <v>435100</v>
+      </c>
+      <c r="K18" s="3">
         <v>232700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>244300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>158800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>350800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>154500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>99900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>75700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-216800</v>
+        <v>-297300</v>
       </c>
       <c r="E20" s="3">
-        <v>-399700</v>
+        <v>-200800</v>
       </c>
       <c r="F20" s="3">
-        <v>-188200</v>
+        <v>-370300</v>
       </c>
       <c r="G20" s="3">
-        <v>-153200</v>
+        <v>-174400</v>
       </c>
       <c r="H20" s="3">
-        <v>-166300</v>
+        <v>-237100</v>
       </c>
       <c r="I20" s="3">
-        <v>-306900</v>
+        <v>-154100</v>
       </c>
       <c r="J20" s="3">
+        <v>-284300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-177000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-255800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-63500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-122200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-56500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-32100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-38800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62600</v>
+        <v>93900</v>
       </c>
       <c r="E21" s="3">
-        <v>100500</v>
+        <v>58000</v>
       </c>
       <c r="F21" s="3">
-        <v>38500</v>
+        <v>93100</v>
       </c>
       <c r="G21" s="3">
-        <v>56500</v>
+        <v>35600</v>
       </c>
       <c r="H21" s="3">
-        <v>86500</v>
+        <v>68600</v>
       </c>
       <c r="I21" s="3">
-        <v>188300</v>
+        <v>80200</v>
       </c>
       <c r="J21" s="3">
+        <v>174400</v>
+      </c>
+      <c r="K21" s="3">
         <v>67300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>107800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>249700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>111500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>61800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>59700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>47300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>48600</v>
+        <v>77400</v>
       </c>
       <c r="E23" s="3">
-        <v>76900</v>
+        <v>45000</v>
       </c>
       <c r="F23" s="3">
-        <v>27900</v>
+        <v>71300</v>
       </c>
       <c r="G23" s="3">
+        <v>25800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>49700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>66200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>150800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>55600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="M23" s="3">
+        <v>95300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>228600</v>
+      </c>
+      <c r="O23" s="3">
+        <v>98000</v>
+      </c>
+      <c r="P23" s="3">
+        <v>58400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>56700</v>
       </c>
-      <c r="H23" s="3">
-        <v>71500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>162800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>55600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>95300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>228600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>98000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>58400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>56700</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>36800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15000</v>
+        <v>19700</v>
       </c>
       <c r="E24" s="3">
-        <v>-37000</v>
+        <v>13900</v>
       </c>
       <c r="F24" s="3">
-        <v>-4800</v>
+        <v>-34300</v>
       </c>
       <c r="G24" s="3">
-        <v>27700</v>
+        <v>-4500</v>
       </c>
       <c r="H24" s="3">
-        <v>17700</v>
+        <v>31900</v>
       </c>
       <c r="I24" s="3">
-        <v>70600</v>
+        <v>16400</v>
       </c>
       <c r="J24" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K24" s="3">
         <v>34000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>72200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>15400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33600</v>
+        <v>57800</v>
       </c>
       <c r="E26" s="3">
-        <v>114000</v>
+        <v>31100</v>
       </c>
       <c r="F26" s="3">
-        <v>32700</v>
+        <v>105600</v>
       </c>
       <c r="G26" s="3">
-        <v>29000</v>
+        <v>30300</v>
       </c>
       <c r="H26" s="3">
-        <v>53800</v>
+        <v>17800</v>
       </c>
       <c r="I26" s="3">
-        <v>92200</v>
+        <v>49900</v>
       </c>
       <c r="J26" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K26" s="3">
         <v>21700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>84100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>156400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>56000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33500</v>
+        <v>57600</v>
       </c>
       <c r="E27" s="3">
-        <v>114500</v>
+        <v>31100</v>
       </c>
       <c r="F27" s="3">
-        <v>33100</v>
+        <v>106000</v>
       </c>
       <c r="G27" s="3">
-        <v>29900</v>
+        <v>30700</v>
       </c>
       <c r="H27" s="3">
-        <v>53800</v>
+        <v>19100</v>
       </c>
       <c r="I27" s="3">
-        <v>90900</v>
+        <v>49900</v>
       </c>
       <c r="J27" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K27" s="3">
         <v>21200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>79700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>156400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>216800</v>
+        <v>297300</v>
       </c>
       <c r="E32" s="3">
-        <v>399700</v>
+        <v>200800</v>
       </c>
       <c r="F32" s="3">
-        <v>188200</v>
+        <v>370300</v>
       </c>
       <c r="G32" s="3">
-        <v>153200</v>
+        <v>174400</v>
       </c>
       <c r="H32" s="3">
-        <v>166300</v>
+        <v>237100</v>
       </c>
       <c r="I32" s="3">
-        <v>306900</v>
+        <v>154100</v>
       </c>
       <c r="J32" s="3">
+        <v>284300</v>
+      </c>
+      <c r="K32" s="3">
         <v>177000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>255800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>63500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>122200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>56500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>32100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>38800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>33500</v>
+        <v>57600</v>
       </c>
       <c r="E33" s="3">
-        <v>114500</v>
+        <v>31100</v>
       </c>
       <c r="F33" s="3">
-        <v>33100</v>
+        <v>106000</v>
       </c>
       <c r="G33" s="3">
-        <v>29900</v>
+        <v>30700</v>
       </c>
       <c r="H33" s="3">
-        <v>53800</v>
+        <v>19100</v>
       </c>
       <c r="I33" s="3">
-        <v>90900</v>
+        <v>49900</v>
       </c>
       <c r="J33" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K33" s="3">
         <v>21200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>79700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>156400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>40800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>33500</v>
+        <v>57600</v>
       </c>
       <c r="E35" s="3">
-        <v>114500</v>
+        <v>31100</v>
       </c>
       <c r="F35" s="3">
-        <v>33100</v>
+        <v>106000</v>
       </c>
       <c r="G35" s="3">
-        <v>29900</v>
+        <v>30700</v>
       </c>
       <c r="H35" s="3">
-        <v>53800</v>
+        <v>19100</v>
       </c>
       <c r="I35" s="3">
-        <v>90900</v>
+        <v>49900</v>
       </c>
       <c r="J35" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K35" s="3">
         <v>21200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>79700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>156400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>40800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1925700</v>
+        <v>1987200</v>
       </c>
       <c r="E41" s="3">
-        <v>1928600</v>
+        <v>1784000</v>
       </c>
       <c r="F41" s="3">
-        <v>1901000</v>
+        <v>1786700</v>
       </c>
       <c r="G41" s="3">
-        <v>2016500</v>
+        <v>1761100</v>
       </c>
       <c r="H41" s="3">
-        <v>1279400</v>
+        <v>2058900</v>
       </c>
       <c r="I41" s="3">
-        <v>1075200</v>
+        <v>1185300</v>
       </c>
       <c r="J41" s="3">
+        <v>996000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1410000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2158700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>898700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>947900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1060300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1235900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1103600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>735900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>535600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>117400</v>
+        <v>52600</v>
       </c>
       <c r="E42" s="3">
-        <v>104800</v>
+        <v>108700</v>
       </c>
       <c r="F42" s="3">
-        <v>111600</v>
+        <v>97100</v>
       </c>
       <c r="G42" s="3">
-        <v>97600</v>
+        <v>103400</v>
       </c>
       <c r="H42" s="3">
-        <v>119100</v>
+        <v>99700</v>
       </c>
       <c r="I42" s="3">
-        <v>155800</v>
+        <v>110300</v>
       </c>
       <c r="J42" s="3">
+        <v>144300</v>
+      </c>
+      <c r="K42" s="3">
         <v>151400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>115000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>141800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>107400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>118300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>212600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>96300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>104300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>96300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="E47" s="3">
-        <v>20400</v>
+        <v>18000</v>
       </c>
       <c r="F47" s="3">
-        <v>15700</v>
+        <v>18900</v>
       </c>
       <c r="G47" s="3">
-        <v>19600</v>
+        <v>14600</v>
       </c>
       <c r="H47" s="3">
-        <v>13100</v>
+        <v>20000</v>
       </c>
       <c r="I47" s="3">
         <v>12200</v>
       </c>
       <c r="J47" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K47" s="3">
         <v>11200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>22000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>442100</v>
+        <v>468000</v>
       </c>
       <c r="E48" s="3">
-        <v>409000</v>
+        <v>409600</v>
       </c>
       <c r="F48" s="3">
-        <v>373400</v>
+        <v>378900</v>
       </c>
       <c r="G48" s="3">
-        <v>458800</v>
+        <v>345900</v>
       </c>
       <c r="H48" s="3">
-        <v>299000</v>
+        <v>468400</v>
       </c>
       <c r="I48" s="3">
-        <v>280400</v>
+        <v>277000</v>
       </c>
       <c r="J48" s="3">
+        <v>259800</v>
+      </c>
+      <c r="K48" s="3">
         <v>271100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>364900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>121500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>125900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>126800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>133200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>124500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>133800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>149200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28400</v>
+        <v>33800</v>
       </c>
       <c r="E49" s="3">
-        <v>23500</v>
+        <v>26300</v>
       </c>
       <c r="F49" s="3">
-        <v>18900</v>
+        <v>21800</v>
       </c>
       <c r="G49" s="3">
-        <v>21100</v>
+        <v>17500</v>
       </c>
       <c r="H49" s="3">
-        <v>12800</v>
+        <v>21600</v>
       </c>
       <c r="I49" s="3">
-        <v>10600</v>
+        <v>11900</v>
       </c>
       <c r="J49" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K49" s="3">
         <v>9100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9700</v>
+        <v>10800</v>
       </c>
       <c r="E52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>40800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>76700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>54500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>75300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>40000</v>
+      </c>
+      <c r="M52" s="3">
+        <v>35600</v>
+      </c>
+      <c r="N52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
-        <v>44100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>75100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>58900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>54300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>75300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>40000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>35600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>6200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>9300</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9068900</v>
+        <v>9467500</v>
       </c>
       <c r="E54" s="3">
-        <v>8574800</v>
+        <v>8401600</v>
       </c>
       <c r="F54" s="3">
-        <v>7360100</v>
+        <v>7943700</v>
       </c>
       <c r="G54" s="3">
-        <v>9346900</v>
+        <v>6818500</v>
       </c>
       <c r="H54" s="3">
-        <v>5851200</v>
+        <v>9543200</v>
       </c>
       <c r="I54" s="3">
-        <v>5377400</v>
+        <v>5420600</v>
       </c>
       <c r="J54" s="3">
+        <v>4981700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5085500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6320300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4256700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4168600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4234100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4812100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4532100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3926900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3707300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>660400</v>
+        <v>711400</v>
       </c>
       <c r="E57" s="3">
-        <v>573500</v>
+        <v>611800</v>
       </c>
       <c r="F57" s="3">
-        <v>563900</v>
+        <v>531300</v>
       </c>
       <c r="G57" s="3">
-        <v>640100</v>
+        <v>522400</v>
       </c>
       <c r="H57" s="3">
-        <v>435700</v>
+        <v>653500</v>
       </c>
       <c r="I57" s="3">
-        <v>318500</v>
+        <v>403600</v>
       </c>
       <c r="J57" s="3">
+        <v>295100</v>
+      </c>
+      <c r="K57" s="3">
         <v>455500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>435500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>346300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>251100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>320900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>398200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>316500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>284300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>301300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>324200</v>
+        <v>370800</v>
       </c>
       <c r="E59" s="3">
-        <v>301400</v>
+        <v>300400</v>
       </c>
       <c r="F59" s="3">
-        <v>232700</v>
+        <v>279200</v>
       </c>
       <c r="G59" s="3">
-        <v>335100</v>
+        <v>215500</v>
       </c>
       <c r="H59" s="3">
-        <v>117900</v>
+        <v>342100</v>
       </c>
       <c r="I59" s="3">
-        <v>111100</v>
+        <v>109200</v>
       </c>
       <c r="J59" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K59" s="3">
         <v>165500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>193200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>105900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>91000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>97800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>97400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>80000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>49900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,114 +3363,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29100</v>
+        <v>26900</v>
       </c>
       <c r="E61" s="3">
-        <v>28200</v>
+        <v>26900</v>
       </c>
       <c r="F61" s="3">
-        <v>29600</v>
+        <v>26100</v>
       </c>
       <c r="G61" s="3">
-        <v>40100</v>
+        <v>27400</v>
       </c>
       <c r="H61" s="3">
-        <v>27600</v>
+        <v>40900</v>
       </c>
       <c r="I61" s="3">
+        <v>25600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K61" s="3">
+        <v>25300</v>
+      </c>
+      <c r="L61" s="3">
+        <v>35200</v>
+      </c>
+      <c r="M61" s="3">
         <v>26400</v>
       </c>
-      <c r="J61" s="3">
-        <v>25300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>35200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>26400</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>21300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>13700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>101200</v>
+        <v>127000</v>
       </c>
       <c r="E62" s="3">
+        <v>93700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>89800</v>
+      </c>
+      <c r="G62" s="3">
         <v>96900</v>
       </c>
-      <c r="F62" s="3">
-        <v>104500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>156400</v>
-      </c>
       <c r="H62" s="3">
-        <v>104200</v>
+        <v>159700</v>
       </c>
       <c r="I62" s="3">
-        <v>109200</v>
+        <v>96500</v>
       </c>
       <c r="J62" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K62" s="3">
         <v>111800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>150400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>79000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>75500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>49900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>54400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>62500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7625400</v>
+        <v>8002500</v>
       </c>
       <c r="E66" s="3">
-        <v>7282500</v>
+        <v>7064300</v>
       </c>
       <c r="F66" s="3">
-        <v>6194200</v>
+        <v>6746600</v>
       </c>
       <c r="G66" s="3">
-        <v>7966300</v>
+        <v>5738400</v>
       </c>
       <c r="H66" s="3">
-        <v>4812800</v>
+        <v>8133600</v>
       </c>
       <c r="I66" s="3">
-        <v>4454100</v>
+        <v>4458600</v>
       </c>
       <c r="J66" s="3">
+        <v>4126300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4222000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5280700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3680100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3651100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3749600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4289000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4047700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3445800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3184200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>823500</v>
+        <v>831800</v>
       </c>
       <c r="E72" s="3">
-        <v>724800</v>
+        <v>762900</v>
       </c>
       <c r="F72" s="3">
-        <v>654500</v>
+        <v>671500</v>
       </c>
       <c r="G72" s="3">
-        <v>760500</v>
+        <v>606400</v>
       </c>
       <c r="H72" s="3">
-        <v>631700</v>
+        <v>776500</v>
       </c>
       <c r="I72" s="3">
-        <v>545600</v>
+        <v>585200</v>
       </c>
       <c r="J72" s="3">
+        <v>505400</v>
+      </c>
+      <c r="K72" s="3">
         <v>505000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>570400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>497900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>436200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>400900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>419200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>380500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>368900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>396500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1443500</v>
+        <v>1464900</v>
       </c>
       <c r="E76" s="3">
-        <v>1292200</v>
+        <v>1337300</v>
       </c>
       <c r="F76" s="3">
-        <v>1165900</v>
+        <v>1197100</v>
       </c>
       <c r="G76" s="3">
-        <v>1380600</v>
+        <v>1080100</v>
       </c>
       <c r="H76" s="3">
-        <v>1038400</v>
+        <v>1409600</v>
       </c>
       <c r="I76" s="3">
-        <v>923300</v>
+        <v>962000</v>
       </c>
       <c r="J76" s="3">
+        <v>855400</v>
+      </c>
+      <c r="K76" s="3">
         <v>863500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1039600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>576700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>517500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>484600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>523100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>484400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>481100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>523100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>33500</v>
+        <v>57600</v>
       </c>
       <c r="E81" s="3">
-        <v>114500</v>
+        <v>31100</v>
       </c>
       <c r="F81" s="3">
-        <v>33100</v>
+        <v>106000</v>
       </c>
       <c r="G81" s="3">
-        <v>29900</v>
+        <v>30700</v>
       </c>
       <c r="H81" s="3">
-        <v>53800</v>
+        <v>19100</v>
       </c>
       <c r="I81" s="3">
-        <v>90900</v>
+        <v>49900</v>
       </c>
       <c r="J81" s="3">
+        <v>84200</v>
+      </c>
+      <c r="K81" s="3">
         <v>21200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>79700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>156400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>40800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="E83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J83" s="3">
         <v>23600</v>
       </c>
-      <c r="F83" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>15000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>25500</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3000</v>
       </c>
       <c r="Q83" s="3">
         <v>3000</v>
       </c>
       <c r="R83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S83" s="3">
         <v>3300</v>
       </c>
-      <c r="S83" s="3" t="s">
+      <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-22500</v>
+        <v>131900</v>
       </c>
       <c r="E89" s="3">
-        <v>124700</v>
+        <v>-20900</v>
       </c>
       <c r="F89" s="3">
-        <v>249600</v>
+        <v>115500</v>
       </c>
       <c r="G89" s="3">
-        <v>-30700</v>
+        <v>231200</v>
       </c>
       <c r="H89" s="3">
-        <v>79600</v>
+        <v>-28500</v>
       </c>
       <c r="I89" s="3">
-        <v>-660000</v>
+        <v>73700</v>
       </c>
       <c r="J89" s="3">
+        <v>-611400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-247300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>611600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-180800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-156000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-62700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>260600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>198900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-38900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12100</v>
+        <v>-46500</v>
       </c>
       <c r="E91" s="3">
-        <v>-17500</v>
+        <v>-11200</v>
       </c>
       <c r="F91" s="3">
-        <v>-7000</v>
+        <v>-16200</v>
       </c>
       <c r="G91" s="3">
-        <v>-12400</v>
+        <v>-6500</v>
       </c>
       <c r="H91" s="3">
-        <v>-7700</v>
+        <v>-11500</v>
       </c>
       <c r="I91" s="3">
-        <v>-8000</v>
+        <v>-7100</v>
       </c>
       <c r="J91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>7300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9700</v>
+        <v>-44100</v>
       </c>
       <c r="E94" s="3">
-        <v>-13800</v>
+        <v>-9000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4300</v>
+        <v>-12700</v>
       </c>
       <c r="G94" s="3">
-        <v>-13200</v>
+        <v>-4000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7200</v>
+        <v>-12200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3300</v>
+        <v>-6600</v>
       </c>
       <c r="J94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>14500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-5100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4883,11 +5116,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-25500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4901,10 +5134,13 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7700</v>
+        <v>-3000</v>
       </c>
       <c r="E100" s="3">
-        <v>-42300</v>
+        <v>-7200</v>
       </c>
       <c r="F100" s="3">
-        <v>-15600</v>
+        <v>-39200</v>
       </c>
       <c r="G100" s="3">
-        <v>-8500</v>
+        <v>-14500</v>
       </c>
       <c r="H100" s="3">
-        <v>-26300</v>
+        <v>-7800</v>
       </c>
       <c r="I100" s="3">
-        <v>-35800</v>
+        <v>-24300</v>
       </c>
       <c r="J100" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-12900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>55900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-146200</v>
+        <v>-83500</v>
       </c>
       <c r="E101" s="3">
-        <v>7800</v>
+        <v>-135400</v>
       </c>
       <c r="F101" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="G101" s="3">
-        <v>-15700</v>
+        <v>7100</v>
       </c>
       <c r="H101" s="3">
-        <v>37700</v>
+        <v>34400</v>
       </c>
       <c r="I101" s="3">
-        <v>81800</v>
+        <v>35000</v>
       </c>
       <c r="J101" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K101" s="3">
         <v>63500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>30300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>245700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>69900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>87800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-81800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>221100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>161900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>22700</v>
       </c>
-      <c r="S101" s="3" t="s">
+      <c r="T101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-186100</v>
+        <v>-1700</v>
       </c>
       <c r="E102" s="3">
-        <v>76400</v>
+        <v>-172400</v>
       </c>
       <c r="F102" s="3">
-        <v>237300</v>
+        <v>70800</v>
       </c>
       <c r="G102" s="3">
-        <v>-26900</v>
+        <v>219900</v>
       </c>
       <c r="H102" s="3">
-        <v>70100</v>
+        <v>-24900</v>
       </c>
       <c r="I102" s="3">
-        <v>-644600</v>
+        <v>64900</v>
       </c>
       <c r="J102" s="3">
+        <v>-597100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-217500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>638300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>33000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-86500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>53300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>152200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>452700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>257800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>649100</v>
+        <v>602500</v>
       </c>
       <c r="E8" s="3">
-        <v>478200</v>
+        <v>443900</v>
       </c>
       <c r="F8" s="3">
-        <v>847600</v>
+        <v>786700</v>
       </c>
       <c r="G8" s="3">
-        <v>374300</v>
+        <v>347400</v>
       </c>
       <c r="H8" s="3">
-        <v>555900</v>
+        <v>516000</v>
       </c>
       <c r="I8" s="3">
-        <v>365900</v>
+        <v>339600</v>
       </c>
       <c r="J8" s="3">
-        <v>728200</v>
+        <v>675900</v>
       </c>
       <c r="K8" s="3">
         <v>386400</v>
@@ -1110,25 +1110,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-16100</v>
+        <v>-15000</v>
       </c>
       <c r="E15" s="3">
-        <v>-11000</v>
+        <v>-10200</v>
       </c>
       <c r="F15" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J15" s="3">
         <v>-23900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-25800</v>
       </c>
       <c r="K15" s="3">
         <v>-24600</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>274400</v>
+        <v>254700</v>
       </c>
       <c r="E17" s="3">
-        <v>232400</v>
+        <v>215700</v>
       </c>
       <c r="F17" s="3">
-        <v>406000</v>
+        <v>376900</v>
       </c>
       <c r="G17" s="3">
-        <v>174100</v>
+        <v>161600</v>
       </c>
       <c r="H17" s="3">
-        <v>269100</v>
+        <v>249800</v>
       </c>
       <c r="I17" s="3">
-        <v>145600</v>
+        <v>135100</v>
       </c>
       <c r="J17" s="3">
-        <v>293100</v>
+        <v>272100</v>
       </c>
       <c r="K17" s="3">
         <v>153800</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>374700</v>
+        <v>347800</v>
       </c>
       <c r="E18" s="3">
-        <v>245900</v>
+        <v>228200</v>
       </c>
       <c r="F18" s="3">
-        <v>441500</v>
+        <v>409800</v>
       </c>
       <c r="G18" s="3">
-        <v>200200</v>
+        <v>185800</v>
       </c>
       <c r="H18" s="3">
-        <v>286800</v>
+        <v>266200</v>
       </c>
       <c r="I18" s="3">
-        <v>220300</v>
+        <v>204500</v>
       </c>
       <c r="J18" s="3">
-        <v>435100</v>
+        <v>403900</v>
       </c>
       <c r="K18" s="3">
         <v>232700</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-297300</v>
+        <v>-275900</v>
       </c>
       <c r="E20" s="3">
-        <v>-200800</v>
+        <v>-186400</v>
       </c>
       <c r="F20" s="3">
-        <v>-370300</v>
+        <v>-343700</v>
       </c>
       <c r="G20" s="3">
-        <v>-174400</v>
+        <v>-161900</v>
       </c>
       <c r="H20" s="3">
-        <v>-237100</v>
+        <v>-220100</v>
       </c>
       <c r="I20" s="3">
-        <v>-154100</v>
+        <v>-143000</v>
       </c>
       <c r="J20" s="3">
-        <v>-284300</v>
+        <v>-263900</v>
       </c>
       <c r="K20" s="3">
         <v>-177000</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>93900</v>
+        <v>87200</v>
       </c>
       <c r="E21" s="3">
-        <v>58000</v>
+        <v>53900</v>
       </c>
       <c r="F21" s="3">
-        <v>93100</v>
+        <v>86400</v>
       </c>
       <c r="G21" s="3">
-        <v>35600</v>
+        <v>33100</v>
       </c>
       <c r="H21" s="3">
-        <v>68600</v>
+        <v>63600</v>
       </c>
       <c r="I21" s="3">
-        <v>80200</v>
+        <v>74400</v>
       </c>
       <c r="J21" s="3">
-        <v>174400</v>
+        <v>161900</v>
       </c>
       <c r="K21" s="3">
         <v>67300</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>77400</v>
+        <v>71900</v>
       </c>
       <c r="E23" s="3">
-        <v>45000</v>
+        <v>41800</v>
       </c>
       <c r="F23" s="3">
-        <v>71300</v>
+        <v>66200</v>
       </c>
       <c r="G23" s="3">
-        <v>25800</v>
+        <v>24000</v>
       </c>
       <c r="H23" s="3">
-        <v>49700</v>
+        <v>46100</v>
       </c>
       <c r="I23" s="3">
-        <v>66200</v>
+        <v>61500</v>
       </c>
       <c r="J23" s="3">
-        <v>150800</v>
+        <v>140000</v>
       </c>
       <c r="K23" s="3">
         <v>55600</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19700</v>
+        <v>18300</v>
       </c>
       <c r="E24" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="F24" s="3">
-        <v>-34300</v>
+        <v>-31800</v>
       </c>
       <c r="G24" s="3">
-        <v>-4500</v>
+        <v>-4100</v>
       </c>
       <c r="H24" s="3">
-        <v>31900</v>
+        <v>29600</v>
       </c>
       <c r="I24" s="3">
-        <v>16400</v>
+        <v>15200</v>
       </c>
       <c r="J24" s="3">
-        <v>65400</v>
+        <v>60700</v>
       </c>
       <c r="K24" s="3">
         <v>34000</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57800</v>
+        <v>53600</v>
       </c>
       <c r="E26" s="3">
-        <v>31100</v>
+        <v>28900</v>
       </c>
       <c r="F26" s="3">
-        <v>105600</v>
+        <v>98000</v>
       </c>
       <c r="G26" s="3">
-        <v>30300</v>
+        <v>28100</v>
       </c>
       <c r="H26" s="3">
-        <v>17800</v>
+        <v>16500</v>
       </c>
       <c r="I26" s="3">
-        <v>49900</v>
+        <v>46300</v>
       </c>
       <c r="J26" s="3">
-        <v>85400</v>
+        <v>79200</v>
       </c>
       <c r="K26" s="3">
         <v>21700</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57600</v>
+        <v>53500</v>
       </c>
       <c r="E27" s="3">
-        <v>31100</v>
+        <v>28800</v>
       </c>
       <c r="F27" s="3">
-        <v>106000</v>
+        <v>98400</v>
       </c>
       <c r="G27" s="3">
-        <v>30700</v>
+        <v>28500</v>
       </c>
       <c r="H27" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="I27" s="3">
-        <v>49900</v>
+        <v>46300</v>
       </c>
       <c r="J27" s="3">
-        <v>84200</v>
+        <v>78200</v>
       </c>
       <c r="K27" s="3">
         <v>21200</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>297300</v>
+        <v>275900</v>
       </c>
       <c r="E32" s="3">
-        <v>200800</v>
+        <v>186400</v>
       </c>
       <c r="F32" s="3">
-        <v>370300</v>
+        <v>343700</v>
       </c>
       <c r="G32" s="3">
-        <v>174400</v>
+        <v>161900</v>
       </c>
       <c r="H32" s="3">
-        <v>237100</v>
+        <v>220100</v>
       </c>
       <c r="I32" s="3">
-        <v>154100</v>
+        <v>143000</v>
       </c>
       <c r="J32" s="3">
-        <v>284300</v>
+        <v>263900</v>
       </c>
       <c r="K32" s="3">
         <v>177000</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57600</v>
+        <v>53500</v>
       </c>
       <c r="E33" s="3">
-        <v>31100</v>
+        <v>28800</v>
       </c>
       <c r="F33" s="3">
-        <v>106000</v>
+        <v>98400</v>
       </c>
       <c r="G33" s="3">
-        <v>30700</v>
+        <v>28500</v>
       </c>
       <c r="H33" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="I33" s="3">
-        <v>49900</v>
+        <v>46300</v>
       </c>
       <c r="J33" s="3">
-        <v>84200</v>
+        <v>78200</v>
       </c>
       <c r="K33" s="3">
         <v>21200</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57600</v>
+        <v>53500</v>
       </c>
       <c r="E35" s="3">
-        <v>31100</v>
+        <v>28800</v>
       </c>
       <c r="F35" s="3">
-        <v>106000</v>
+        <v>98400</v>
       </c>
       <c r="G35" s="3">
-        <v>30700</v>
+        <v>28500</v>
       </c>
       <c r="H35" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="I35" s="3">
-        <v>49900</v>
+        <v>46300</v>
       </c>
       <c r="J35" s="3">
-        <v>84200</v>
+        <v>78200</v>
       </c>
       <c r="K35" s="3">
         <v>21200</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1987200</v>
+        <v>1844500</v>
       </c>
       <c r="E41" s="3">
-        <v>1784000</v>
+        <v>1655900</v>
       </c>
       <c r="F41" s="3">
-        <v>1786700</v>
+        <v>1658400</v>
       </c>
       <c r="G41" s="3">
-        <v>1761100</v>
+        <v>1634600</v>
       </c>
       <c r="H41" s="3">
-        <v>2058900</v>
+        <v>1911000</v>
       </c>
       <c r="I41" s="3">
-        <v>1185300</v>
+        <v>1100200</v>
       </c>
       <c r="J41" s="3">
-        <v>996000</v>
+        <v>924500</v>
       </c>
       <c r="K41" s="3">
         <v>1410000</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52600</v>
+        <v>48800</v>
       </c>
       <c r="E42" s="3">
-        <v>108700</v>
+        <v>100900</v>
       </c>
       <c r="F42" s="3">
-        <v>97100</v>
+        <v>90100</v>
       </c>
       <c r="G42" s="3">
-        <v>103400</v>
+        <v>96000</v>
       </c>
       <c r="H42" s="3">
-        <v>99700</v>
+        <v>92500</v>
       </c>
       <c r="I42" s="3">
-        <v>110300</v>
+        <v>102400</v>
       </c>
       <c r="J42" s="3">
-        <v>144300</v>
+        <v>133900</v>
       </c>
       <c r="K42" s="3">
         <v>151400</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18900</v>
+        <v>17500</v>
       </c>
       <c r="E47" s="3">
-        <v>18000</v>
+        <v>16700</v>
       </c>
       <c r="F47" s="3">
-        <v>18900</v>
+        <v>17500</v>
       </c>
       <c r="G47" s="3">
-        <v>14600</v>
+        <v>13500</v>
       </c>
       <c r="H47" s="3">
-        <v>20000</v>
+        <v>18600</v>
       </c>
       <c r="I47" s="3">
-        <v>12200</v>
+        <v>11300</v>
       </c>
       <c r="J47" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K47" s="3">
         <v>11200</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>468000</v>
+        <v>434400</v>
       </c>
       <c r="E48" s="3">
-        <v>409600</v>
+        <v>380200</v>
       </c>
       <c r="F48" s="3">
-        <v>378900</v>
+        <v>351700</v>
       </c>
       <c r="G48" s="3">
-        <v>345900</v>
+        <v>321100</v>
       </c>
       <c r="H48" s="3">
-        <v>468400</v>
+        <v>434800</v>
       </c>
       <c r="I48" s="3">
-        <v>277000</v>
+        <v>257100</v>
       </c>
       <c r="J48" s="3">
-        <v>259800</v>
+        <v>241100</v>
       </c>
       <c r="K48" s="3">
         <v>271100</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33800</v>
+        <v>31400</v>
       </c>
       <c r="E49" s="3">
-        <v>26300</v>
+        <v>24400</v>
       </c>
       <c r="F49" s="3">
-        <v>21800</v>
+        <v>20200</v>
       </c>
       <c r="G49" s="3">
-        <v>17500</v>
+        <v>16300</v>
       </c>
       <c r="H49" s="3">
-        <v>21600</v>
+        <v>20000</v>
       </c>
       <c r="I49" s="3">
-        <v>11900</v>
+        <v>11000</v>
       </c>
       <c r="J49" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="K49" s="3">
         <v>9100</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="E52" s="3">
-        <v>9000</v>
+        <v>8300</v>
       </c>
       <c r="F52" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="G52" s="3">
-        <v>40800</v>
+        <v>37900</v>
       </c>
       <c r="H52" s="3">
-        <v>76700</v>
+        <v>71200</v>
       </c>
       <c r="I52" s="3">
-        <v>54500</v>
+        <v>50600</v>
       </c>
       <c r="J52" s="3">
-        <v>50300</v>
+        <v>46700</v>
       </c>
       <c r="K52" s="3">
         <v>75300</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9467500</v>
+        <v>8787600</v>
       </c>
       <c r="E54" s="3">
-        <v>8401600</v>
+        <v>7798200</v>
       </c>
       <c r="F54" s="3">
-        <v>7943700</v>
+        <v>7373300</v>
       </c>
       <c r="G54" s="3">
-        <v>6818500</v>
+        <v>6328800</v>
       </c>
       <c r="H54" s="3">
-        <v>9543200</v>
+        <v>8857800</v>
       </c>
       <c r="I54" s="3">
-        <v>5420600</v>
+        <v>5031300</v>
       </c>
       <c r="J54" s="3">
-        <v>4981700</v>
+        <v>4623900</v>
       </c>
       <c r="K54" s="3">
         <v>5085500</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>711400</v>
+        <v>660300</v>
       </c>
       <c r="E57" s="3">
-        <v>611800</v>
+        <v>567900</v>
       </c>
       <c r="F57" s="3">
-        <v>531300</v>
+        <v>493100</v>
       </c>
       <c r="G57" s="3">
-        <v>522400</v>
+        <v>484900</v>
       </c>
       <c r="H57" s="3">
-        <v>653500</v>
+        <v>606600</v>
       </c>
       <c r="I57" s="3">
-        <v>403600</v>
+        <v>374600</v>
       </c>
       <c r="J57" s="3">
-        <v>295100</v>
+        <v>273900</v>
       </c>
       <c r="K57" s="3">
         <v>455500</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>370800</v>
+        <v>344200</v>
       </c>
       <c r="E59" s="3">
-        <v>300400</v>
+        <v>278800</v>
       </c>
       <c r="F59" s="3">
-        <v>279200</v>
+        <v>259200</v>
       </c>
       <c r="G59" s="3">
-        <v>215500</v>
+        <v>200100</v>
       </c>
       <c r="H59" s="3">
-        <v>342100</v>
+        <v>317500</v>
       </c>
       <c r="I59" s="3">
-        <v>109200</v>
+        <v>101400</v>
       </c>
       <c r="J59" s="3">
-        <v>102900</v>
+        <v>95600</v>
       </c>
       <c r="K59" s="3">
         <v>165500</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26900</v>
+        <v>24900</v>
       </c>
       <c r="E61" s="3">
-        <v>26900</v>
+        <v>25000</v>
       </c>
       <c r="F61" s="3">
-        <v>26100</v>
+        <v>24200</v>
       </c>
       <c r="G61" s="3">
-        <v>27400</v>
+        <v>25400</v>
       </c>
       <c r="H61" s="3">
-        <v>40900</v>
+        <v>38000</v>
       </c>
       <c r="I61" s="3">
-        <v>25600</v>
+        <v>23800</v>
       </c>
       <c r="J61" s="3">
-        <v>24400</v>
+        <v>22700</v>
       </c>
       <c r="K61" s="3">
         <v>25300</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>127000</v>
+        <v>117900</v>
       </c>
       <c r="E62" s="3">
-        <v>93700</v>
+        <v>87000</v>
       </c>
       <c r="F62" s="3">
-        <v>89800</v>
+        <v>83300</v>
       </c>
       <c r="G62" s="3">
-        <v>96900</v>
+        <v>89900</v>
       </c>
       <c r="H62" s="3">
-        <v>159700</v>
+        <v>148200</v>
       </c>
       <c r="I62" s="3">
-        <v>96500</v>
+        <v>89600</v>
       </c>
       <c r="J62" s="3">
-        <v>101100</v>
+        <v>93900</v>
       </c>
       <c r="K62" s="3">
         <v>111800</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8002500</v>
+        <v>7427800</v>
       </c>
       <c r="E66" s="3">
-        <v>7064300</v>
+        <v>6556900</v>
       </c>
       <c r="F66" s="3">
-        <v>6746600</v>
+        <v>6262100</v>
       </c>
       <c r="G66" s="3">
-        <v>5738400</v>
+        <v>5326300</v>
       </c>
       <c r="H66" s="3">
-        <v>8133600</v>
+        <v>7549500</v>
       </c>
       <c r="I66" s="3">
-        <v>4458600</v>
+        <v>4138400</v>
       </c>
       <c r="J66" s="3">
-        <v>4126300</v>
+        <v>3830000</v>
       </c>
       <c r="K66" s="3">
         <v>4222000</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>831800</v>
+        <v>772100</v>
       </c>
       <c r="E72" s="3">
-        <v>762900</v>
+        <v>708100</v>
       </c>
       <c r="F72" s="3">
-        <v>671500</v>
+        <v>623300</v>
       </c>
       <c r="G72" s="3">
-        <v>606400</v>
+        <v>562800</v>
       </c>
       <c r="H72" s="3">
-        <v>776500</v>
+        <v>720700</v>
       </c>
       <c r="I72" s="3">
-        <v>585200</v>
+        <v>543200</v>
       </c>
       <c r="J72" s="3">
-        <v>505400</v>
+        <v>469100</v>
       </c>
       <c r="K72" s="3">
         <v>505000</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1464900</v>
+        <v>1359700</v>
       </c>
       <c r="E76" s="3">
-        <v>1337300</v>
+        <v>1241300</v>
       </c>
       <c r="F76" s="3">
-        <v>1197100</v>
+        <v>1111200</v>
       </c>
       <c r="G76" s="3">
-        <v>1080100</v>
+        <v>1002600</v>
       </c>
       <c r="H76" s="3">
-        <v>1409600</v>
+        <v>1308300</v>
       </c>
       <c r="I76" s="3">
-        <v>962000</v>
+        <v>892900</v>
       </c>
       <c r="J76" s="3">
-        <v>855400</v>
+        <v>793900</v>
       </c>
       <c r="K76" s="3">
         <v>863500</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57600</v>
+        <v>53500</v>
       </c>
       <c r="E81" s="3">
-        <v>31100</v>
+        <v>28800</v>
       </c>
       <c r="F81" s="3">
-        <v>106000</v>
+        <v>98400</v>
       </c>
       <c r="G81" s="3">
-        <v>30700</v>
+        <v>28500</v>
       </c>
       <c r="H81" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="I81" s="3">
-        <v>49900</v>
+        <v>46300</v>
       </c>
       <c r="J81" s="3">
-        <v>84200</v>
+        <v>78200</v>
       </c>
       <c r="K81" s="3">
         <v>21200</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16500</v>
+        <v>15300</v>
       </c>
       <c r="E83" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="F83" s="3">
-        <v>21800</v>
+        <v>20300</v>
       </c>
       <c r="G83" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="H83" s="3">
-        <v>18900</v>
+        <v>17500</v>
       </c>
       <c r="I83" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="J83" s="3">
-        <v>23600</v>
+        <v>21900</v>
       </c>
       <c r="K83" s="3">
         <v>11600</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>131900</v>
+        <v>122400</v>
       </c>
       <c r="E89" s="3">
-        <v>-20900</v>
+        <v>-19400</v>
       </c>
       <c r="F89" s="3">
-        <v>115500</v>
+        <v>107200</v>
       </c>
       <c r="G89" s="3">
-        <v>231200</v>
+        <v>214600</v>
       </c>
       <c r="H89" s="3">
-        <v>-28500</v>
+        <v>-26400</v>
       </c>
       <c r="I89" s="3">
-        <v>73700</v>
+        <v>68400</v>
       </c>
       <c r="J89" s="3">
-        <v>-611400</v>
+        <v>-567500</v>
       </c>
       <c r="K89" s="3">
         <v>-247300</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46500</v>
+        <v>-43100</v>
       </c>
       <c r="E91" s="3">
-        <v>-11200</v>
+        <v>-10400</v>
       </c>
       <c r="F91" s="3">
-        <v>-16200</v>
+        <v>-15000</v>
       </c>
       <c r="G91" s="3">
-        <v>-6500</v>
+        <v>-6000</v>
       </c>
       <c r="H91" s="3">
-        <v>-11500</v>
+        <v>-10600</v>
       </c>
       <c r="I91" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="J91" s="3">
-        <v>-7400</v>
+        <v>-6900</v>
       </c>
       <c r="K91" s="3">
         <v>-3700</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44100</v>
+        <v>-41000</v>
       </c>
       <c r="E94" s="3">
-        <v>-9000</v>
+        <v>-8400</v>
       </c>
       <c r="F94" s="3">
-        <v>-12700</v>
+        <v>-11800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="H94" s="3">
-        <v>-12200</v>
+        <v>-11300</v>
       </c>
       <c r="I94" s="3">
-        <v>-6600</v>
+        <v>-6200</v>
       </c>
       <c r="J94" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K94" s="3">
         <v>-1900</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="E100" s="3">
-        <v>-7200</v>
+        <v>-6600</v>
       </c>
       <c r="F100" s="3">
-        <v>-39200</v>
+        <v>-36400</v>
       </c>
       <c r="G100" s="3">
-        <v>-14500</v>
+        <v>-13400</v>
       </c>
       <c r="H100" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="I100" s="3">
-        <v>-24300</v>
+        <v>-22600</v>
       </c>
       <c r="J100" s="3">
-        <v>-33100</v>
+        <v>-30800</v>
       </c>
       <c r="K100" s="3">
         <v>-12900</v>
@@ -5369,25 +5369,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-83500</v>
+        <v>-77500</v>
       </c>
       <c r="E101" s="3">
-        <v>-135400</v>
+        <v>-125700</v>
       </c>
       <c r="F101" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="G101" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="H101" s="3">
-        <v>34400</v>
+        <v>32000</v>
       </c>
       <c r="I101" s="3">
-        <v>35000</v>
+        <v>32400</v>
       </c>
       <c r="J101" s="3">
-        <v>75800</v>
+        <v>70400</v>
       </c>
       <c r="K101" s="3">
         <v>63500</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>-172400</v>
+        <v>-160000</v>
       </c>
       <c r="F102" s="3">
-        <v>70800</v>
+        <v>65700</v>
       </c>
       <c r="G102" s="3">
-        <v>219900</v>
+        <v>204100</v>
       </c>
       <c r="H102" s="3">
-        <v>-24900</v>
+        <v>-23200</v>
       </c>
       <c r="I102" s="3">
-        <v>64900</v>
+        <v>60300</v>
       </c>
       <c r="J102" s="3">
-        <v>-597100</v>
+        <v>-554200</v>
       </c>
       <c r="K102" s="3">
         <v>-217500</v>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>602500</v>
+        <v>514200</v>
       </c>
       <c r="E8" s="3">
-        <v>443900</v>
+        <v>378900</v>
       </c>
       <c r="F8" s="3">
-        <v>786700</v>
+        <v>671400</v>
       </c>
       <c r="G8" s="3">
-        <v>347400</v>
+        <v>296500</v>
       </c>
       <c r="H8" s="3">
-        <v>516000</v>
+        <v>440400</v>
       </c>
       <c r="I8" s="3">
-        <v>339600</v>
+        <v>289900</v>
       </c>
       <c r="J8" s="3">
-        <v>675900</v>
+        <v>576900</v>
       </c>
       <c r="K8" s="3">
         <v>386400</v>
@@ -1110,25 +1110,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="H15" s="3">
         <v>-15000</v>
       </c>
-      <c r="E15" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-17500</v>
-      </c>
       <c r="I15" s="3">
-        <v>-10900</v>
+        <v>-9300</v>
       </c>
       <c r="J15" s="3">
-        <v>-23900</v>
+        <v>-20400</v>
       </c>
       <c r="K15" s="3">
         <v>-24600</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>254700</v>
+        <v>217400</v>
       </c>
       <c r="E17" s="3">
-        <v>215700</v>
+        <v>184100</v>
       </c>
       <c r="F17" s="3">
-        <v>376900</v>
+        <v>321700</v>
       </c>
       <c r="G17" s="3">
-        <v>161600</v>
+        <v>137900</v>
       </c>
       <c r="H17" s="3">
-        <v>249800</v>
+        <v>213200</v>
       </c>
       <c r="I17" s="3">
-        <v>135100</v>
+        <v>115300</v>
       </c>
       <c r="J17" s="3">
-        <v>272100</v>
+        <v>232200</v>
       </c>
       <c r="K17" s="3">
         <v>153800</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>347800</v>
+        <v>296800</v>
       </c>
       <c r="E18" s="3">
-        <v>228200</v>
+        <v>194800</v>
       </c>
       <c r="F18" s="3">
-        <v>409800</v>
+        <v>349800</v>
       </c>
       <c r="G18" s="3">
-        <v>185800</v>
+        <v>158600</v>
       </c>
       <c r="H18" s="3">
-        <v>266200</v>
+        <v>227200</v>
       </c>
       <c r="I18" s="3">
-        <v>204500</v>
+        <v>174500</v>
       </c>
       <c r="J18" s="3">
-        <v>403900</v>
+        <v>344700</v>
       </c>
       <c r="K18" s="3">
         <v>232700</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-275900</v>
+        <v>-235500</v>
       </c>
       <c r="E20" s="3">
-        <v>-186400</v>
+        <v>-159100</v>
       </c>
       <c r="F20" s="3">
-        <v>-343700</v>
+        <v>-293300</v>
       </c>
       <c r="G20" s="3">
-        <v>-161900</v>
+        <v>-138200</v>
       </c>
       <c r="H20" s="3">
-        <v>-220100</v>
+        <v>-187800</v>
       </c>
       <c r="I20" s="3">
-        <v>-143000</v>
+        <v>-122100</v>
       </c>
       <c r="J20" s="3">
-        <v>-263900</v>
+        <v>-225200</v>
       </c>
       <c r="K20" s="3">
         <v>-177000</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>87200</v>
+        <v>74400</v>
       </c>
       <c r="E21" s="3">
-        <v>53900</v>
+        <v>46000</v>
       </c>
       <c r="F21" s="3">
-        <v>86400</v>
+        <v>73800</v>
       </c>
       <c r="G21" s="3">
-        <v>33100</v>
+        <v>28200</v>
       </c>
       <c r="H21" s="3">
-        <v>63600</v>
+        <v>54300</v>
       </c>
       <c r="I21" s="3">
-        <v>74400</v>
+        <v>63500</v>
       </c>
       <c r="J21" s="3">
-        <v>161900</v>
+        <v>138200</v>
       </c>
       <c r="K21" s="3">
         <v>67300</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>71900</v>
+        <v>61400</v>
       </c>
       <c r="E23" s="3">
-        <v>41800</v>
+        <v>35700</v>
       </c>
       <c r="F23" s="3">
-        <v>66200</v>
+        <v>56500</v>
       </c>
       <c r="G23" s="3">
-        <v>24000</v>
+        <v>20400</v>
       </c>
       <c r="H23" s="3">
-        <v>46100</v>
+        <v>39400</v>
       </c>
       <c r="I23" s="3">
-        <v>61500</v>
+        <v>52500</v>
       </c>
       <c r="J23" s="3">
-        <v>140000</v>
+        <v>119500</v>
       </c>
       <c r="K23" s="3">
         <v>55600</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18300</v>
+        <v>15600</v>
       </c>
       <c r="E24" s="3">
-        <v>12900</v>
+        <v>11000</v>
       </c>
       <c r="F24" s="3">
-        <v>-31800</v>
+        <v>-27200</v>
       </c>
       <c r="G24" s="3">
-        <v>-4100</v>
+        <v>-3500</v>
       </c>
       <c r="H24" s="3">
-        <v>29600</v>
+        <v>25300</v>
       </c>
       <c r="I24" s="3">
-        <v>15200</v>
+        <v>13000</v>
       </c>
       <c r="J24" s="3">
-        <v>60700</v>
+        <v>51800</v>
       </c>
       <c r="K24" s="3">
         <v>34000</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>53600</v>
+        <v>45800</v>
       </c>
       <c r="E26" s="3">
-        <v>28900</v>
+        <v>24700</v>
       </c>
       <c r="F26" s="3">
-        <v>98000</v>
+        <v>83600</v>
       </c>
       <c r="G26" s="3">
-        <v>28100</v>
+        <v>24000</v>
       </c>
       <c r="H26" s="3">
-        <v>16500</v>
+        <v>14100</v>
       </c>
       <c r="I26" s="3">
-        <v>46300</v>
+        <v>39500</v>
       </c>
       <c r="J26" s="3">
-        <v>79200</v>
+        <v>67600</v>
       </c>
       <c r="K26" s="3">
         <v>21700</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>53500</v>
+        <v>45600</v>
       </c>
       <c r="E27" s="3">
-        <v>28800</v>
+        <v>24600</v>
       </c>
       <c r="F27" s="3">
-        <v>98400</v>
+        <v>84000</v>
       </c>
       <c r="G27" s="3">
-        <v>28500</v>
+        <v>24300</v>
       </c>
       <c r="H27" s="3">
-        <v>17700</v>
+        <v>15100</v>
       </c>
       <c r="I27" s="3">
-        <v>46300</v>
+        <v>39500</v>
       </c>
       <c r="J27" s="3">
-        <v>78200</v>
+        <v>66700</v>
       </c>
       <c r="K27" s="3">
         <v>21200</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>275900</v>
+        <v>235500</v>
       </c>
       <c r="E32" s="3">
-        <v>186400</v>
+        <v>159100</v>
       </c>
       <c r="F32" s="3">
-        <v>343700</v>
+        <v>293300</v>
       </c>
       <c r="G32" s="3">
-        <v>161900</v>
+        <v>138200</v>
       </c>
       <c r="H32" s="3">
-        <v>220100</v>
+        <v>187800</v>
       </c>
       <c r="I32" s="3">
-        <v>143000</v>
+        <v>122100</v>
       </c>
       <c r="J32" s="3">
-        <v>263900</v>
+        <v>225200</v>
       </c>
       <c r="K32" s="3">
         <v>177000</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>53500</v>
+        <v>45600</v>
       </c>
       <c r="E33" s="3">
-        <v>28800</v>
+        <v>24600</v>
       </c>
       <c r="F33" s="3">
-        <v>98400</v>
+        <v>84000</v>
       </c>
       <c r="G33" s="3">
-        <v>28500</v>
+        <v>24300</v>
       </c>
       <c r="H33" s="3">
-        <v>17700</v>
+        <v>15100</v>
       </c>
       <c r="I33" s="3">
-        <v>46300</v>
+        <v>39500</v>
       </c>
       <c r="J33" s="3">
-        <v>78200</v>
+        <v>66700</v>
       </c>
       <c r="K33" s="3">
         <v>21200</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>53500</v>
+        <v>45600</v>
       </c>
       <c r="E35" s="3">
-        <v>28800</v>
+        <v>24600</v>
       </c>
       <c r="F35" s="3">
-        <v>98400</v>
+        <v>84000</v>
       </c>
       <c r="G35" s="3">
-        <v>28500</v>
+        <v>24300</v>
       </c>
       <c r="H35" s="3">
-        <v>17700</v>
+        <v>15100</v>
       </c>
       <c r="I35" s="3">
-        <v>46300</v>
+        <v>39500</v>
       </c>
       <c r="J35" s="3">
-        <v>78200</v>
+        <v>66700</v>
       </c>
       <c r="K35" s="3">
         <v>21200</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1844500</v>
+        <v>1574200</v>
       </c>
       <c r="E41" s="3">
-        <v>1655900</v>
+        <v>1413200</v>
       </c>
       <c r="F41" s="3">
-        <v>1658400</v>
+        <v>1415400</v>
       </c>
       <c r="G41" s="3">
-        <v>1634600</v>
+        <v>1395100</v>
       </c>
       <c r="H41" s="3">
-        <v>1911000</v>
+        <v>1631000</v>
       </c>
       <c r="I41" s="3">
-        <v>1100200</v>
+        <v>938900</v>
       </c>
       <c r="J41" s="3">
-        <v>924500</v>
+        <v>789000</v>
       </c>
       <c r="K41" s="3">
         <v>1410000</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>48800</v>
+        <v>41700</v>
       </c>
       <c r="E42" s="3">
-        <v>100900</v>
+        <v>86100</v>
       </c>
       <c r="F42" s="3">
-        <v>90100</v>
+        <v>76900</v>
       </c>
       <c r="G42" s="3">
-        <v>96000</v>
+        <v>81900</v>
       </c>
       <c r="H42" s="3">
-        <v>92500</v>
+        <v>79000</v>
       </c>
       <c r="I42" s="3">
-        <v>102400</v>
+        <v>87400</v>
       </c>
       <c r="J42" s="3">
-        <v>133900</v>
+        <v>114300</v>
       </c>
       <c r="K42" s="3">
         <v>151400</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17500</v>
+        <v>14900</v>
       </c>
       <c r="E47" s="3">
-        <v>16700</v>
+        <v>14200</v>
       </c>
       <c r="F47" s="3">
-        <v>17500</v>
+        <v>14900</v>
       </c>
       <c r="G47" s="3">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="H47" s="3">
-        <v>18600</v>
+        <v>15800</v>
       </c>
       <c r="I47" s="3">
-        <v>11300</v>
+        <v>9600</v>
       </c>
       <c r="J47" s="3">
-        <v>10500</v>
+        <v>8900</v>
       </c>
       <c r="K47" s="3">
         <v>11200</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>434400</v>
+        <v>370700</v>
       </c>
       <c r="E48" s="3">
-        <v>380200</v>
+        <v>324400</v>
       </c>
       <c r="F48" s="3">
-        <v>351700</v>
+        <v>300100</v>
       </c>
       <c r="G48" s="3">
-        <v>321100</v>
+        <v>274000</v>
       </c>
       <c r="H48" s="3">
-        <v>434800</v>
+        <v>371100</v>
       </c>
       <c r="I48" s="3">
-        <v>257100</v>
+        <v>219400</v>
       </c>
       <c r="J48" s="3">
-        <v>241100</v>
+        <v>205800</v>
       </c>
       <c r="K48" s="3">
         <v>271100</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31400</v>
+        <v>26800</v>
       </c>
       <c r="E49" s="3">
-        <v>24400</v>
+        <v>20800</v>
       </c>
       <c r="F49" s="3">
-        <v>20200</v>
+        <v>17300</v>
       </c>
       <c r="G49" s="3">
-        <v>16300</v>
+        <v>13900</v>
       </c>
       <c r="H49" s="3">
-        <v>20000</v>
+        <v>17100</v>
       </c>
       <c r="I49" s="3">
-        <v>11000</v>
+        <v>9400</v>
       </c>
       <c r="J49" s="3">
-        <v>9100</v>
+        <v>7800</v>
       </c>
       <c r="K49" s="3">
         <v>9100</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10100</v>
+        <v>8600</v>
       </c>
       <c r="E52" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="F52" s="3">
-        <v>8000</v>
+        <v>6800</v>
       </c>
       <c r="G52" s="3">
-        <v>37900</v>
+        <v>32300</v>
       </c>
       <c r="H52" s="3">
-        <v>71200</v>
+        <v>60800</v>
       </c>
       <c r="I52" s="3">
-        <v>50600</v>
+        <v>43200</v>
       </c>
       <c r="J52" s="3">
-        <v>46700</v>
+        <v>39800</v>
       </c>
       <c r="K52" s="3">
         <v>75300</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8787600</v>
+        <v>7499800</v>
       </c>
       <c r="E54" s="3">
-        <v>7798200</v>
+        <v>6655400</v>
       </c>
       <c r="F54" s="3">
-        <v>7373300</v>
+        <v>6292800</v>
       </c>
       <c r="G54" s="3">
-        <v>6328800</v>
+        <v>5401400</v>
       </c>
       <c r="H54" s="3">
-        <v>8857800</v>
+        <v>7559800</v>
       </c>
       <c r="I54" s="3">
-        <v>5031300</v>
+        <v>4294000</v>
       </c>
       <c r="J54" s="3">
-        <v>4623900</v>
+        <v>3946300</v>
       </c>
       <c r="K54" s="3">
         <v>5085500</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>660300</v>
+        <v>563500</v>
       </c>
       <c r="E57" s="3">
-        <v>567900</v>
+        <v>484600</v>
       </c>
       <c r="F57" s="3">
-        <v>493100</v>
+        <v>420900</v>
       </c>
       <c r="G57" s="3">
-        <v>484900</v>
+        <v>413800</v>
       </c>
       <c r="H57" s="3">
-        <v>606600</v>
+        <v>517700</v>
       </c>
       <c r="I57" s="3">
-        <v>374600</v>
+        <v>319700</v>
       </c>
       <c r="J57" s="3">
-        <v>273900</v>
+        <v>233800</v>
       </c>
       <c r="K57" s="3">
         <v>455500</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>344200</v>
+        <v>293700</v>
       </c>
       <c r="E59" s="3">
-        <v>278800</v>
+        <v>237900</v>
       </c>
       <c r="F59" s="3">
-        <v>259200</v>
+        <v>221200</v>
       </c>
       <c r="G59" s="3">
-        <v>200100</v>
+        <v>170700</v>
       </c>
       <c r="H59" s="3">
-        <v>317500</v>
+        <v>271000</v>
       </c>
       <c r="I59" s="3">
-        <v>101400</v>
+        <v>86500</v>
       </c>
       <c r="J59" s="3">
-        <v>95600</v>
+        <v>81500</v>
       </c>
       <c r="K59" s="3">
         <v>165500</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24900</v>
+        <v>21300</v>
       </c>
       <c r="E61" s="3">
-        <v>25000</v>
+        <v>21300</v>
       </c>
       <c r="F61" s="3">
-        <v>24200</v>
+        <v>20700</v>
       </c>
       <c r="G61" s="3">
-        <v>25400</v>
+        <v>21700</v>
       </c>
       <c r="H61" s="3">
-        <v>38000</v>
+        <v>32400</v>
       </c>
       <c r="I61" s="3">
-        <v>23800</v>
+        <v>20300</v>
       </c>
       <c r="J61" s="3">
-        <v>22700</v>
+        <v>19400</v>
       </c>
       <c r="K61" s="3">
         <v>25300</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>117900</v>
+        <v>100600</v>
       </c>
       <c r="E62" s="3">
-        <v>87000</v>
+        <v>74300</v>
       </c>
       <c r="F62" s="3">
-        <v>83300</v>
+        <v>71100</v>
       </c>
       <c r="G62" s="3">
-        <v>89900</v>
+        <v>76700</v>
       </c>
       <c r="H62" s="3">
-        <v>148200</v>
+        <v>126500</v>
       </c>
       <c r="I62" s="3">
-        <v>89600</v>
+        <v>76400</v>
       </c>
       <c r="J62" s="3">
-        <v>93900</v>
+        <v>80100</v>
       </c>
       <c r="K62" s="3">
         <v>111800</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7427800</v>
+        <v>6339300</v>
       </c>
       <c r="E66" s="3">
-        <v>6556900</v>
+        <v>5596100</v>
       </c>
       <c r="F66" s="3">
-        <v>6262100</v>
+        <v>5344400</v>
       </c>
       <c r="G66" s="3">
-        <v>5326300</v>
+        <v>4545800</v>
       </c>
       <c r="H66" s="3">
-        <v>7549500</v>
+        <v>6443200</v>
       </c>
       <c r="I66" s="3">
-        <v>4138400</v>
+        <v>3532000</v>
       </c>
       <c r="J66" s="3">
-        <v>3830000</v>
+        <v>3268700</v>
       </c>
       <c r="K66" s="3">
         <v>4222000</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>772100</v>
+        <v>659000</v>
       </c>
       <c r="E72" s="3">
-        <v>708100</v>
+        <v>604300</v>
       </c>
       <c r="F72" s="3">
-        <v>623300</v>
+        <v>531900</v>
       </c>
       <c r="G72" s="3">
-        <v>562800</v>
+        <v>480300</v>
       </c>
       <c r="H72" s="3">
-        <v>720700</v>
+        <v>615100</v>
       </c>
       <c r="I72" s="3">
-        <v>543200</v>
+        <v>463600</v>
       </c>
       <c r="J72" s="3">
-        <v>469100</v>
+        <v>400400</v>
       </c>
       <c r="K72" s="3">
         <v>505000</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1359700</v>
+        <v>1160500</v>
       </c>
       <c r="E76" s="3">
-        <v>1241300</v>
+        <v>1059400</v>
       </c>
       <c r="F76" s="3">
-        <v>1111200</v>
+        <v>948300</v>
       </c>
       <c r="G76" s="3">
-        <v>1002600</v>
+        <v>855600</v>
       </c>
       <c r="H76" s="3">
-        <v>1308300</v>
+        <v>1116600</v>
       </c>
       <c r="I76" s="3">
-        <v>892900</v>
+        <v>762000</v>
       </c>
       <c r="J76" s="3">
-        <v>793900</v>
+        <v>677600</v>
       </c>
       <c r="K76" s="3">
         <v>863500</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>53500</v>
+        <v>45600</v>
       </c>
       <c r="E81" s="3">
-        <v>28800</v>
+        <v>24600</v>
       </c>
       <c r="F81" s="3">
-        <v>98400</v>
+        <v>84000</v>
       </c>
       <c r="G81" s="3">
-        <v>28500</v>
+        <v>24300</v>
       </c>
       <c r="H81" s="3">
-        <v>17700</v>
+        <v>15100</v>
       </c>
       <c r="I81" s="3">
-        <v>46300</v>
+        <v>39500</v>
       </c>
       <c r="J81" s="3">
-        <v>78200</v>
+        <v>66700</v>
       </c>
       <c r="K81" s="3">
         <v>21200</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15300</v>
+        <v>13000</v>
       </c>
       <c r="E83" s="3">
-        <v>12100</v>
+        <v>10300</v>
       </c>
       <c r="F83" s="3">
-        <v>20300</v>
+        <v>17300</v>
       </c>
       <c r="G83" s="3">
-        <v>9100</v>
+        <v>7800</v>
       </c>
       <c r="H83" s="3">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="I83" s="3">
-        <v>12900</v>
+        <v>11000</v>
       </c>
       <c r="J83" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="K83" s="3">
         <v>11600</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>122400</v>
+        <v>104500</v>
       </c>
       <c r="E89" s="3">
-        <v>-19400</v>
+        <v>-16500</v>
       </c>
       <c r="F89" s="3">
-        <v>107200</v>
+        <v>91500</v>
       </c>
       <c r="G89" s="3">
-        <v>214600</v>
+        <v>183100</v>
       </c>
       <c r="H89" s="3">
-        <v>-26400</v>
+        <v>-22500</v>
       </c>
       <c r="I89" s="3">
-        <v>68400</v>
+        <v>58400</v>
       </c>
       <c r="J89" s="3">
-        <v>-567500</v>
+        <v>-484400</v>
       </c>
       <c r="K89" s="3">
         <v>-247300</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43100</v>
+        <v>-36800</v>
       </c>
       <c r="E91" s="3">
-        <v>-10400</v>
+        <v>-8900</v>
       </c>
       <c r="F91" s="3">
-        <v>-15000</v>
+        <v>-12800</v>
       </c>
       <c r="G91" s="3">
-        <v>-6000</v>
+        <v>-5100</v>
       </c>
       <c r="H91" s="3">
-        <v>-10600</v>
+        <v>-9100</v>
       </c>
       <c r="I91" s="3">
-        <v>-6600</v>
+        <v>-5600</v>
       </c>
       <c r="J91" s="3">
-        <v>-6900</v>
+        <v>-5800</v>
       </c>
       <c r="K91" s="3">
         <v>-3700</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41000</v>
+        <v>-35000</v>
       </c>
       <c r="E94" s="3">
-        <v>-8400</v>
+        <v>-7100</v>
       </c>
       <c r="F94" s="3">
-        <v>-11800</v>
+        <v>-10100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3700</v>
+        <v>-3100</v>
       </c>
       <c r="H94" s="3">
-        <v>-11300</v>
+        <v>-9700</v>
       </c>
       <c r="I94" s="3">
-        <v>-6200</v>
+        <v>-5300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2800</v>
+        <v>-2400</v>
       </c>
       <c r="K94" s="3">
         <v>-1900</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2800</v>
+        <v>-2400</v>
       </c>
       <c r="E100" s="3">
-        <v>-6600</v>
+        <v>-5700</v>
       </c>
       <c r="F100" s="3">
-        <v>-36400</v>
+        <v>-31000</v>
       </c>
       <c r="G100" s="3">
-        <v>-13400</v>
+        <v>-11500</v>
       </c>
       <c r="H100" s="3">
-        <v>-7300</v>
+        <v>-6200</v>
       </c>
       <c r="I100" s="3">
-        <v>-22600</v>
+        <v>-19300</v>
       </c>
       <c r="J100" s="3">
-        <v>-30800</v>
+        <v>-26200</v>
       </c>
       <c r="K100" s="3">
         <v>-12900</v>
@@ -5369,25 +5369,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-77500</v>
+        <v>-66100</v>
       </c>
       <c r="E101" s="3">
-        <v>-125700</v>
+        <v>-107300</v>
       </c>
       <c r="F101" s="3">
-        <v>6700</v>
+        <v>5700</v>
       </c>
       <c r="G101" s="3">
-        <v>6600</v>
+        <v>5600</v>
       </c>
       <c r="H101" s="3">
-        <v>32000</v>
+        <v>27300</v>
       </c>
       <c r="I101" s="3">
-        <v>32400</v>
+        <v>27700</v>
       </c>
       <c r="J101" s="3">
-        <v>70400</v>
+        <v>60100</v>
       </c>
       <c r="K101" s="3">
         <v>63500</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="E102" s="3">
-        <v>-160000</v>
+        <v>-136600</v>
       </c>
       <c r="F102" s="3">
-        <v>65700</v>
+        <v>56100</v>
       </c>
       <c r="G102" s="3">
-        <v>204100</v>
+        <v>174200</v>
       </c>
       <c r="H102" s="3">
-        <v>-23200</v>
+        <v>-19800</v>
       </c>
       <c r="I102" s="3">
-        <v>60300</v>
+        <v>51400</v>
       </c>
       <c r="J102" s="3">
-        <v>-554200</v>
+        <v>-473000</v>
       </c>
       <c r="K102" s="3">
         <v>-217500</v>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>514200</v>
+        <v>440800</v>
       </c>
       <c r="E8" s="3">
-        <v>378900</v>
+        <v>324700</v>
       </c>
       <c r="F8" s="3">
-        <v>671400</v>
+        <v>575500</v>
       </c>
       <c r="G8" s="3">
-        <v>296500</v>
+        <v>254100</v>
       </c>
       <c r="H8" s="3">
-        <v>440400</v>
+        <v>377500</v>
       </c>
       <c r="I8" s="3">
-        <v>289900</v>
+        <v>248500</v>
       </c>
       <c r="J8" s="3">
-        <v>576900</v>
+        <v>494500</v>
       </c>
       <c r="K8" s="3">
         <v>386400</v>
@@ -1110,25 +1110,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="H15" s="3">
         <v>-12800</v>
       </c>
-      <c r="E15" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-15000</v>
-      </c>
       <c r="I15" s="3">
-        <v>-9300</v>
+        <v>-8000</v>
       </c>
       <c r="J15" s="3">
-        <v>-20400</v>
+        <v>-17500</v>
       </c>
       <c r="K15" s="3">
         <v>-24600</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>217400</v>
+        <v>186300</v>
       </c>
       <c r="E17" s="3">
-        <v>184100</v>
+        <v>157800</v>
       </c>
       <c r="F17" s="3">
-        <v>321700</v>
+        <v>275700</v>
       </c>
       <c r="G17" s="3">
-        <v>137900</v>
+        <v>118200</v>
       </c>
       <c r="H17" s="3">
-        <v>213200</v>
+        <v>182700</v>
       </c>
       <c r="I17" s="3">
-        <v>115300</v>
+        <v>98900</v>
       </c>
       <c r="J17" s="3">
-        <v>232200</v>
+        <v>199000</v>
       </c>
       <c r="K17" s="3">
         <v>153800</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>296800</v>
+        <v>254400</v>
       </c>
       <c r="E18" s="3">
-        <v>194800</v>
+        <v>166900</v>
       </c>
       <c r="F18" s="3">
-        <v>349800</v>
+        <v>299800</v>
       </c>
       <c r="G18" s="3">
-        <v>158600</v>
+        <v>135900</v>
       </c>
       <c r="H18" s="3">
-        <v>227200</v>
+        <v>194700</v>
       </c>
       <c r="I18" s="3">
-        <v>174500</v>
+        <v>149600</v>
       </c>
       <c r="J18" s="3">
-        <v>344700</v>
+        <v>295400</v>
       </c>
       <c r="K18" s="3">
         <v>232700</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-235500</v>
+        <v>-201900</v>
       </c>
       <c r="E20" s="3">
-        <v>-159100</v>
+        <v>-136400</v>
       </c>
       <c r="F20" s="3">
-        <v>-293300</v>
+        <v>-251400</v>
       </c>
       <c r="G20" s="3">
-        <v>-138200</v>
+        <v>-118400</v>
       </c>
       <c r="H20" s="3">
-        <v>-187800</v>
+        <v>-161000</v>
       </c>
       <c r="I20" s="3">
-        <v>-122100</v>
+        <v>-104600</v>
       </c>
       <c r="J20" s="3">
-        <v>-225200</v>
+        <v>-193000</v>
       </c>
       <c r="K20" s="3">
         <v>-177000</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74400</v>
+        <v>63800</v>
       </c>
       <c r="E21" s="3">
-        <v>46000</v>
+        <v>39400</v>
       </c>
       <c r="F21" s="3">
-        <v>73800</v>
+        <v>63200</v>
       </c>
       <c r="G21" s="3">
-        <v>28200</v>
+        <v>24200</v>
       </c>
       <c r="H21" s="3">
-        <v>54300</v>
+        <v>46500</v>
       </c>
       <c r="I21" s="3">
-        <v>63500</v>
+        <v>54400</v>
       </c>
       <c r="J21" s="3">
-        <v>138200</v>
+        <v>118400</v>
       </c>
       <c r="K21" s="3">
         <v>67300</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>61400</v>
+        <v>52600</v>
       </c>
       <c r="E23" s="3">
-        <v>35700</v>
+        <v>30600</v>
       </c>
       <c r="F23" s="3">
-        <v>56500</v>
+        <v>48400</v>
       </c>
       <c r="G23" s="3">
-        <v>20400</v>
+        <v>17500</v>
       </c>
       <c r="H23" s="3">
-        <v>39400</v>
+        <v>33700</v>
       </c>
       <c r="I23" s="3">
-        <v>52500</v>
+        <v>45000</v>
       </c>
       <c r="J23" s="3">
-        <v>119500</v>
+        <v>102400</v>
       </c>
       <c r="K23" s="3">
         <v>55600</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15600</v>
+        <v>13400</v>
       </c>
       <c r="E24" s="3">
-        <v>11000</v>
+        <v>9400</v>
       </c>
       <c r="F24" s="3">
-        <v>-27200</v>
+        <v>-23300</v>
       </c>
       <c r="G24" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="H24" s="3">
-        <v>25300</v>
+        <v>21700</v>
       </c>
       <c r="I24" s="3">
-        <v>13000</v>
+        <v>11100</v>
       </c>
       <c r="J24" s="3">
-        <v>51800</v>
+        <v>44400</v>
       </c>
       <c r="K24" s="3">
         <v>34000</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45800</v>
+        <v>39200</v>
       </c>
       <c r="E26" s="3">
-        <v>24700</v>
+        <v>21100</v>
       </c>
       <c r="F26" s="3">
-        <v>83600</v>
+        <v>71700</v>
       </c>
       <c r="G26" s="3">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="H26" s="3">
-        <v>14100</v>
+        <v>12100</v>
       </c>
       <c r="I26" s="3">
-        <v>39500</v>
+        <v>33900</v>
       </c>
       <c r="J26" s="3">
-        <v>67600</v>
+        <v>58000</v>
       </c>
       <c r="K26" s="3">
         <v>21700</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>45600</v>
+        <v>39100</v>
       </c>
       <c r="E27" s="3">
-        <v>24600</v>
+        <v>21100</v>
       </c>
       <c r="F27" s="3">
-        <v>84000</v>
+        <v>72000</v>
       </c>
       <c r="G27" s="3">
-        <v>24300</v>
+        <v>20800</v>
       </c>
       <c r="H27" s="3">
-        <v>15100</v>
+        <v>13000</v>
       </c>
       <c r="I27" s="3">
-        <v>39500</v>
+        <v>33900</v>
       </c>
       <c r="J27" s="3">
-        <v>66700</v>
+        <v>57200</v>
       </c>
       <c r="K27" s="3">
         <v>21200</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>235500</v>
+        <v>201900</v>
       </c>
       <c r="E32" s="3">
-        <v>159100</v>
+        <v>136400</v>
       </c>
       <c r="F32" s="3">
-        <v>293300</v>
+        <v>251400</v>
       </c>
       <c r="G32" s="3">
-        <v>138200</v>
+        <v>118400</v>
       </c>
       <c r="H32" s="3">
-        <v>187800</v>
+        <v>161000</v>
       </c>
       <c r="I32" s="3">
-        <v>122100</v>
+        <v>104600</v>
       </c>
       <c r="J32" s="3">
-        <v>225200</v>
+        <v>193000</v>
       </c>
       <c r="K32" s="3">
         <v>177000</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45600</v>
+        <v>39100</v>
       </c>
       <c r="E33" s="3">
-        <v>24600</v>
+        <v>21100</v>
       </c>
       <c r="F33" s="3">
-        <v>84000</v>
+        <v>72000</v>
       </c>
       <c r="G33" s="3">
-        <v>24300</v>
+        <v>20800</v>
       </c>
       <c r="H33" s="3">
-        <v>15100</v>
+        <v>13000</v>
       </c>
       <c r="I33" s="3">
-        <v>39500</v>
+        <v>33900</v>
       </c>
       <c r="J33" s="3">
-        <v>66700</v>
+        <v>57200</v>
       </c>
       <c r="K33" s="3">
         <v>21200</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45600</v>
+        <v>39100</v>
       </c>
       <c r="E35" s="3">
-        <v>24600</v>
+        <v>21100</v>
       </c>
       <c r="F35" s="3">
-        <v>84000</v>
+        <v>72000</v>
       </c>
       <c r="G35" s="3">
-        <v>24300</v>
+        <v>20800</v>
       </c>
       <c r="H35" s="3">
-        <v>15100</v>
+        <v>13000</v>
       </c>
       <c r="I35" s="3">
-        <v>39500</v>
+        <v>33900</v>
       </c>
       <c r="J35" s="3">
-        <v>66700</v>
+        <v>57200</v>
       </c>
       <c r="K35" s="3">
         <v>21200</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1574200</v>
+        <v>1349300</v>
       </c>
       <c r="E41" s="3">
-        <v>1413200</v>
+        <v>1211400</v>
       </c>
       <c r="F41" s="3">
-        <v>1415400</v>
+        <v>1213200</v>
       </c>
       <c r="G41" s="3">
-        <v>1395100</v>
+        <v>1195800</v>
       </c>
       <c r="H41" s="3">
-        <v>1631000</v>
+        <v>1398000</v>
       </c>
       <c r="I41" s="3">
-        <v>938900</v>
+        <v>804800</v>
       </c>
       <c r="J41" s="3">
-        <v>789000</v>
+        <v>676300</v>
       </c>
       <c r="K41" s="3">
         <v>1410000</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41700</v>
+        <v>35700</v>
       </c>
       <c r="E42" s="3">
-        <v>86100</v>
+        <v>73800</v>
       </c>
       <c r="F42" s="3">
-        <v>76900</v>
+        <v>65900</v>
       </c>
       <c r="G42" s="3">
-        <v>81900</v>
+        <v>70200</v>
       </c>
       <c r="H42" s="3">
-        <v>79000</v>
+        <v>67700</v>
       </c>
       <c r="I42" s="3">
-        <v>87400</v>
+        <v>74900</v>
       </c>
       <c r="J42" s="3">
-        <v>114300</v>
+        <v>98000</v>
       </c>
       <c r="K42" s="3">
         <v>151400</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14900</v>
+        <v>12800</v>
       </c>
       <c r="E47" s="3">
-        <v>14200</v>
+        <v>12200</v>
       </c>
       <c r="F47" s="3">
-        <v>14900</v>
+        <v>12800</v>
       </c>
       <c r="G47" s="3">
-        <v>11500</v>
+        <v>9900</v>
       </c>
       <c r="H47" s="3">
-        <v>15800</v>
+        <v>13600</v>
       </c>
       <c r="I47" s="3">
-        <v>9600</v>
+        <v>8300</v>
       </c>
       <c r="J47" s="3">
-        <v>8900</v>
+        <v>7700</v>
       </c>
       <c r="K47" s="3">
         <v>11200</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>370700</v>
+        <v>317700</v>
       </c>
       <c r="E48" s="3">
-        <v>324400</v>
+        <v>278100</v>
       </c>
       <c r="F48" s="3">
-        <v>300100</v>
+        <v>257200</v>
       </c>
       <c r="G48" s="3">
-        <v>274000</v>
+        <v>234900</v>
       </c>
       <c r="H48" s="3">
-        <v>371100</v>
+        <v>318100</v>
       </c>
       <c r="I48" s="3">
-        <v>219400</v>
+        <v>188100</v>
       </c>
       <c r="J48" s="3">
-        <v>205800</v>
+        <v>176400</v>
       </c>
       <c r="K48" s="3">
         <v>271100</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26800</v>
+        <v>22900</v>
       </c>
       <c r="E49" s="3">
-        <v>20800</v>
+        <v>17800</v>
       </c>
       <c r="F49" s="3">
-        <v>17300</v>
+        <v>14800</v>
       </c>
       <c r="G49" s="3">
-        <v>13900</v>
+        <v>11900</v>
       </c>
       <c r="H49" s="3">
-        <v>17100</v>
+        <v>14600</v>
       </c>
       <c r="I49" s="3">
-        <v>9400</v>
+        <v>8100</v>
       </c>
       <c r="J49" s="3">
-        <v>7800</v>
+        <v>6700</v>
       </c>
       <c r="K49" s="3">
         <v>9100</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8600</v>
+        <v>7400</v>
       </c>
       <c r="E52" s="3">
-        <v>7100</v>
+        <v>6100</v>
       </c>
       <c r="F52" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="G52" s="3">
-        <v>32300</v>
+        <v>27700</v>
       </c>
       <c r="H52" s="3">
-        <v>60800</v>
+        <v>52100</v>
       </c>
       <c r="I52" s="3">
-        <v>43200</v>
+        <v>37000</v>
       </c>
       <c r="J52" s="3">
-        <v>39800</v>
+        <v>34100</v>
       </c>
       <c r="K52" s="3">
         <v>75300</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7499800</v>
+        <v>6428400</v>
       </c>
       <c r="E54" s="3">
-        <v>6655400</v>
+        <v>5704600</v>
       </c>
       <c r="F54" s="3">
-        <v>6292800</v>
+        <v>5393800</v>
       </c>
       <c r="G54" s="3">
-        <v>5401400</v>
+        <v>4629800</v>
       </c>
       <c r="H54" s="3">
-        <v>7559800</v>
+        <v>6479800</v>
       </c>
       <c r="I54" s="3">
-        <v>4294000</v>
+        <v>3680600</v>
       </c>
       <c r="J54" s="3">
-        <v>3946300</v>
+        <v>3382600</v>
       </c>
       <c r="K54" s="3">
         <v>5085500</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>563500</v>
+        <v>483000</v>
       </c>
       <c r="E57" s="3">
-        <v>484600</v>
+        <v>415400</v>
       </c>
       <c r="F57" s="3">
-        <v>420900</v>
+        <v>360700</v>
       </c>
       <c r="G57" s="3">
-        <v>413800</v>
+        <v>354700</v>
       </c>
       <c r="H57" s="3">
-        <v>517700</v>
+        <v>443700</v>
       </c>
       <c r="I57" s="3">
-        <v>319700</v>
+        <v>274100</v>
       </c>
       <c r="J57" s="3">
-        <v>233800</v>
+        <v>200400</v>
       </c>
       <c r="K57" s="3">
         <v>455500</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>293700</v>
+        <v>251800</v>
       </c>
       <c r="E59" s="3">
-        <v>237900</v>
+        <v>203900</v>
       </c>
       <c r="F59" s="3">
-        <v>221200</v>
+        <v>189600</v>
       </c>
       <c r="G59" s="3">
-        <v>170700</v>
+        <v>146300</v>
       </c>
       <c r="H59" s="3">
-        <v>271000</v>
+        <v>232300</v>
       </c>
       <c r="I59" s="3">
-        <v>86500</v>
+        <v>74200</v>
       </c>
       <c r="J59" s="3">
-        <v>81500</v>
+        <v>69900</v>
       </c>
       <c r="K59" s="3">
         <v>165500</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21300</v>
+        <v>18200</v>
       </c>
       <c r="E61" s="3">
-        <v>21300</v>
+        <v>18300</v>
       </c>
       <c r="F61" s="3">
-        <v>20700</v>
+        <v>17700</v>
       </c>
       <c r="G61" s="3">
-        <v>21700</v>
+        <v>18600</v>
       </c>
       <c r="H61" s="3">
-        <v>32400</v>
+        <v>27800</v>
       </c>
       <c r="I61" s="3">
-        <v>20300</v>
+        <v>17400</v>
       </c>
       <c r="J61" s="3">
-        <v>19400</v>
+        <v>16600</v>
       </c>
       <c r="K61" s="3">
         <v>25300</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100600</v>
+        <v>86300</v>
       </c>
       <c r="E62" s="3">
-        <v>74300</v>
+        <v>63600</v>
       </c>
       <c r="F62" s="3">
-        <v>71100</v>
+        <v>60900</v>
       </c>
       <c r="G62" s="3">
-        <v>76700</v>
+        <v>65800</v>
       </c>
       <c r="H62" s="3">
-        <v>126500</v>
+        <v>108400</v>
       </c>
       <c r="I62" s="3">
-        <v>76400</v>
+        <v>65500</v>
       </c>
       <c r="J62" s="3">
-        <v>80100</v>
+        <v>68700</v>
       </c>
       <c r="K62" s="3">
         <v>111800</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6339300</v>
+        <v>5433700</v>
       </c>
       <c r="E66" s="3">
-        <v>5596100</v>
+        <v>4796600</v>
       </c>
       <c r="F66" s="3">
-        <v>5344400</v>
+        <v>4580900</v>
       </c>
       <c r="G66" s="3">
-        <v>4545800</v>
+        <v>3896400</v>
       </c>
       <c r="H66" s="3">
-        <v>6443200</v>
+        <v>5522700</v>
       </c>
       <c r="I66" s="3">
-        <v>3532000</v>
+        <v>3027400</v>
       </c>
       <c r="J66" s="3">
-        <v>3268700</v>
+        <v>2801800</v>
       </c>
       <c r="K66" s="3">
         <v>4222000</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>659000</v>
+        <v>564800</v>
       </c>
       <c r="E72" s="3">
-        <v>604300</v>
+        <v>518000</v>
       </c>
       <c r="F72" s="3">
-        <v>531900</v>
+        <v>455900</v>
       </c>
       <c r="G72" s="3">
-        <v>480300</v>
+        <v>411700</v>
       </c>
       <c r="H72" s="3">
-        <v>615100</v>
+        <v>527200</v>
       </c>
       <c r="I72" s="3">
-        <v>463600</v>
+        <v>397400</v>
       </c>
       <c r="J72" s="3">
-        <v>400400</v>
+        <v>343200</v>
       </c>
       <c r="K72" s="3">
         <v>505000</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1160500</v>
+        <v>994700</v>
       </c>
       <c r="E76" s="3">
-        <v>1059400</v>
+        <v>908000</v>
       </c>
       <c r="F76" s="3">
-        <v>948300</v>
+        <v>812900</v>
       </c>
       <c r="G76" s="3">
-        <v>855600</v>
+        <v>733400</v>
       </c>
       <c r="H76" s="3">
-        <v>1116600</v>
+        <v>957100</v>
       </c>
       <c r="I76" s="3">
-        <v>762000</v>
+        <v>653200</v>
       </c>
       <c r="J76" s="3">
-        <v>677600</v>
+        <v>580800</v>
       </c>
       <c r="K76" s="3">
         <v>863500</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45600</v>
+        <v>39100</v>
       </c>
       <c r="E81" s="3">
-        <v>24600</v>
+        <v>21100</v>
       </c>
       <c r="F81" s="3">
-        <v>84000</v>
+        <v>72000</v>
       </c>
       <c r="G81" s="3">
-        <v>24300</v>
+        <v>20800</v>
       </c>
       <c r="H81" s="3">
-        <v>15100</v>
+        <v>13000</v>
       </c>
       <c r="I81" s="3">
-        <v>39500</v>
+        <v>33900</v>
       </c>
       <c r="J81" s="3">
-        <v>66700</v>
+        <v>57200</v>
       </c>
       <c r="K81" s="3">
         <v>21200</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13000</v>
+        <v>11200</v>
       </c>
       <c r="E83" s="3">
-        <v>10300</v>
+        <v>8800</v>
       </c>
       <c r="F83" s="3">
-        <v>17300</v>
+        <v>14800</v>
       </c>
       <c r="G83" s="3">
-        <v>7800</v>
+        <v>6700</v>
       </c>
       <c r="H83" s="3">
-        <v>15000</v>
+        <v>12800</v>
       </c>
       <c r="I83" s="3">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="J83" s="3">
-        <v>18700</v>
+        <v>16000</v>
       </c>
       <c r="K83" s="3">
         <v>11600</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>104500</v>
+        <v>89600</v>
       </c>
       <c r="E89" s="3">
-        <v>-16500</v>
+        <v>-14200</v>
       </c>
       <c r="F89" s="3">
-        <v>91500</v>
+        <v>78400</v>
       </c>
       <c r="G89" s="3">
-        <v>183100</v>
+        <v>157000</v>
       </c>
       <c r="H89" s="3">
-        <v>-22500</v>
+        <v>-19300</v>
       </c>
       <c r="I89" s="3">
-        <v>58400</v>
+        <v>50100</v>
       </c>
       <c r="J89" s="3">
-        <v>-484400</v>
+        <v>-415200</v>
       </c>
       <c r="K89" s="3">
         <v>-247300</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36800</v>
+        <v>-31600</v>
       </c>
       <c r="E91" s="3">
-        <v>-8900</v>
+        <v>-7600</v>
       </c>
       <c r="F91" s="3">
-        <v>-12800</v>
+        <v>-11000</v>
       </c>
       <c r="G91" s="3">
-        <v>-5100</v>
+        <v>-4400</v>
       </c>
       <c r="H91" s="3">
-        <v>-9100</v>
+        <v>-7800</v>
       </c>
       <c r="I91" s="3">
-        <v>-5600</v>
+        <v>-4800</v>
       </c>
       <c r="J91" s="3">
-        <v>-5800</v>
+        <v>-5000</v>
       </c>
       <c r="K91" s="3">
         <v>-3700</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35000</v>
+        <v>-30000</v>
       </c>
       <c r="E94" s="3">
-        <v>-7100</v>
+        <v>-6100</v>
       </c>
       <c r="F94" s="3">
-        <v>-10100</v>
+        <v>-8700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3100</v>
+        <v>-2700</v>
       </c>
       <c r="H94" s="3">
-        <v>-9700</v>
+        <v>-8300</v>
       </c>
       <c r="I94" s="3">
-        <v>-5300</v>
+        <v>-4500</v>
       </c>
       <c r="J94" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="K94" s="3">
         <v>-1900</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5700</v>
+        <v>-4900</v>
       </c>
       <c r="F100" s="3">
-        <v>-31000</v>
+        <v>-26600</v>
       </c>
       <c r="G100" s="3">
-        <v>-11500</v>
+        <v>-9800</v>
       </c>
       <c r="H100" s="3">
-        <v>-6200</v>
+        <v>-5300</v>
       </c>
       <c r="I100" s="3">
-        <v>-19300</v>
+        <v>-16500</v>
       </c>
       <c r="J100" s="3">
-        <v>-26200</v>
+        <v>-22500</v>
       </c>
       <c r="K100" s="3">
         <v>-12900</v>
@@ -5369,25 +5369,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-66100</v>
+        <v>-56700</v>
       </c>
       <c r="E101" s="3">
-        <v>-107300</v>
+        <v>-91900</v>
       </c>
       <c r="F101" s="3">
-        <v>5700</v>
+        <v>4900</v>
       </c>
       <c r="G101" s="3">
-        <v>5600</v>
+        <v>4800</v>
       </c>
       <c r="H101" s="3">
-        <v>27300</v>
+        <v>23400</v>
       </c>
       <c r="I101" s="3">
-        <v>27700</v>
+        <v>23700</v>
       </c>
       <c r="J101" s="3">
-        <v>60100</v>
+        <v>51500</v>
       </c>
       <c r="K101" s="3">
         <v>63500</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1400</v>
+        <v>-1200</v>
       </c>
       <c r="E102" s="3">
-        <v>-136600</v>
+        <v>-117100</v>
       </c>
       <c r="F102" s="3">
-        <v>56100</v>
+        <v>48100</v>
       </c>
       <c r="G102" s="3">
-        <v>174200</v>
+        <v>149300</v>
       </c>
       <c r="H102" s="3">
-        <v>-19800</v>
+        <v>-16900</v>
       </c>
       <c r="I102" s="3">
-        <v>51400</v>
+        <v>44100</v>
       </c>
       <c r="J102" s="3">
-        <v>-473000</v>
+        <v>-405400</v>
       </c>
       <c r="K102" s="3">
         <v>-217500</v>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,133 +677,160 @@
     <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>440800</v>
+        <v>1321200</v>
       </c>
       <c r="E8" s="3">
-        <v>324700</v>
+        <v>720100</v>
       </c>
       <c r="F8" s="3">
-        <v>575500</v>
+        <v>1099100</v>
       </c>
       <c r="G8" s="3">
+        <v>404000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>771300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>475300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>842300</v>
+      </c>
+      <c r="K8" s="3">
         <v>254100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>377500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>248500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>494500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>386400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>501000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>401000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>728200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>327000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>240600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>166900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="V8" s="3">
         <v>139500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="W8" s="3">
         <v>130800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="X8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +885,20 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +953,20 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +987,12 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1047,20 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1115,20 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1183,88 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-10900</v>
+        <v>-18800</v>
       </c>
       <c r="E15" s="3">
-        <v>-7500</v>
+        <v>-10300</v>
       </c>
       <c r="F15" s="3">
-        <v>-16200</v>
+        <v>-22200</v>
       </c>
       <c r="G15" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-14100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>-12800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>-8000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>-17500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>-24600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3">
         <v>-25900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="Q15" s="3">
         <v>-15300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="R15" s="3">
         <v>-26900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="S15" s="3">
         <v>-27600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="T15" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="U15" s="3">
         <v>-3000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="V15" s="3">
         <v>-3000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="W15" s="3">
         <v>-3300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="X15" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1282,148 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>186300</v>
+        <v>665800</v>
       </c>
       <c r="E17" s="3">
-        <v>157800</v>
+        <v>358400</v>
       </c>
       <c r="F17" s="3">
-        <v>275700</v>
+        <v>519600</v>
       </c>
       <c r="G17" s="3">
+        <v>187700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>331000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>230900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>403500</v>
+      </c>
+      <c r="K17" s="3">
         <v>118200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>182700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>98900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>199000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>153800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>256700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>242200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>377400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>172500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>140700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="U17" s="3">
         <v>91800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="V17" s="3">
         <v>63100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="W17" s="3">
         <v>55100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="X17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>254400</v>
+        <v>655400</v>
       </c>
       <c r="E18" s="3">
-        <v>166900</v>
+        <v>361700</v>
       </c>
       <c r="F18" s="3">
-        <v>299800</v>
+        <v>579500</v>
       </c>
       <c r="G18" s="3">
+        <v>216300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>440300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>244300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>438800</v>
+      </c>
+      <c r="K18" s="3">
         <v>135900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>194700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>149600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>295400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>232700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>244300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>158800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>350800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>154500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>99900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>75100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="V18" s="3">
         <v>76300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="W18" s="3">
         <v>75700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="X18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1444,148 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-201900</v>
+        <v>-502400</v>
       </c>
       <c r="E20" s="3">
-        <v>-136400</v>
+        <v>-298500</v>
       </c>
       <c r="F20" s="3">
-        <v>-251400</v>
+        <v>-487000</v>
       </c>
       <c r="G20" s="3">
+        <v>-182600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-350900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-199600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-368000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-118400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-161000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>-104600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-193000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>-177000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-255800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>-63500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
         <v>-122200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>-56500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="U20" s="3">
         <v>-18300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="V20" s="3">
         <v>-32100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="W20" s="3">
         <v>-38800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="X20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63800</v>
+        <v>175300</v>
       </c>
       <c r="E21" s="3">
-        <v>39400</v>
+        <v>77400</v>
       </c>
       <c r="F21" s="3">
-        <v>63200</v>
+        <v>110700</v>
       </c>
       <c r="G21" s="3">
+        <v>41900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>109000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>59900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K21" s="3">
         <v>24200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>46500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>54400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>118400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>67300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>14400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>107800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>249700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>111500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>61800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="U21" s="3">
         <v>59700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="V21" s="3">
         <v>47300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="W21" s="3">
         <v>40100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="X21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1640,156 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>52600</v>
+        <v>153000</v>
       </c>
       <c r="E23" s="3">
-        <v>30600</v>
+        <v>63200</v>
       </c>
       <c r="F23" s="3">
-        <v>48400</v>
+        <v>92500</v>
       </c>
       <c r="G23" s="3">
+        <v>33800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>89300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>44700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K23" s="3">
         <v>17500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>33700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>45000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>102400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>55600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-11500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>95300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>228600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>98000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>58400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>56700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="V23" s="3">
         <v>44200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="W23" s="3">
         <v>36800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="X23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13400</v>
+        <v>37600</v>
       </c>
       <c r="E24" s="3">
-        <v>9400</v>
+        <v>14900</v>
       </c>
       <c r="F24" s="3">
-        <v>-23300</v>
+        <v>-33000</v>
       </c>
       <c r="G24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>21700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>11100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>44400</v>
-      </c>
-      <c r="K24" s="3">
-        <v>34000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>21500</v>
       </c>
       <c r="M24" s="3">
         <v>11100</v>
       </c>
       <c r="N24" s="3">
+        <v>44400</v>
+      </c>
+      <c r="O24" s="3">
+        <v>34000</v>
+      </c>
+      <c r="P24" s="3">
+        <v>21500</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="R24" s="3">
         <v>72200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="S24" s="3">
         <v>42000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>18500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="U24" s="3">
         <v>15400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="V24" s="3">
         <v>12700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="W24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="X24" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1844,156 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>39200</v>
+        <v>115400</v>
       </c>
       <c r="E26" s="3">
-        <v>21100</v>
+        <v>48200</v>
       </c>
       <c r="F26" s="3">
-        <v>71700</v>
+        <v>125500</v>
       </c>
       <c r="G26" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>69800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>104900</v>
+      </c>
+      <c r="K26" s="3">
         <v>20500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>12100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>33900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>58000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>21700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-33000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>84100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>156400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>56000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>39900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>41400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="V26" s="3">
         <v>31500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="W26" s="3">
         <v>25900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="X26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39100</v>
+        <v>117000</v>
       </c>
       <c r="E27" s="3">
-        <v>21100</v>
+        <v>49100</v>
       </c>
       <c r="F27" s="3">
-        <v>72000</v>
+        <v>127400</v>
       </c>
       <c r="G27" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>69700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K27" s="3">
         <v>20800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>13000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>33900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>57200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>21200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-28600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>79700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>156400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>56000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>39900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>40800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="V27" s="3">
         <v>31100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="W27" s="3">
         <v>25500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="X27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +2048,20 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2116,20 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2184,20 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2252,156 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>201900</v>
+        <v>502400</v>
       </c>
       <c r="E32" s="3">
-        <v>136400</v>
+        <v>298500</v>
       </c>
       <c r="F32" s="3">
-        <v>251400</v>
+        <v>487000</v>
       </c>
       <c r="G32" s="3">
+        <v>182600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>350900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>199600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>368000</v>
+      </c>
+      <c r="K32" s="3">
         <v>118400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>161000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>104600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>193000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>177000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>255800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>63500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="R32" s="3">
         <v>122200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
         <v>56500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="T32" s="3">
         <v>41500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="U32" s="3">
         <v>18300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="V32" s="3">
         <v>32100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="W32" s="3">
         <v>38800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="X32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39100</v>
+        <v>117000</v>
       </c>
       <c r="E33" s="3">
-        <v>21100</v>
+        <v>49100</v>
       </c>
       <c r="F33" s="3">
-        <v>72000</v>
+        <v>127400</v>
       </c>
       <c r="G33" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>69700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K33" s="3">
         <v>20800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>33900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>57200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>21200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-28600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>79700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>156400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>56000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>39900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>40800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="V33" s="3">
         <v>31100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="W33" s="3">
         <v>25500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="X33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2456,161 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39100</v>
+        <v>117000</v>
       </c>
       <c r="E35" s="3">
-        <v>21100</v>
+        <v>49100</v>
       </c>
       <c r="F35" s="3">
-        <v>72000</v>
+        <v>127400</v>
       </c>
       <c r="G35" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>69700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K35" s="3">
         <v>20800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>33900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>57200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>21200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-28600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>79700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>156400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>56000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>39900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>40800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="V35" s="3">
         <v>31100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="W35" s="3">
         <v>25500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="X35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2631,12 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2657,148 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1349300</v>
+        <v>1391600</v>
       </c>
       <c r="E41" s="3">
-        <v>1211400</v>
+        <v>955500</v>
       </c>
       <c r="F41" s="3">
-        <v>1213200</v>
+        <v>863800</v>
       </c>
       <c r="G41" s="3">
+        <v>950900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2101900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>968700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>970100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1195800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>1398000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>804800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>676300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>1410000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>2158700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>898700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
         <v>947900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="S41" s="3">
         <v>1060300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="T41" s="3">
         <v>1235900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="U41" s="3">
         <v>1103600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="V41" s="3">
         <v>735900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="W41" s="3">
         <v>535600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="X41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35700</v>
+        <v>219000</v>
       </c>
       <c r="E42" s="3">
-        <v>73800</v>
+        <v>165200</v>
       </c>
       <c r="F42" s="3">
-        <v>65900</v>
+        <v>164300</v>
       </c>
       <c r="G42" s="3">
+        <v>96300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>55600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>59000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K42" s="3">
         <v>70200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>67700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>74900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>98000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>151400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>115000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>141800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="R42" s="3">
         <v>107400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="S42" s="3">
         <v>118300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="T42" s="3">
         <v>212600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="U42" s="3">
         <v>96300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="V42" s="3">
         <v>104300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="W42" s="3">
         <v>96300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="X42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2853,20 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2921,20 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2989,20 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +3057,224 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12800</v>
+        <v>17300</v>
       </c>
       <c r="E47" s="3">
-        <v>12200</v>
+        <v>15400</v>
       </c>
       <c r="F47" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="G47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K47" s="3">
         <v>9900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>13600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>8300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>7700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>11200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>14500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="Q47" s="3">
         <v>2800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="R47" s="3">
         <v>22000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="S47" s="3">
         <v>20300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="T47" s="3">
         <v>23800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="U47" s="3">
         <v>24200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="V47" s="3">
         <v>15900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="W47" s="3">
         <v>15200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="X47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>317700</v>
+        <v>479600</v>
       </c>
       <c r="E48" s="3">
-        <v>278100</v>
+        <v>404200</v>
       </c>
       <c r="F48" s="3">
-        <v>257200</v>
+        <v>342900</v>
       </c>
       <c r="G48" s="3">
+        <v>290900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>495000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>222400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>205700</v>
+      </c>
+      <c r="K48" s="3">
         <v>234900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>318100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>188100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>176400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>271100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>364900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>121500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>125900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>126800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="T48" s="3">
         <v>133200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="U48" s="3">
         <v>124500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="V48" s="3">
         <v>133800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="W48" s="3">
         <v>149200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="X48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>29300</v>
+      </c>
+      <c r="G49" s="3">
         <v>22900</v>
       </c>
-      <c r="E49" s="3">
-        <v>17800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
+        <v>35700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K49" s="3">
         <v>11900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>14600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>8100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>6700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>9100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>10900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>6600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="R49" s="3">
         <v>6300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="S49" s="3">
         <v>5900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="T49" s="3">
         <v>6900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="U49" s="3">
         <v>8100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="V49" s="3">
         <v>7900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="W49" s="3">
         <v>7400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="X49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3329,20 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3397,88 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7400</v>
+        <v>8700</v>
       </c>
       <c r="E52" s="3">
-        <v>6100</v>
+        <v>7200</v>
       </c>
       <c r="F52" s="3">
-        <v>5800</v>
+        <v>7200</v>
       </c>
       <c r="G52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K52" s="3">
         <v>27700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>52100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>37000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>34100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>75300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>40000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="Q52" s="3">
         <v>35600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="R52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="S52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="T52" s="3">
         <v>9300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="U52" s="3">
         <v>4800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="V52" s="3">
         <v>7800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="W52" s="3">
         <v>13200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="X52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3533,88 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6428400</v>
+        <v>9774600</v>
       </c>
       <c r="E54" s="3">
-        <v>5704600</v>
+        <v>7990900</v>
       </c>
       <c r="F54" s="3">
-        <v>5393800</v>
+        <v>7012500</v>
       </c>
       <c r="G54" s="3">
+        <v>5833700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>10013700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>4561900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4313300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4629800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>6479800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>3680600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>3382600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>5085500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>6320300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>4256700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>4168600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>4234100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>4812100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>4532100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="V54" s="3">
         <v>3926900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="W54" s="3">
         <v>3707300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="X54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3635,12 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3661,80 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>483000</v>
+        <v>803100</v>
       </c>
       <c r="E57" s="3">
-        <v>415400</v>
+        <v>604600</v>
       </c>
       <c r="F57" s="3">
-        <v>360700</v>
+        <v>524400</v>
       </c>
       <c r="G57" s="3">
+        <v>440400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>752400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>332200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>288500</v>
+      </c>
+      <c r="K57" s="3">
         <v>354700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>443700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>274100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>200400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>455500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>435500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="Q57" s="3">
         <v>346300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>251100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="S57" s="3">
         <v>320900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="T57" s="3">
         <v>398200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="U57" s="3">
         <v>316500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="V57" s="3">
         <v>284300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="W57" s="3">
         <v>301300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="X57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3789,88 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>251800</v>
+        <v>242000</v>
       </c>
       <c r="E59" s="3">
-        <v>203900</v>
+        <v>201700</v>
       </c>
       <c r="F59" s="3">
-        <v>189600</v>
+        <v>222600</v>
       </c>
       <c r="G59" s="3">
+        <v>203800</v>
+      </c>
+      <c r="H59" s="3">
+        <v>392200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>163100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K59" s="3">
         <v>146300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>232300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>74200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>69900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>165500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>193200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>105900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="R59" s="3">
         <v>91000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="S59" s="3">
         <v>97800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="T59" s="3">
         <v>97400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="U59" s="3">
         <v>80000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="V59" s="3">
         <v>57500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="W59" s="3">
         <v>49900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="X59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3925,156 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18200</v>
+        <v>20600</v>
       </c>
       <c r="E61" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="F61" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="G61" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>28400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K61" s="3">
         <v>18600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>27800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>17400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>16600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>25300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>35200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
         <v>26400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="R61" s="3">
         <v>21300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="S61" s="3">
         <v>23100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>13700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="W61" s="3">
         <v>9600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="X61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>86300</v>
+        <v>76700</v>
       </c>
       <c r="E62" s="3">
-        <v>63600</v>
+        <v>71200</v>
       </c>
       <c r="F62" s="3">
-        <v>60900</v>
+        <v>34300</v>
       </c>
       <c r="G62" s="3">
+        <v>86800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>134400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K62" s="3">
         <v>65800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>108400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>65500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>68700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>111800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>150400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="Q62" s="3">
         <v>79000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="R62" s="3">
         <v>75500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="S62" s="3">
         <v>42900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="T62" s="3">
         <v>49900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="U62" s="3">
         <v>47400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="V62" s="3">
         <v>54400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="W62" s="3">
         <v>62500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="X62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +4129,20 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4197,20 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4265,88 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5433700</v>
+        <v>7975800</v>
       </c>
       <c r="E66" s="3">
-        <v>4796600</v>
+        <v>6508100</v>
       </c>
       <c r="F66" s="3">
-        <v>4580900</v>
+        <v>5865500</v>
       </c>
       <c r="G66" s="3">
+        <v>4882800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>8464200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3835800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3663300</v>
+      </c>
+      <c r="K66" s="3">
         <v>3896400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>5522700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>3027400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>2801800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>4222000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>5280700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>3680100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>3651100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>3749600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>4289000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>4047700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>3445800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="W66" s="3">
         <v>3184200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="X66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4367,12 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4427,20 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4495,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4563,20 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4631,88 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>564800</v>
+        <v>1129200</v>
       </c>
       <c r="E72" s="3">
-        <v>518000</v>
+        <v>911900</v>
       </c>
       <c r="F72" s="3">
-        <v>455900</v>
+        <v>679000</v>
       </c>
       <c r="G72" s="3">
+        <v>551900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>879800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>414200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>364600</v>
+      </c>
+      <c r="K72" s="3">
         <v>411700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>527200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>397400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>343200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>505000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>570400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>497900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>436200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>400900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>419200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>380500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>368900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>396500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4767,20 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4835,20 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4903,88 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>994700</v>
+        <v>1798800</v>
       </c>
       <c r="E76" s="3">
-        <v>908000</v>
+        <v>1482800</v>
       </c>
       <c r="F76" s="3">
-        <v>812900</v>
+        <v>1147100</v>
       </c>
       <c r="G76" s="3">
+        <v>950900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1549400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>726100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>650000</v>
+      </c>
+      <c r="K76" s="3">
         <v>733400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>957100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>653200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>580800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>863500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>1039600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>576700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>517500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>484600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>523100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>484400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>481100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="W76" s="3">
         <v>523100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="X76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +5039,161 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39100</v>
+        <v>117000</v>
       </c>
       <c r="E81" s="3">
-        <v>21100</v>
+        <v>49100</v>
       </c>
       <c r="F81" s="3">
-        <v>72000</v>
+        <v>127400</v>
       </c>
       <c r="G81" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>69700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K81" s="3">
         <v>20800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>33900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>57200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>21200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-28600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>79700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>156400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>56000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>39900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>40800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="V81" s="3">
         <v>31100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="W81" s="3">
         <v>25500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="X81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +5214,80 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11200</v>
+        <v>22300</v>
       </c>
       <c r="E83" s="3">
-        <v>8800</v>
+        <v>14300</v>
       </c>
       <c r="F83" s="3">
-        <v>14800</v>
+        <v>18200</v>
       </c>
       <c r="G83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K83" s="3">
         <v>6700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>12800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>9500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>16000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>11600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>25900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="Q83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="R83" s="3">
         <v>21100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="S83" s="3">
         <v>13400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="T83" s="3">
         <v>3400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="U83" s="3">
         <v>3000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="V83" s="3">
         <v>3000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="W83" s="3">
         <v>3300</v>
       </c>
-      <c r="T83" s="3" t="s">
+      <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5342,20 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5410,20 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5478,20 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5546,20 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5614,88 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>89600</v>
+        <v>185600</v>
       </c>
       <c r="E89" s="3">
-        <v>-14200</v>
+        <v>-171800</v>
       </c>
       <c r="F89" s="3">
-        <v>78400</v>
+        <v>-498700</v>
       </c>
       <c r="G89" s="3">
+        <v>-258100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>145500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>102800</v>
+      </c>
+      <c r="K89" s="3">
         <v>157000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>-19300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>50100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-415200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-247300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>611600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>-180800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>-156000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>-62700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="T89" s="3">
         <v>260600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="U89" s="3">
         <v>198900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="V89" s="3">
         <v>38000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="W89" s="3">
         <v>-38900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="X89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5716,80 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31600</v>
+        <v>-61300</v>
       </c>
       <c r="E91" s="3">
-        <v>-7600</v>
+        <v>-1600</v>
       </c>
       <c r="F91" s="3">
-        <v>-11000</v>
+        <v>-19100</v>
       </c>
       <c r="G91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-14400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="R91" s="3">
         <v>-9200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="S91" s="3">
         <v>-4500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="T91" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="U91" s="3">
         <v>7300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="V91" s="3">
         <v>-4800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="W91" s="3">
         <v>-5200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="X91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5844,20 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5912,88 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30000</v>
+        <v>-52900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6100</v>
+        <v>-5400</v>
       </c>
       <c r="F94" s="3">
-        <v>-8700</v>
+        <v>-17900</v>
       </c>
       <c r="G94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-8300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-15100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="R94" s="3">
         <v>17800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="S94" s="3">
         <v>16100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="T94" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="U94" s="3">
         <v>14500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-5100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="X94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +6014,12 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5119,28 +6054,40 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-25500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +6142,20 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +6210,20 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +6278,220 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2000</v>
+        <v>3300</v>
       </c>
       <c r="E100" s="3">
-        <v>-4900</v>
+        <v>-50400</v>
       </c>
       <c r="F100" s="3">
-        <v>-26600</v>
+        <v>17500</v>
       </c>
       <c r="G100" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-5300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-16500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-22500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-12900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>11500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>-30600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>-18300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>21900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="U100" s="3">
         <v>21900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="V100" s="3">
         <v>55900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="W100" s="3">
         <v>2100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="X100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-56700</v>
+        <v>79300</v>
       </c>
       <c r="E101" s="3">
-        <v>-91900</v>
+        <v>-16100</v>
       </c>
       <c r="F101" s="3">
-        <v>4900</v>
+        <v>-57200</v>
       </c>
       <c r="G101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K101" s="3">
         <v>4800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>23400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>23700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>51500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>63500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>30300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="Q101" s="3">
         <v>245700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="R101" s="3">
         <v>69900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="S101" s="3">
         <v>87800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="T101" s="3">
         <v>-81800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="U101" s="3">
         <v>221100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="V101" s="3">
         <v>161900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="W101" s="3">
         <v>22700</v>
       </c>
-      <c r="T101" s="3" t="s">
+      <c r="X101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1200</v>
+        <v>151300</v>
       </c>
       <c r="E102" s="3">
-        <v>-117100</v>
+        <v>-236700</v>
       </c>
       <c r="F102" s="3">
-        <v>48100</v>
+        <v>-558400</v>
       </c>
       <c r="G102" s="3">
+        <v>-271800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K102" s="3">
         <v>149300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-16900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>44100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-405400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-217500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>638300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>33000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="R102" s="3">
         <v>-86500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="S102" s="3">
         <v>53300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="T102" s="3">
         <v>152200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="U102" s="3">
         <v>452700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="V102" s="3">
         <v>257800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="W102" s="3">
         <v>-21800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="X102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -665,10 +665,12 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -767,25 +769,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1321200</v>
+        <v>1141100</v>
       </c>
       <c r="E8" s="3">
-        <v>720100</v>
+        <v>622000</v>
       </c>
       <c r="F8" s="3">
-        <v>1099100</v>
+        <v>949400</v>
       </c>
       <c r="G8" s="3">
-        <v>404000</v>
+        <v>348900</v>
       </c>
       <c r="H8" s="3">
-        <v>771300</v>
+        <v>666200</v>
       </c>
       <c r="I8" s="3">
-        <v>475300</v>
+        <v>410500</v>
       </c>
       <c r="J8" s="3">
-        <v>842300</v>
+        <v>727600</v>
       </c>
       <c r="K8" s="3">
         <v>254100</v>
@@ -1201,25 +1203,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-18800</v>
+        <v>-16300</v>
       </c>
       <c r="E15" s="3">
-        <v>-10300</v>
+        <v>-8900</v>
       </c>
       <c r="F15" s="3">
-        <v>-22200</v>
+        <v>-19100</v>
       </c>
       <c r="G15" s="3">
-        <v>-9600</v>
+        <v>-8300</v>
       </c>
       <c r="H15" s="3">
-        <v>-19300</v>
+        <v>-16600</v>
       </c>
       <c r="I15" s="3">
-        <v>-16900</v>
+        <v>-14600</v>
       </c>
       <c r="J15" s="3">
-        <v>-36700</v>
+        <v>-31700</v>
       </c>
       <c r="K15" s="3">
         <v>-14100</v>
@@ -1292,25 +1294,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>665800</v>
+        <v>575100</v>
       </c>
       <c r="E17" s="3">
-        <v>358400</v>
+        <v>309600</v>
       </c>
       <c r="F17" s="3">
-        <v>519600</v>
+        <v>448800</v>
       </c>
       <c r="G17" s="3">
-        <v>187700</v>
+        <v>162100</v>
       </c>
       <c r="H17" s="3">
-        <v>331000</v>
+        <v>285900</v>
       </c>
       <c r="I17" s="3">
-        <v>230900</v>
+        <v>199500</v>
       </c>
       <c r="J17" s="3">
-        <v>403500</v>
+        <v>348500</v>
       </c>
       <c r="K17" s="3">
         <v>118200</v>
@@ -1360,25 +1362,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>655400</v>
+        <v>566100</v>
       </c>
       <c r="E18" s="3">
-        <v>361700</v>
+        <v>312400</v>
       </c>
       <c r="F18" s="3">
-        <v>579500</v>
+        <v>500500</v>
       </c>
       <c r="G18" s="3">
-        <v>216300</v>
+        <v>186900</v>
       </c>
       <c r="H18" s="3">
-        <v>440300</v>
+        <v>380300</v>
       </c>
       <c r="I18" s="3">
-        <v>244300</v>
+        <v>211000</v>
       </c>
       <c r="J18" s="3">
-        <v>438800</v>
+        <v>379000</v>
       </c>
       <c r="K18" s="3">
         <v>135900</v>
@@ -1454,25 +1456,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-502400</v>
+        <v>-433900</v>
       </c>
       <c r="E20" s="3">
-        <v>-298500</v>
+        <v>-257800</v>
       </c>
       <c r="F20" s="3">
-        <v>-487000</v>
+        <v>-420600</v>
       </c>
       <c r="G20" s="3">
-        <v>-182600</v>
+        <v>-157700</v>
       </c>
       <c r="H20" s="3">
-        <v>-350900</v>
+        <v>-303100</v>
       </c>
       <c r="I20" s="3">
-        <v>-199600</v>
+        <v>-172400</v>
       </c>
       <c r="J20" s="3">
-        <v>-368000</v>
+        <v>-317800</v>
       </c>
       <c r="K20" s="3">
         <v>-118400</v>
@@ -1522,25 +1524,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>175300</v>
+        <v>151400</v>
       </c>
       <c r="E21" s="3">
-        <v>77400</v>
+        <v>66900</v>
       </c>
       <c r="F21" s="3">
-        <v>110700</v>
+        <v>95600</v>
       </c>
       <c r="G21" s="3">
-        <v>41900</v>
+        <v>36200</v>
       </c>
       <c r="H21" s="3">
-        <v>109000</v>
+        <v>94100</v>
       </c>
       <c r="I21" s="3">
-        <v>59900</v>
+        <v>51800</v>
       </c>
       <c r="J21" s="3">
-        <v>90300</v>
+        <v>78000</v>
       </c>
       <c r="K21" s="3">
         <v>24200</v>
@@ -1658,25 +1660,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>153000</v>
+        <v>132200</v>
       </c>
       <c r="E23" s="3">
-        <v>63200</v>
+        <v>54600</v>
       </c>
       <c r="F23" s="3">
-        <v>92500</v>
+        <v>79900</v>
       </c>
       <c r="G23" s="3">
-        <v>33800</v>
+        <v>29200</v>
       </c>
       <c r="H23" s="3">
-        <v>89300</v>
+        <v>77200</v>
       </c>
       <c r="I23" s="3">
-        <v>44700</v>
+        <v>38600</v>
       </c>
       <c r="J23" s="3">
-        <v>70800</v>
+        <v>61200</v>
       </c>
       <c r="K23" s="3">
         <v>17500</v>
@@ -1726,25 +1728,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37600</v>
+        <v>32500</v>
       </c>
       <c r="E24" s="3">
-        <v>14900</v>
+        <v>12900</v>
       </c>
       <c r="F24" s="3">
-        <v>-33000</v>
+        <v>-28500</v>
       </c>
       <c r="G24" s="3">
-        <v>10100</v>
+        <v>8800</v>
       </c>
       <c r="H24" s="3">
-        <v>19500</v>
+        <v>16800</v>
       </c>
       <c r="I24" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="J24" s="3">
-        <v>-34100</v>
+        <v>-29400</v>
       </c>
       <c r="K24" s="3">
         <v>-3000</v>
@@ -1862,25 +1864,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>115400</v>
+        <v>99600</v>
       </c>
       <c r="E26" s="3">
-        <v>48200</v>
+        <v>41600</v>
       </c>
       <c r="F26" s="3">
-        <v>125500</v>
+        <v>108400</v>
       </c>
       <c r="G26" s="3">
-        <v>23600</v>
+        <v>20400</v>
       </c>
       <c r="H26" s="3">
-        <v>69800</v>
+        <v>60300</v>
       </c>
       <c r="I26" s="3">
-        <v>30900</v>
+        <v>26700</v>
       </c>
       <c r="J26" s="3">
-        <v>104900</v>
+        <v>90600</v>
       </c>
       <c r="K26" s="3">
         <v>20500</v>
@@ -1930,25 +1932,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>117000</v>
+        <v>101100</v>
       </c>
       <c r="E27" s="3">
-        <v>49100</v>
+        <v>42400</v>
       </c>
       <c r="F27" s="3">
-        <v>127400</v>
+        <v>110000</v>
       </c>
       <c r="G27" s="3">
-        <v>24500</v>
+        <v>21200</v>
       </c>
       <c r="H27" s="3">
-        <v>69700</v>
+        <v>60200</v>
       </c>
       <c r="I27" s="3">
-        <v>30900</v>
+        <v>26700</v>
       </c>
       <c r="J27" s="3">
-        <v>105400</v>
+        <v>91000</v>
       </c>
       <c r="K27" s="3">
         <v>20800</v>
@@ -2270,25 +2272,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>502400</v>
+        <v>433900</v>
       </c>
       <c r="E32" s="3">
-        <v>298500</v>
+        <v>257800</v>
       </c>
       <c r="F32" s="3">
-        <v>487000</v>
+        <v>420600</v>
       </c>
       <c r="G32" s="3">
-        <v>182600</v>
+        <v>157700</v>
       </c>
       <c r="H32" s="3">
-        <v>350900</v>
+        <v>303100</v>
       </c>
       <c r="I32" s="3">
-        <v>199600</v>
+        <v>172400</v>
       </c>
       <c r="J32" s="3">
-        <v>368000</v>
+        <v>317800</v>
       </c>
       <c r="K32" s="3">
         <v>118400</v>
@@ -2338,25 +2340,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>117000</v>
+        <v>101100</v>
       </c>
       <c r="E33" s="3">
-        <v>49100</v>
+        <v>42400</v>
       </c>
       <c r="F33" s="3">
-        <v>127400</v>
+        <v>110000</v>
       </c>
       <c r="G33" s="3">
-        <v>24500</v>
+        <v>21200</v>
       </c>
       <c r="H33" s="3">
-        <v>69700</v>
+        <v>60200</v>
       </c>
       <c r="I33" s="3">
-        <v>30900</v>
+        <v>26700</v>
       </c>
       <c r="J33" s="3">
-        <v>105400</v>
+        <v>91000</v>
       </c>
       <c r="K33" s="3">
         <v>20800</v>
@@ -2474,25 +2476,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>117000</v>
+        <v>101100</v>
       </c>
       <c r="E35" s="3">
-        <v>49100</v>
+        <v>42400</v>
       </c>
       <c r="F35" s="3">
-        <v>127400</v>
+        <v>110000</v>
       </c>
       <c r="G35" s="3">
-        <v>24500</v>
+        <v>21200</v>
       </c>
       <c r="H35" s="3">
-        <v>69700</v>
+        <v>60200</v>
       </c>
       <c r="I35" s="3">
-        <v>30900</v>
+        <v>26700</v>
       </c>
       <c r="J35" s="3">
-        <v>105400</v>
+        <v>91000</v>
       </c>
       <c r="K35" s="3">
         <v>20800</v>
@@ -2667,25 +2669,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1391600</v>
+        <v>1202000</v>
       </c>
       <c r="E41" s="3">
-        <v>955500</v>
+        <v>825300</v>
       </c>
       <c r="F41" s="3">
-        <v>863800</v>
+        <v>746100</v>
       </c>
       <c r="G41" s="3">
-        <v>950900</v>
+        <v>821300</v>
       </c>
       <c r="H41" s="3">
-        <v>2101900</v>
+        <v>1815400</v>
       </c>
       <c r="I41" s="3">
-        <v>968700</v>
+        <v>836700</v>
       </c>
       <c r="J41" s="3">
-        <v>970100</v>
+        <v>837900</v>
       </c>
       <c r="K41" s="3">
         <v>1195800</v>
@@ -2735,25 +2737,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>219000</v>
+        <v>189100</v>
       </c>
       <c r="E42" s="3">
-        <v>165200</v>
+        <v>142700</v>
       </c>
       <c r="F42" s="3">
-        <v>164300</v>
+        <v>142000</v>
       </c>
       <c r="G42" s="3">
-        <v>96300</v>
+        <v>83200</v>
       </c>
       <c r="H42" s="3">
-        <v>55600</v>
+        <v>48000</v>
       </c>
       <c r="I42" s="3">
-        <v>59000</v>
+        <v>51000</v>
       </c>
       <c r="J42" s="3">
-        <v>52700</v>
+        <v>45500</v>
       </c>
       <c r="K42" s="3">
         <v>70200</v>
@@ -3075,25 +3077,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17300</v>
+        <v>14900</v>
       </c>
       <c r="E47" s="3">
-        <v>15400</v>
+        <v>13300</v>
       </c>
       <c r="F47" s="3">
-        <v>13000</v>
+        <v>11300</v>
       </c>
       <c r="G47" s="3">
-        <v>11200</v>
+        <v>9700</v>
       </c>
       <c r="H47" s="3">
-        <v>19900</v>
+        <v>17200</v>
       </c>
       <c r="I47" s="3">
-        <v>9700</v>
+        <v>8400</v>
       </c>
       <c r="J47" s="3">
-        <v>10200</v>
+        <v>8800</v>
       </c>
       <c r="K47" s="3">
         <v>9900</v>
@@ -3143,25 +3145,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>479600</v>
+        <v>414200</v>
       </c>
       <c r="E48" s="3">
-        <v>404200</v>
+        <v>349200</v>
       </c>
       <c r="F48" s="3">
-        <v>342900</v>
+        <v>296200</v>
       </c>
       <c r="G48" s="3">
-        <v>290900</v>
+        <v>251200</v>
       </c>
       <c r="H48" s="3">
-        <v>495000</v>
+        <v>427500</v>
       </c>
       <c r="I48" s="3">
-        <v>222400</v>
+        <v>192100</v>
       </c>
       <c r="J48" s="3">
-        <v>205700</v>
+        <v>177700</v>
       </c>
       <c r="K48" s="3">
         <v>234900</v>
@@ -3211,25 +3213,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>48000</v>
+        <v>41500</v>
       </c>
       <c r="E49" s="3">
-        <v>37300</v>
+        <v>32200</v>
       </c>
       <c r="F49" s="3">
-        <v>29300</v>
+        <v>25300</v>
       </c>
       <c r="G49" s="3">
-        <v>22900</v>
+        <v>19800</v>
       </c>
       <c r="H49" s="3">
-        <v>35700</v>
+        <v>30900</v>
       </c>
       <c r="I49" s="3">
-        <v>14300</v>
+        <v>12300</v>
       </c>
       <c r="J49" s="3">
-        <v>11800</v>
+        <v>10200</v>
       </c>
       <c r="K49" s="3">
         <v>11900</v>
@@ -3415,25 +3417,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
-        <v>7200</v>
+        <v>6200</v>
       </c>
       <c r="F52" s="3">
-        <v>7200</v>
+        <v>6300</v>
       </c>
       <c r="G52" s="3">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="H52" s="3">
-        <v>11500</v>
+        <v>9900</v>
       </c>
       <c r="I52" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="J52" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="K52" s="3">
         <v>27700</v>
@@ -3551,25 +3553,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9774600</v>
+        <v>8442600</v>
       </c>
       <c r="E54" s="3">
-        <v>7990900</v>
+        <v>6901900</v>
       </c>
       <c r="F54" s="3">
-        <v>7012500</v>
+        <v>6056900</v>
       </c>
       <c r="G54" s="3">
-        <v>5833700</v>
+        <v>5038700</v>
       </c>
       <c r="H54" s="3">
-        <v>10013700</v>
+        <v>8649100</v>
       </c>
       <c r="I54" s="3">
-        <v>4561900</v>
+        <v>3940200</v>
       </c>
       <c r="J54" s="3">
-        <v>4313300</v>
+        <v>3725500</v>
       </c>
       <c r="K54" s="3">
         <v>4629800</v>
@@ -3671,25 +3673,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>803100</v>
+        <v>693700</v>
       </c>
       <c r="E57" s="3">
-        <v>604600</v>
+        <v>522200</v>
       </c>
       <c r="F57" s="3">
-        <v>524400</v>
+        <v>452900</v>
       </c>
       <c r="G57" s="3">
-        <v>440400</v>
+        <v>380400</v>
       </c>
       <c r="H57" s="3">
-        <v>752400</v>
+        <v>649900</v>
       </c>
       <c r="I57" s="3">
-        <v>332200</v>
+        <v>286900</v>
       </c>
       <c r="J57" s="3">
-        <v>288500</v>
+        <v>249200</v>
       </c>
       <c r="K57" s="3">
         <v>354700</v>
@@ -3807,25 +3809,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>242000</v>
+        <v>209000</v>
       </c>
       <c r="E59" s="3">
-        <v>201700</v>
+        <v>174200</v>
       </c>
       <c r="F59" s="3">
-        <v>222600</v>
+        <v>192200</v>
       </c>
       <c r="G59" s="3">
-        <v>203800</v>
+        <v>176000</v>
       </c>
       <c r="H59" s="3">
-        <v>392200</v>
+        <v>338700</v>
       </c>
       <c r="I59" s="3">
-        <v>163100</v>
+        <v>140900</v>
       </c>
       <c r="J59" s="3">
-        <v>151600</v>
+        <v>131000</v>
       </c>
       <c r="K59" s="3">
         <v>146300</v>
@@ -3943,25 +3945,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20600</v>
+        <v>17800</v>
       </c>
       <c r="E61" s="3">
-        <v>18700</v>
+        <v>16100</v>
       </c>
       <c r="F61" s="3">
-        <v>16500</v>
+        <v>14300</v>
       </c>
       <c r="G61" s="3">
-        <v>14600</v>
+        <v>12600</v>
       </c>
       <c r="H61" s="3">
-        <v>28400</v>
+        <v>24500</v>
       </c>
       <c r="I61" s="3">
-        <v>14600</v>
+        <v>12600</v>
       </c>
       <c r="J61" s="3">
-        <v>14200</v>
+        <v>12200</v>
       </c>
       <c r="K61" s="3">
         <v>18600</v>
@@ -4011,25 +4013,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76700</v>
+        <v>66200</v>
       </c>
       <c r="E62" s="3">
-        <v>71200</v>
+        <v>61500</v>
       </c>
       <c r="F62" s="3">
-        <v>34300</v>
+        <v>29600</v>
       </c>
       <c r="G62" s="3">
-        <v>86800</v>
+        <v>74900</v>
       </c>
       <c r="H62" s="3">
-        <v>134400</v>
+        <v>116000</v>
       </c>
       <c r="I62" s="3">
-        <v>50900</v>
+        <v>44000</v>
       </c>
       <c r="J62" s="3">
-        <v>48700</v>
+        <v>42100</v>
       </c>
       <c r="K62" s="3">
         <v>65800</v>
@@ -4283,25 +4285,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7975800</v>
+        <v>6888900</v>
       </c>
       <c r="E66" s="3">
-        <v>6508100</v>
+        <v>5621200</v>
       </c>
       <c r="F66" s="3">
-        <v>5865500</v>
+        <v>5066200</v>
       </c>
       <c r="G66" s="3">
-        <v>4882800</v>
+        <v>4217400</v>
       </c>
       <c r="H66" s="3">
-        <v>8464200</v>
+        <v>7310800</v>
       </c>
       <c r="I66" s="3">
-        <v>3835800</v>
+        <v>3313100</v>
       </c>
       <c r="J66" s="3">
-        <v>3663300</v>
+        <v>3164100</v>
       </c>
       <c r="K66" s="3">
         <v>3896400</v>
@@ -4649,25 +4651,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1129200</v>
+        <v>975300</v>
       </c>
       <c r="E72" s="3">
-        <v>911900</v>
+        <v>787700</v>
       </c>
       <c r="F72" s="3">
-        <v>679000</v>
+        <v>586500</v>
       </c>
       <c r="G72" s="3">
-        <v>551900</v>
+        <v>476700</v>
       </c>
       <c r="H72" s="3">
-        <v>879800</v>
+        <v>759900</v>
       </c>
       <c r="I72" s="3">
-        <v>414200</v>
+        <v>357800</v>
       </c>
       <c r="J72" s="3">
-        <v>364600</v>
+        <v>314900</v>
       </c>
       <c r="K72" s="3">
         <v>411700</v>
@@ -4921,25 +4923,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1798800</v>
+        <v>1553700</v>
       </c>
       <c r="E76" s="3">
-        <v>1482800</v>
+        <v>1280700</v>
       </c>
       <c r="F76" s="3">
-        <v>1147100</v>
+        <v>990700</v>
       </c>
       <c r="G76" s="3">
-        <v>950900</v>
+        <v>821300</v>
       </c>
       <c r="H76" s="3">
-        <v>1549400</v>
+        <v>1338300</v>
       </c>
       <c r="I76" s="3">
-        <v>726100</v>
+        <v>627200</v>
       </c>
       <c r="J76" s="3">
-        <v>650000</v>
+        <v>561400</v>
       </c>
       <c r="K76" s="3">
         <v>733400</v>
@@ -5130,25 +5132,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>117000</v>
+        <v>101100</v>
       </c>
       <c r="E81" s="3">
-        <v>49100</v>
+        <v>42400</v>
       </c>
       <c r="F81" s="3">
-        <v>127400</v>
+        <v>110000</v>
       </c>
       <c r="G81" s="3">
-        <v>24500</v>
+        <v>21200</v>
       </c>
       <c r="H81" s="3">
-        <v>69700</v>
+        <v>60200</v>
       </c>
       <c r="I81" s="3">
-        <v>30900</v>
+        <v>26700</v>
       </c>
       <c r="J81" s="3">
-        <v>105400</v>
+        <v>91000</v>
       </c>
       <c r="K81" s="3">
         <v>20800</v>
@@ -5224,25 +5226,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22300</v>
+        <v>19300</v>
       </c>
       <c r="E83" s="3">
-        <v>14300</v>
+        <v>12300</v>
       </c>
       <c r="F83" s="3">
-        <v>18200</v>
+        <v>15700</v>
       </c>
       <c r="G83" s="3">
-        <v>8200</v>
+        <v>7000</v>
       </c>
       <c r="H83" s="3">
-        <v>19600</v>
+        <v>17000</v>
       </c>
       <c r="I83" s="3">
-        <v>15200</v>
+        <v>13100</v>
       </c>
       <c r="J83" s="3">
-        <v>19400</v>
+        <v>16800</v>
       </c>
       <c r="K83" s="3">
         <v>6700</v>
@@ -5632,25 +5634,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>185600</v>
+        <v>160300</v>
       </c>
       <c r="E89" s="3">
-        <v>-171800</v>
+        <v>-148400</v>
       </c>
       <c r="F89" s="3">
-        <v>-498700</v>
+        <v>-430700</v>
       </c>
       <c r="G89" s="3">
-        <v>-258100</v>
+        <v>-222900</v>
       </c>
       <c r="H89" s="3">
-        <v>145500</v>
+        <v>125700</v>
       </c>
       <c r="I89" s="3">
-        <v>-8800</v>
+        <v>-7600</v>
       </c>
       <c r="J89" s="3">
-        <v>102800</v>
+        <v>88800</v>
       </c>
       <c r="K89" s="3">
         <v>157000</v>
@@ -5726,25 +5728,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61300</v>
+        <v>-12277100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
+        <v>-312900</v>
       </c>
       <c r="F91" s="3">
-        <v>-19100</v>
+        <v>-2694300</v>
       </c>
       <c r="G91" s="3">
-        <v>-5600</v>
+        <v>-1125700</v>
       </c>
       <c r="H91" s="3">
-        <v>-25200</v>
+        <v>-10201100</v>
       </c>
       <c r="I91" s="3">
-        <v>-6100</v>
+        <v>-2576100</v>
       </c>
       <c r="J91" s="3">
-        <v>-8800</v>
+        <v>-1792900</v>
       </c>
       <c r="K91" s="3">
         <v>-4400</v>
@@ -5930,25 +5932,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52900</v>
+        <v>-45700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5400</v>
+        <v>-4700</v>
       </c>
       <c r="F94" s="3">
-        <v>-17900</v>
+        <v>-15400</v>
       </c>
       <c r="G94" s="3">
-        <v>-5600</v>
+        <v>-4900</v>
       </c>
       <c r="H94" s="3">
-        <v>-25600</v>
+        <v>-22100</v>
       </c>
       <c r="I94" s="3">
-        <v>-4900</v>
+        <v>-4200</v>
       </c>
       <c r="J94" s="3">
-        <v>-6900</v>
+        <v>-6000</v>
       </c>
       <c r="K94" s="3">
         <v>-2700</v>
@@ -6296,25 +6298,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="E100" s="3">
-        <v>-50400</v>
+        <v>-43500</v>
       </c>
       <c r="F100" s="3">
-        <v>17500</v>
+        <v>15100</v>
       </c>
       <c r="G100" s="3">
-        <v>-9400</v>
+        <v>-8100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3900</v>
+        <v>-3400</v>
       </c>
       <c r="J100" s="3">
-        <v>-21300</v>
+        <v>-18400</v>
       </c>
       <c r="K100" s="3">
         <v>-9800</v>
@@ -6364,25 +6366,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>79300</v>
+        <v>68500</v>
       </c>
       <c r="E101" s="3">
-        <v>-16100</v>
+        <v>-13900</v>
       </c>
       <c r="F101" s="3">
-        <v>-57200</v>
+        <v>-49400</v>
       </c>
       <c r="G101" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>-45300</v>
+        <v>-39100</v>
       </c>
       <c r="I101" s="3">
-        <v>-76000</v>
+        <v>-65700</v>
       </c>
       <c r="J101" s="3">
-        <v>6400</v>
+        <v>5500</v>
       </c>
       <c r="K101" s="3">
         <v>4800</v>
@@ -6432,25 +6434,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>151300</v>
+        <v>130700</v>
       </c>
       <c r="E102" s="3">
-        <v>-236700</v>
+        <v>-204500</v>
       </c>
       <c r="F102" s="3">
-        <v>-558400</v>
+        <v>-482300</v>
       </c>
       <c r="G102" s="3">
-        <v>-271800</v>
+        <v>-234700</v>
       </c>
       <c r="H102" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I102" s="3">
-        <v>-118200</v>
+        <v>-102100</v>
       </c>
       <c r="J102" s="3">
-        <v>63000</v>
+        <v>54400</v>
       </c>
       <c r="K102" s="3">
         <v>149300</v>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>BBAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,174 +665,188 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1141100</v>
+        <v>1061700</v>
       </c>
       <c r="E8" s="3">
-        <v>622000</v>
+        <v>882200</v>
       </c>
       <c r="F8" s="3">
-        <v>949400</v>
+        <v>757200</v>
       </c>
       <c r="G8" s="3">
-        <v>348900</v>
+        <v>412700</v>
       </c>
       <c r="H8" s="3">
-        <v>666200</v>
+        <v>630000</v>
       </c>
       <c r="I8" s="3">
+        <v>231600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>442000</v>
+      </c>
+      <c r="K8" s="3">
         <v>410500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>727600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>254100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>377500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>248500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>494500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>386400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>501000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>401000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>728200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>327000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>240600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>166900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>139500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>130800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -899,8 +913,14 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -967,8 +987,14 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1019,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,8 +1089,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1129,8 +1163,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,76 +1237,88 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-16300</v>
+        <v>-10000</v>
       </c>
       <c r="E15" s="3">
-        <v>-8900</v>
+        <v>-10000</v>
       </c>
       <c r="F15" s="3">
-        <v>-19100</v>
+        <v>-10800</v>
       </c>
       <c r="G15" s="3">
-        <v>-8300</v>
+        <v>-5900</v>
       </c>
       <c r="H15" s="3">
-        <v>-16600</v>
+        <v>-12700</v>
       </c>
       <c r="I15" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-14600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-31700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-14100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-12800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-8000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-17500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-24600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-15300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-26900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-27600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-3800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="V15" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-3300</v>
       </c>
       <c r="X15" s="3">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1288,144 +1340,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>575100</v>
+        <v>562900</v>
       </c>
       <c r="E17" s="3">
-        <v>309600</v>
+        <v>446700</v>
       </c>
       <c r="F17" s="3">
-        <v>448800</v>
+        <v>381600</v>
       </c>
       <c r="G17" s="3">
-        <v>162100</v>
+        <v>205400</v>
       </c>
       <c r="H17" s="3">
-        <v>285900</v>
+        <v>297800</v>
       </c>
       <c r="I17" s="3">
+        <v>107600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K17" s="3">
         <v>199500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>348500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>118200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>182700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>98900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>199000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>153800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>256700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>242200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>377400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>172500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>140700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>91800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>63100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>55100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>52200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>566100</v>
+        <v>498800</v>
       </c>
       <c r="E18" s="3">
-        <v>312400</v>
+        <v>435500</v>
       </c>
       <c r="F18" s="3">
-        <v>500500</v>
+        <v>375600</v>
       </c>
       <c r="G18" s="3">
-        <v>186900</v>
+        <v>207300</v>
       </c>
       <c r="H18" s="3">
-        <v>380300</v>
+        <v>332100</v>
       </c>
       <c r="I18" s="3">
+        <v>124000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>252300</v>
+      </c>
+      <c r="K18" s="3">
         <v>211000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>379000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>135900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>194700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>149600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>295400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>232700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>244300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>158800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>350800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>154500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>99900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>75100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>76300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>75700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>69400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,144 +1516,158 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-433900</v>
+        <v>-360200</v>
       </c>
       <c r="E20" s="3">
-        <v>-257800</v>
+        <v>-357900</v>
       </c>
       <c r="F20" s="3">
-        <v>-420600</v>
+        <v>-287900</v>
       </c>
       <c r="G20" s="3">
-        <v>-157700</v>
+        <v>-171100</v>
       </c>
       <c r="H20" s="3">
-        <v>-303100</v>
+        <v>-279100</v>
       </c>
       <c r="I20" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-201100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-172400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-317800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-118400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-161000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-104600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-193000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-177000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-255800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-63500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-122200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-56500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-41500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-18300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-32100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-38800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-33500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>151400</v>
+        <v>150500</v>
       </c>
       <c r="E21" s="3">
-        <v>66900</v>
+        <v>85600</v>
       </c>
       <c r="F21" s="3">
-        <v>95600</v>
+        <v>100500</v>
       </c>
       <c r="G21" s="3">
-        <v>36200</v>
+        <v>44400</v>
       </c>
       <c r="H21" s="3">
-        <v>94100</v>
+        <v>63400</v>
       </c>
       <c r="I21" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K21" s="3">
         <v>51800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>78000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>24200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>46500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>54400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>118400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>67300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>14400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>107800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>249700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>111500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>61800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>59700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>47300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>40100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1654,144 +1734,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132200</v>
+        <v>138600</v>
       </c>
       <c r="E23" s="3">
-        <v>54600</v>
+        <v>77500</v>
       </c>
       <c r="F23" s="3">
-        <v>79900</v>
+        <v>87700</v>
       </c>
       <c r="G23" s="3">
-        <v>29200</v>
+        <v>36200</v>
       </c>
       <c r="H23" s="3">
-        <v>77200</v>
+        <v>53000</v>
       </c>
       <c r="I23" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K23" s="3">
         <v>38600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>61200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>17500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>33700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>45000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>102400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>55600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>95300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>228600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>98000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>58400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>56700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>44200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>36800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32500</v>
+        <v>51700</v>
       </c>
       <c r="E24" s="3">
-        <v>12900</v>
+        <v>24400</v>
       </c>
       <c r="F24" s="3">
-        <v>-28500</v>
+        <v>21600</v>
       </c>
       <c r="G24" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="H24" s="3">
-        <v>16800</v>
+        <v>-18900</v>
       </c>
       <c r="I24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K24" s="3">
         <v>11900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-29400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>21700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>11100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>44400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>34000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>21500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>11100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>72200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>42000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>18500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>15400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>12700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>11000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1858,144 +1956,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>99600</v>
+        <v>86800</v>
       </c>
       <c r="E26" s="3">
-        <v>41600</v>
+        <v>53200</v>
       </c>
       <c r="F26" s="3">
-        <v>108400</v>
+        <v>66100</v>
       </c>
       <c r="G26" s="3">
-        <v>20400</v>
+        <v>27600</v>
       </c>
       <c r="H26" s="3">
-        <v>60300</v>
+        <v>71900</v>
       </c>
       <c r="I26" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K26" s="3">
         <v>26700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>90600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>20500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>12100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>33900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>58000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>21700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>84100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>156400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>56000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>39900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>41400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>31500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>25900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>101100</v>
+        <v>86000</v>
       </c>
       <c r="E27" s="3">
-        <v>42400</v>
+        <v>53200</v>
       </c>
       <c r="F27" s="3">
-        <v>110000</v>
+        <v>67100</v>
       </c>
       <c r="G27" s="3">
+        <v>28100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>26700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>91000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>20800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O27" s="3">
+        <v>33900</v>
+      </c>
+      <c r="P27" s="3">
+        <v>57200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>21200</v>
       </c>
-      <c r="H27" s="3">
-        <v>60200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>91000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>20800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>13000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>33900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>57200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>21200</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>79700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>156400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>56000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>39900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>40800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>31100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>25500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,8 +2178,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2130,8 +2252,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,8 +2326,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2266,144 +2400,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>433900</v>
+        <v>360200</v>
       </c>
       <c r="E32" s="3">
-        <v>257800</v>
+        <v>357900</v>
       </c>
       <c r="F32" s="3">
-        <v>420600</v>
+        <v>287900</v>
       </c>
       <c r="G32" s="3">
-        <v>157700</v>
+        <v>171100</v>
       </c>
       <c r="H32" s="3">
-        <v>303100</v>
+        <v>279100</v>
       </c>
       <c r="I32" s="3">
+        <v>104600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K32" s="3">
         <v>172400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>317800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>118400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>161000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>104600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>193000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>177000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>255800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>63500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>122200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>56500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>41500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>18300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>32100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>38800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>101100</v>
+        <v>86000</v>
       </c>
       <c r="E33" s="3">
-        <v>42400</v>
+        <v>53200</v>
       </c>
       <c r="F33" s="3">
-        <v>110000</v>
+        <v>67100</v>
       </c>
       <c r="G33" s="3">
+        <v>28100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>26700</v>
+      </c>
+      <c r="L33" s="3">
+        <v>91000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>20800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O33" s="3">
+        <v>33900</v>
+      </c>
+      <c r="P33" s="3">
+        <v>57200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>21200</v>
       </c>
-      <c r="H33" s="3">
-        <v>60200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>91000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>20800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>13000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>33900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>57200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>21200</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>79700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>156400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>56000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>39900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>40800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>31100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>25500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2470,149 +2622,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>101100</v>
+        <v>86000</v>
       </c>
       <c r="E35" s="3">
-        <v>42400</v>
+        <v>53200</v>
       </c>
       <c r="F35" s="3">
-        <v>110000</v>
+        <v>67100</v>
       </c>
       <c r="G35" s="3">
+        <v>28100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>26700</v>
+      </c>
+      <c r="L35" s="3">
+        <v>91000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>20800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O35" s="3">
+        <v>33900</v>
+      </c>
+      <c r="P35" s="3">
+        <v>57200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>21200</v>
       </c>
-      <c r="H35" s="3">
-        <v>60200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>91000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>20800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>13000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>33900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>57200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>21200</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>79700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>156400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>56000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>39900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>40800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>31100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>25500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2637,8 +2807,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2663,144 +2835,158 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1202000</v>
+        <v>1188600</v>
       </c>
       <c r="E41" s="3">
-        <v>825300</v>
+        <v>1042700</v>
       </c>
       <c r="F41" s="3">
-        <v>746100</v>
+        <v>797600</v>
       </c>
       <c r="G41" s="3">
-        <v>821300</v>
+        <v>547600</v>
       </c>
       <c r="H41" s="3">
-        <v>1815400</v>
+        <v>495100</v>
       </c>
       <c r="I41" s="3">
+        <v>545000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1204700</v>
+      </c>
+      <c r="K41" s="3">
         <v>836700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>837900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1195800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1398000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>804800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>676300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1410000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2158700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>898700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>947900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1060300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1235900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1103600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>735900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>535600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>596800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>189100</v>
+        <v>261800</v>
       </c>
       <c r="E42" s="3">
-        <v>142700</v>
+        <v>111800</v>
       </c>
       <c r="F42" s="3">
-        <v>142000</v>
+        <v>125500</v>
       </c>
       <c r="G42" s="3">
-        <v>83200</v>
+        <v>94700</v>
       </c>
       <c r="H42" s="3">
-        <v>48000</v>
+        <v>94200</v>
       </c>
       <c r="I42" s="3">
+        <v>55200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K42" s="3">
         <v>51000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>45500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>70200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>67700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>74900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>98000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>151400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>115000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>141800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>107400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>118300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>212600</v>
-      </c>
-      <c r="U42" s="3">
-        <v>96300</v>
-      </c>
-      <c r="V42" s="3">
-        <v>104300</v>
       </c>
       <c r="W42" s="3">
         <v>96300</v>
       </c>
       <c r="X42" s="3">
+        <v>104300</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>96300</v>
+      </c>
+      <c r="Z42" s="3">
         <v>279000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2867,8 +3053,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2935,8 +3127,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3003,8 +3201,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3071,212 +3275,236 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14900</v>
+        <v>15800</v>
       </c>
       <c r="E47" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="F47" s="3">
-        <v>11300</v>
+        <v>9900</v>
       </c>
       <c r="G47" s="3">
-        <v>9700</v>
+        <v>8800</v>
       </c>
       <c r="H47" s="3">
-        <v>17200</v>
+        <v>7500</v>
       </c>
       <c r="I47" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K47" s="3">
         <v>8400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>13600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>8300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>7700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>11200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>14500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>22000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>20300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>23800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>24200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>15900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>15200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>414200</v>
+        <v>408200</v>
       </c>
       <c r="E48" s="3">
-        <v>349200</v>
+        <v>332200</v>
       </c>
       <c r="F48" s="3">
-        <v>296200</v>
+        <v>274900</v>
       </c>
       <c r="G48" s="3">
-        <v>251200</v>
+        <v>231700</v>
       </c>
       <c r="H48" s="3">
-        <v>427500</v>
+        <v>196500</v>
       </c>
       <c r="I48" s="3">
+        <v>166700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K48" s="3">
         <v>192100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>177700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>234900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>318100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>188100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>176400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>271100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>364900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>121500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>125900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>126800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>133200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>124500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>133800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>149200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>41500</v>
+        <v>42200</v>
       </c>
       <c r="E49" s="3">
-        <v>32200</v>
+        <v>33300</v>
       </c>
       <c r="F49" s="3">
-        <v>25300</v>
+        <v>27500</v>
       </c>
       <c r="G49" s="3">
-        <v>19800</v>
+        <v>21400</v>
       </c>
       <c r="H49" s="3">
-        <v>30900</v>
+        <v>16800</v>
       </c>
       <c r="I49" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K49" s="3">
         <v>12300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>10200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>10900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>6600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>6300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>6900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>8100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>7900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>7400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3343,8 +3571,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3411,76 +3645,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="E52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="N52" s="3">
+        <v>52100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>37000</v>
+      </c>
+      <c r="P52" s="3">
+        <v>34100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>75300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>40000</v>
+      </c>
+      <c r="S52" s="3">
+        <v>35600</v>
+      </c>
+      <c r="T52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>27700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>52100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>37000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>34100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>75300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>40000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>35600</v>
-      </c>
-      <c r="R52" s="3">
-        <v>6200</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>9300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>4800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>7800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>13200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3547,76 +3793,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8442600</v>
+        <v>8961200</v>
       </c>
       <c r="E54" s="3">
-        <v>6901900</v>
+        <v>6749100</v>
       </c>
       <c r="F54" s="3">
-        <v>6056900</v>
+        <v>5602300</v>
       </c>
       <c r="G54" s="3">
-        <v>5038700</v>
+        <v>4579900</v>
       </c>
       <c r="H54" s="3">
-        <v>8649100</v>
+        <v>4019200</v>
       </c>
       <c r="I54" s="3">
+        <v>3343600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5739300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3940200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3725500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4629800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6479800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3680600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3382600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5085500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6320300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4256700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4168600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4234100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4812100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4532100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3926900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3707300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3729900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3641,8 +3899,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3667,76 +3927,84 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>693700</v>
+        <v>975700</v>
       </c>
       <c r="E57" s="3">
-        <v>522200</v>
+        <v>555700</v>
       </c>
       <c r="F57" s="3">
-        <v>452900</v>
+        <v>460300</v>
       </c>
       <c r="G57" s="3">
-        <v>380400</v>
+        <v>346500</v>
       </c>
       <c r="H57" s="3">
-        <v>649900</v>
+        <v>300500</v>
       </c>
       <c r="I57" s="3">
+        <v>252400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>431200</v>
+      </c>
+      <c r="K57" s="3">
         <v>286900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>249200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>354700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>443700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>274100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>455500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>435500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>346300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>251100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>320900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>398200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>316500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>284300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>301300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>275600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3803,76 +4071,88 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209000</v>
+        <v>251800</v>
       </c>
       <c r="E59" s="3">
-        <v>174200</v>
+        <v>178400</v>
       </c>
       <c r="F59" s="3">
-        <v>192200</v>
+        <v>138700</v>
       </c>
       <c r="G59" s="3">
-        <v>176000</v>
+        <v>115600</v>
       </c>
       <c r="H59" s="3">
-        <v>338700</v>
+        <v>127600</v>
       </c>
       <c r="I59" s="3">
+        <v>116800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>224800</v>
+      </c>
+      <c r="K59" s="3">
         <v>140900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>131000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>146300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>232300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>74200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>69900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>165500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>193200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>105900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>91000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>97800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>97400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>80000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>57500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>49900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>54200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3939,144 +4219,162 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17800</v>
+        <v>16500</v>
       </c>
       <c r="E61" s="3">
-        <v>16100</v>
+        <v>14300</v>
       </c>
       <c r="F61" s="3">
-        <v>14300</v>
+        <v>11800</v>
       </c>
       <c r="G61" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K61" s="3">
         <v>12600</v>
       </c>
-      <c r="H61" s="3">
-        <v>24500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>12600</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>12200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>18600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>27800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>17400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>16600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>25300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>35200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>26400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>21300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>23100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>13700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>9600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>78300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66200</v>
+        <v>74600</v>
       </c>
       <c r="E62" s="3">
-        <v>61500</v>
+        <v>44500</v>
       </c>
       <c r="F62" s="3">
-        <v>29600</v>
+        <v>43900</v>
       </c>
       <c r="G62" s="3">
-        <v>74900</v>
+        <v>40800</v>
       </c>
       <c r="H62" s="3">
-        <v>116000</v>
+        <v>19700</v>
       </c>
       <c r="I62" s="3">
+        <v>49700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K62" s="3">
         <v>44000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>42100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>65800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>108400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>65500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>68700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>111800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>150400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>79000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>75500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>42900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>49900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>47400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>54400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>62500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>46300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4143,8 +4441,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4211,8 +4515,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4279,76 +4589,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6888900</v>
+        <v>7363700</v>
       </c>
       <c r="E66" s="3">
-        <v>5621200</v>
+        <v>5452900</v>
       </c>
       <c r="F66" s="3">
-        <v>5066200</v>
+        <v>4571300</v>
       </c>
       <c r="G66" s="3">
-        <v>4217400</v>
+        <v>3730100</v>
       </c>
       <c r="H66" s="3">
-        <v>7310800</v>
+        <v>3361800</v>
       </c>
       <c r="I66" s="3">
+        <v>2798600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4851200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3313100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3164100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3896400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5522700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3027400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2801800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4222000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5280700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3680100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3651100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3749600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4289000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4047700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3445800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3184200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3299200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4695,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4441,8 +4765,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4509,8 +4839,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4577,8 +4913,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4645,76 +4987,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>975300</v>
+        <v>1019300</v>
       </c>
       <c r="E72" s="3">
-        <v>787700</v>
+        <v>829000</v>
       </c>
       <c r="F72" s="3">
-        <v>586500</v>
+        <v>647200</v>
       </c>
       <c r="G72" s="3">
-        <v>476700</v>
+        <v>522700</v>
       </c>
       <c r="H72" s="3">
-        <v>759900</v>
+        <v>389200</v>
       </c>
       <c r="I72" s="3">
+        <v>316300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>504300</v>
+      </c>
+      <c r="K72" s="3">
         <v>357800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>314900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>411700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>527200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>397400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>343200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>505000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>570400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>497900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>436200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>400900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>419200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>380500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>368900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>396500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>304100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4781,8 +5135,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4849,8 +5209,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4917,76 +5283,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1553700</v>
+        <v>1597500</v>
       </c>
       <c r="E76" s="3">
-        <v>1280700</v>
+        <v>1296200</v>
       </c>
       <c r="F76" s="3">
-        <v>990700</v>
+        <v>1031000</v>
       </c>
       <c r="G76" s="3">
-        <v>821300</v>
+        <v>849900</v>
       </c>
       <c r="H76" s="3">
-        <v>1338300</v>
+        <v>657400</v>
       </c>
       <c r="I76" s="3">
+        <v>545000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>888100</v>
+      </c>
+      <c r="K76" s="3">
         <v>627200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>561400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>733400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>957100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>653200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>580800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>863500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1039600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>576700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>517500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>484600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>523100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>484400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>481100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>523100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>430700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5053,149 +5431,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>101100</v>
+        <v>86000</v>
       </c>
       <c r="E81" s="3">
-        <v>42400</v>
+        <v>53200</v>
       </c>
       <c r="F81" s="3">
-        <v>110000</v>
+        <v>67100</v>
       </c>
       <c r="G81" s="3">
+        <v>28100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>26700</v>
+      </c>
+      <c r="L81" s="3">
+        <v>91000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>20800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O81" s="3">
+        <v>33900</v>
+      </c>
+      <c r="P81" s="3">
+        <v>57200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>21200</v>
       </c>
-      <c r="H81" s="3">
-        <v>60200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>26700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>91000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>20800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>13000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>33900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>57200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>21200</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-28600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>79700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>156400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>56000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>39900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>40800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>31100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>25500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5220,76 +5616,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19300</v>
+        <v>11900</v>
       </c>
       <c r="E83" s="3">
-        <v>12300</v>
+        <v>8100</v>
       </c>
       <c r="F83" s="3">
-        <v>15700</v>
+        <v>12800</v>
       </c>
       <c r="G83" s="3">
-        <v>7000</v>
+        <v>8200</v>
       </c>
       <c r="H83" s="3">
-        <v>17000</v>
+        <v>10400</v>
       </c>
       <c r="I83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K83" s="3">
         <v>13100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>6700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>12800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>16000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>25900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>13400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>3400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>3000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>3000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>3300</v>
       </c>
-      <c r="X83" s="3" t="s">
+      <c r="Z83" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5356,8 +5760,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5424,8 +5834,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5492,8 +5908,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5560,8 +5982,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5628,76 +6056,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>160300</v>
+        <v>-123800</v>
       </c>
       <c r="E89" s="3">
-        <v>-148400</v>
+        <v>35700</v>
       </c>
       <c r="F89" s="3">
-        <v>-430700</v>
+        <v>106400</v>
       </c>
       <c r="G89" s="3">
-        <v>-222900</v>
+        <v>-98500</v>
       </c>
       <c r="H89" s="3">
-        <v>125700</v>
+        <v>-285800</v>
       </c>
       <c r="I89" s="3">
+        <v>-147900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>88800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>157000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-19300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>50100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-415200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-247300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>611600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-180800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-156000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-62700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>260600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>198900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>38000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-38900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>154700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5722,76 +6162,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3044100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1859800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-12277100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-312900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2694300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1125700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-10201100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2576100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1792900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-9200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-4500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-22400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>7300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-4800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-5200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5858,8 +6306,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5926,76 +6380,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-45700</v>
+        <v>-6100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4700</v>
+        <v>-6500</v>
       </c>
       <c r="F94" s="3">
-        <v>-15400</v>
+        <v>-30300</v>
       </c>
       <c r="G94" s="3">
-        <v>-4900</v>
+        <v>-3100</v>
       </c>
       <c r="H94" s="3">
-        <v>-22100</v>
+        <v>-10200</v>
       </c>
       <c r="I94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>17800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>16100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-22300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>14500</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-5100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6020,8 +6486,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6068,14 +6536,14 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-25500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6086,10 +6554,16 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6156,8 +6630,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6704,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6292,208 +6778,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2900</v>
+        <v>5600</v>
       </c>
       <c r="E100" s="3">
-        <v>-43500</v>
+        <v>-17100</v>
       </c>
       <c r="F100" s="3">
-        <v>15100</v>
+        <v>1900</v>
       </c>
       <c r="G100" s="3">
-        <v>-8100</v>
+        <v>-28900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1400</v>
+        <v>10000</v>
       </c>
       <c r="I100" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-18400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-9800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-5300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-16500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-22500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-12900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>11500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-30600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-18300</v>
-      </c>
-      <c r="S100" s="3">
-        <v>21900</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-8000</v>
       </c>
       <c r="U100" s="3">
         <v>21900</v>
       </c>
       <c r="V100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="W100" s="3">
+        <v>21900</v>
+      </c>
+      <c r="X100" s="3">
         <v>55900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68500</v>
+        <v>24900</v>
       </c>
       <c r="E101" s="3">
-        <v>-13900</v>
+        <v>26300</v>
       </c>
       <c r="F101" s="3">
-        <v>-49400</v>
+        <v>45500</v>
       </c>
       <c r="G101" s="3">
-        <v>1800</v>
+        <v>-9200</v>
       </c>
       <c r="H101" s="3">
-        <v>-39100</v>
+        <v>-32800</v>
       </c>
       <c r="I101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-65700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>23400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>23700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>51500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>63500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>30300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>245700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>69900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>87800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-81800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>221100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>161900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>22700</v>
       </c>
-      <c r="X101" s="3" t="s">
+      <c r="Z101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>130700</v>
+        <v>-100900</v>
       </c>
       <c r="E102" s="3">
-        <v>-204500</v>
+        <v>38400</v>
       </c>
       <c r="F102" s="3">
-        <v>-482300</v>
+        <v>86700</v>
       </c>
       <c r="G102" s="3">
-        <v>-234700</v>
+        <v>-135700</v>
       </c>
       <c r="H102" s="3">
-        <v>-800</v>
+        <v>-320000</v>
       </c>
       <c r="I102" s="3">
+        <v>-155800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-102100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>54400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>149300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-16900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>44100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-405400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-217500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>638300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>33000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-86500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>53300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>152200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>452700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>257800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-21800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>188600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAR_QTR_FIN.xlsx
@@ -777,25 +777,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1061700</v>
+        <v>1050600</v>
       </c>
       <c r="E8" s="3">
-        <v>882200</v>
+        <v>872900</v>
       </c>
       <c r="F8" s="3">
-        <v>757200</v>
+        <v>749300</v>
       </c>
       <c r="G8" s="3">
-        <v>412700</v>
+        <v>408400</v>
       </c>
       <c r="H8" s="3">
-        <v>630000</v>
+        <v>623400</v>
       </c>
       <c r="I8" s="3">
-        <v>231600</v>
+        <v>229100</v>
       </c>
       <c r="J8" s="3">
-        <v>442000</v>
+        <v>437400</v>
       </c>
       <c r="K8" s="3">
         <v>410500</v>
@@ -1249,25 +1249,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="E15" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="F15" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="G15" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="H15" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="I15" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="J15" s="3">
-        <v>-11000</v>
+        <v>-10900</v>
       </c>
       <c r="K15" s="3">
         <v>-14600</v>
@@ -1348,25 +1348,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>562900</v>
+        <v>557000</v>
       </c>
       <c r="E17" s="3">
-        <v>446700</v>
+        <v>442000</v>
       </c>
       <c r="F17" s="3">
-        <v>381600</v>
+        <v>377600</v>
       </c>
       <c r="G17" s="3">
-        <v>205400</v>
+        <v>203300</v>
       </c>
       <c r="H17" s="3">
-        <v>297800</v>
+        <v>294700</v>
       </c>
       <c r="I17" s="3">
-        <v>107600</v>
+        <v>106400</v>
       </c>
       <c r="J17" s="3">
-        <v>189700</v>
+        <v>187700</v>
       </c>
       <c r="K17" s="3">
         <v>199500</v>
@@ -1422,25 +1422,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>498800</v>
+        <v>493600</v>
       </c>
       <c r="E18" s="3">
-        <v>435500</v>
+        <v>430900</v>
       </c>
       <c r="F18" s="3">
-        <v>375600</v>
+        <v>371700</v>
       </c>
       <c r="G18" s="3">
-        <v>207300</v>
+        <v>205100</v>
       </c>
       <c r="H18" s="3">
-        <v>332100</v>
+        <v>328700</v>
       </c>
       <c r="I18" s="3">
-        <v>124000</v>
+        <v>122700</v>
       </c>
       <c r="J18" s="3">
-        <v>252300</v>
+        <v>249700</v>
       </c>
       <c r="K18" s="3">
         <v>211000</v>
@@ -1524,25 +1524,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-360200</v>
+        <v>-356500</v>
       </c>
       <c r="E20" s="3">
-        <v>-357900</v>
+        <v>-354200</v>
       </c>
       <c r="F20" s="3">
-        <v>-287900</v>
+        <v>-284900</v>
       </c>
       <c r="G20" s="3">
-        <v>-171100</v>
+        <v>-169300</v>
       </c>
       <c r="H20" s="3">
-        <v>-279100</v>
+        <v>-276200</v>
       </c>
       <c r="I20" s="3">
-        <v>-104600</v>
+        <v>-103500</v>
       </c>
       <c r="J20" s="3">
-        <v>-201100</v>
+        <v>-199000</v>
       </c>
       <c r="K20" s="3">
         <v>-172400</v>
@@ -1598,25 +1598,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>150500</v>
+        <v>148900</v>
       </c>
       <c r="E21" s="3">
-        <v>85600</v>
+        <v>84700</v>
       </c>
       <c r="F21" s="3">
-        <v>100500</v>
+        <v>99400</v>
       </c>
       <c r="G21" s="3">
-        <v>44400</v>
+        <v>43900</v>
       </c>
       <c r="H21" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="I21" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="J21" s="3">
-        <v>62500</v>
+        <v>61800</v>
       </c>
       <c r="K21" s="3">
         <v>51800</v>
@@ -1746,25 +1746,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>138600</v>
+        <v>137100</v>
       </c>
       <c r="E23" s="3">
-        <v>77500</v>
+        <v>76700</v>
       </c>
       <c r="F23" s="3">
-        <v>87700</v>
+        <v>86800</v>
       </c>
       <c r="G23" s="3">
-        <v>36200</v>
+        <v>35800</v>
       </c>
       <c r="H23" s="3">
-        <v>53000</v>
+        <v>52500</v>
       </c>
       <c r="I23" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="J23" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="K23" s="3">
         <v>38600</v>
@@ -1820,25 +1820,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51700</v>
+        <v>51200</v>
       </c>
       <c r="E24" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="F24" s="3">
-        <v>21600</v>
+        <v>21300</v>
       </c>
       <c r="G24" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="H24" s="3">
-        <v>-18900</v>
+        <v>-18700</v>
       </c>
       <c r="I24" s="3">
         <v>5800</v>
       </c>
       <c r="J24" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="K24" s="3">
         <v>11900</v>
@@ -1968,25 +1968,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>86800</v>
+        <v>85900</v>
       </c>
       <c r="E26" s="3">
-        <v>53200</v>
+        <v>52600</v>
       </c>
       <c r="F26" s="3">
-        <v>66100</v>
+        <v>65400</v>
       </c>
       <c r="G26" s="3">
-        <v>27600</v>
+        <v>27300</v>
       </c>
       <c r="H26" s="3">
-        <v>71900</v>
+        <v>71200</v>
       </c>
       <c r="I26" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="J26" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="K26" s="3">
         <v>26700</v>
@@ -2042,25 +2042,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>86000</v>
+        <v>85100</v>
       </c>
       <c r="E27" s="3">
-        <v>53200</v>
+        <v>52600</v>
       </c>
       <c r="F27" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="G27" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="H27" s="3">
-        <v>73000</v>
+        <v>72200</v>
       </c>
       <c r="I27" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="J27" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="K27" s="3">
         <v>26700</v>
@@ -2412,25 +2412,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>360200</v>
+        <v>356500</v>
       </c>
       <c r="E32" s="3">
-        <v>357900</v>
+        <v>354200</v>
       </c>
       <c r="F32" s="3">
-        <v>287900</v>
+        <v>284900</v>
       </c>
       <c r="G32" s="3">
-        <v>171100</v>
+        <v>169300</v>
       </c>
       <c r="H32" s="3">
-        <v>279100</v>
+        <v>276200</v>
       </c>
       <c r="I32" s="3">
-        <v>104600</v>
+        <v>103500</v>
       </c>
       <c r="J32" s="3">
-        <v>201100</v>
+        <v>199000</v>
       </c>
       <c r="K32" s="3">
         <v>172400</v>
@@ -2486,25 +2486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>86000</v>
+        <v>85100</v>
       </c>
       <c r="E33" s="3">
-        <v>53200</v>
+        <v>52600</v>
       </c>
       <c r="F33" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="G33" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="H33" s="3">
-        <v>73000</v>
+        <v>72200</v>
       </c>
       <c r="I33" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="J33" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="K33" s="3">
         <v>26700</v>
@@ -2634,25 +2634,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>86000</v>
+        <v>85100</v>
       </c>
       <c r="E35" s="3">
-        <v>53200</v>
+        <v>52600</v>
       </c>
       <c r="F35" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="G35" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="H35" s="3">
-        <v>73000</v>
+        <v>72200</v>
       </c>
       <c r="I35" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="J35" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="K35" s="3">
         <v>26700</v>
@@ -2843,25 +2843,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1188600</v>
+        <v>1176200</v>
       </c>
       <c r="E41" s="3">
-        <v>1042700</v>
+        <v>1031700</v>
       </c>
       <c r="F41" s="3">
-        <v>797600</v>
+        <v>789200</v>
       </c>
       <c r="G41" s="3">
-        <v>547600</v>
+        <v>541900</v>
       </c>
       <c r="H41" s="3">
-        <v>495100</v>
+        <v>489900</v>
       </c>
       <c r="I41" s="3">
-        <v>545000</v>
+        <v>539300</v>
       </c>
       <c r="J41" s="3">
-        <v>1204700</v>
+        <v>1192000</v>
       </c>
       <c r="K41" s="3">
         <v>836700</v>
@@ -2917,25 +2917,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>261800</v>
+        <v>259100</v>
       </c>
       <c r="E42" s="3">
-        <v>111800</v>
+        <v>110600</v>
       </c>
       <c r="F42" s="3">
-        <v>125500</v>
+        <v>124200</v>
       </c>
       <c r="G42" s="3">
-        <v>94700</v>
+        <v>93700</v>
       </c>
       <c r="H42" s="3">
-        <v>94200</v>
+        <v>93200</v>
       </c>
       <c r="I42" s="3">
-        <v>55200</v>
+        <v>54600</v>
       </c>
       <c r="J42" s="3">
-        <v>31900</v>
+        <v>31500</v>
       </c>
       <c r="K42" s="3">
         <v>51000</v>
@@ -3287,25 +3287,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="E47" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="F47" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G47" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="H47" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I47" s="3">
         <v>6400</v>
       </c>
       <c r="J47" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="K47" s="3">
         <v>8400</v>
@@ -3361,25 +3361,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>408200</v>
+        <v>404000</v>
       </c>
       <c r="E48" s="3">
-        <v>332200</v>
+        <v>328700</v>
       </c>
       <c r="F48" s="3">
-        <v>274900</v>
+        <v>272000</v>
       </c>
       <c r="G48" s="3">
-        <v>231700</v>
+        <v>229300</v>
       </c>
       <c r="H48" s="3">
-        <v>196500</v>
+        <v>194500</v>
       </c>
       <c r="I48" s="3">
-        <v>166700</v>
+        <v>165000</v>
       </c>
       <c r="J48" s="3">
-        <v>283700</v>
+        <v>280700</v>
       </c>
       <c r="K48" s="3">
         <v>192100</v>
@@ -3435,25 +3435,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42200</v>
+        <v>41700</v>
       </c>
       <c r="E49" s="3">
-        <v>33300</v>
+        <v>33000</v>
       </c>
       <c r="F49" s="3">
-        <v>27500</v>
+        <v>27200</v>
       </c>
       <c r="G49" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="H49" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="I49" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="J49" s="3">
-        <v>20500</v>
+        <v>20300</v>
       </c>
       <c r="K49" s="3">
         <v>12300</v>
@@ -3657,25 +3657,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="E52" s="3">
         <v>5300</v>
       </c>
       <c r="F52" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G52" s="3">
         <v>4100</v>
       </c>
       <c r="H52" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J52" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="K52" s="3">
         <v>4200</v>
@@ -3805,25 +3805,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8961200</v>
+        <v>8867200</v>
       </c>
       <c r="E54" s="3">
-        <v>6749100</v>
+        <v>6678300</v>
       </c>
       <c r="F54" s="3">
-        <v>5602300</v>
+        <v>5543500</v>
       </c>
       <c r="G54" s="3">
-        <v>4579900</v>
+        <v>4531900</v>
       </c>
       <c r="H54" s="3">
-        <v>4019200</v>
+        <v>3977100</v>
       </c>
       <c r="I54" s="3">
-        <v>3343600</v>
+        <v>3308500</v>
       </c>
       <c r="J54" s="3">
-        <v>5739300</v>
+        <v>5679100</v>
       </c>
       <c r="K54" s="3">
         <v>3940200</v>
@@ -3935,25 +3935,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>975700</v>
+        <v>965500</v>
       </c>
       <c r="E57" s="3">
-        <v>555700</v>
+        <v>549800</v>
       </c>
       <c r="F57" s="3">
-        <v>460300</v>
+        <v>455500</v>
       </c>
       <c r="G57" s="3">
-        <v>346500</v>
+        <v>342900</v>
       </c>
       <c r="H57" s="3">
-        <v>300500</v>
+        <v>297400</v>
       </c>
       <c r="I57" s="3">
-        <v>252400</v>
+        <v>249800</v>
       </c>
       <c r="J57" s="3">
-        <v>431200</v>
+        <v>426700</v>
       </c>
       <c r="K57" s="3">
         <v>286900</v>
@@ -4083,25 +4083,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>251800</v>
+        <v>249100</v>
       </c>
       <c r="E59" s="3">
-        <v>178400</v>
+        <v>176500</v>
       </c>
       <c r="F59" s="3">
-        <v>138700</v>
+        <v>137300</v>
       </c>
       <c r="G59" s="3">
+        <v>114400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>126200</v>
+      </c>
+      <c r="I59" s="3">
         <v>115600</v>
       </c>
-      <c r="H59" s="3">
-        <v>127600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>116800</v>
-      </c>
       <c r="J59" s="3">
-        <v>224800</v>
+        <v>222400</v>
       </c>
       <c r="K59" s="3">
         <v>140900</v>
@@ -4231,25 +4231,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="E61" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="F61" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="G61" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="H61" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="I61" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="J61" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="K61" s="3">
         <v>12600</v>
@@ -4305,25 +4305,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>74600</v>
+        <v>73800</v>
       </c>
       <c r="E62" s="3">
-        <v>44500</v>
+        <v>44100</v>
       </c>
       <c r="F62" s="3">
-        <v>43900</v>
+        <v>43500</v>
       </c>
       <c r="G62" s="3">
-        <v>40800</v>
+        <v>40400</v>
       </c>
       <c r="H62" s="3">
-        <v>19700</v>
+        <v>19500</v>
       </c>
       <c r="I62" s="3">
-        <v>49700</v>
+        <v>49200</v>
       </c>
       <c r="J62" s="3">
-        <v>77000</v>
+        <v>76200</v>
       </c>
       <c r="K62" s="3">
         <v>44000</v>
@@ -4601,25 +4601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7363700</v>
+        <v>7286400</v>
       </c>
       <c r="E66" s="3">
-        <v>5452900</v>
+        <v>5395700</v>
       </c>
       <c r="F66" s="3">
-        <v>4571300</v>
+        <v>4523300</v>
       </c>
       <c r="G66" s="3">
-        <v>3730100</v>
+        <v>3690900</v>
       </c>
       <c r="H66" s="3">
-        <v>3361800</v>
+        <v>3326500</v>
       </c>
       <c r="I66" s="3">
-        <v>2798600</v>
+        <v>2769200</v>
       </c>
       <c r="J66" s="3">
-        <v>4851200</v>
+        <v>4800300</v>
       </c>
       <c r="K66" s="3">
         <v>3313100</v>
@@ -4999,25 +4999,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1019300</v>
+        <v>1008600</v>
       </c>
       <c r="E72" s="3">
-        <v>829000</v>
+        <v>820300</v>
       </c>
       <c r="F72" s="3">
-        <v>647200</v>
+        <v>640400</v>
       </c>
       <c r="G72" s="3">
-        <v>522700</v>
+        <v>517200</v>
       </c>
       <c r="H72" s="3">
-        <v>389200</v>
+        <v>385100</v>
       </c>
       <c r="I72" s="3">
-        <v>316300</v>
+        <v>313000</v>
       </c>
       <c r="J72" s="3">
-        <v>504300</v>
+        <v>499000</v>
       </c>
       <c r="K72" s="3">
         <v>357800</v>
@@ -5295,25 +5295,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1597500</v>
+        <v>1580800</v>
       </c>
       <c r="E76" s="3">
-        <v>1296200</v>
+        <v>1282600</v>
       </c>
       <c r="F76" s="3">
-        <v>1031000</v>
+        <v>1020200</v>
       </c>
       <c r="G76" s="3">
-        <v>849900</v>
+        <v>841000</v>
       </c>
       <c r="H76" s="3">
-        <v>657400</v>
+        <v>650500</v>
       </c>
       <c r="I76" s="3">
-        <v>545000</v>
+        <v>539300</v>
       </c>
       <c r="J76" s="3">
-        <v>888100</v>
+        <v>878700</v>
       </c>
       <c r="K76" s="3">
         <v>627200</v>
@@ -5522,25 +5522,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>86000</v>
+        <v>85100</v>
       </c>
       <c r="E81" s="3">
-        <v>53200</v>
+        <v>52600</v>
       </c>
       <c r="F81" s="3">
-        <v>67100</v>
+        <v>66400</v>
       </c>
       <c r="G81" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="H81" s="3">
-        <v>73000</v>
+        <v>72200</v>
       </c>
       <c r="I81" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="J81" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="K81" s="3">
         <v>26700</v>
@@ -5624,25 +5624,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="E83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G83" s="3">
         <v>8100</v>
       </c>
-      <c r="F83" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8200</v>
-      </c>
       <c r="H83" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I83" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J83" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="K83" s="3">
         <v>13100</v>
@@ -6068,25 +6068,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-123800</v>
+        <v>-122500</v>
       </c>
       <c r="E89" s="3">
-        <v>35700</v>
+        <v>35300</v>
       </c>
       <c r="F89" s="3">
-        <v>106400</v>
+        <v>105300</v>
       </c>
       <c r="G89" s="3">
-        <v>-98500</v>
+        <v>-97400</v>
       </c>
       <c r="H89" s="3">
-        <v>-285800</v>
+        <v>-282800</v>
       </c>
       <c r="I89" s="3">
-        <v>-147900</v>
+        <v>-146400</v>
       </c>
       <c r="J89" s="3">
-        <v>83400</v>
+        <v>82500</v>
       </c>
       <c r="K89" s="3">
         <v>-7600</v>
@@ -6392,25 +6392,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="E94" s="3">
         <v>-6500</v>
       </c>
       <c r="F94" s="3">
-        <v>-30300</v>
+        <v>-30000</v>
       </c>
       <c r="G94" s="3">
         <v>-3100</v>
       </c>
       <c r="H94" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="I94" s="3">
         <v>-3200</v>
       </c>
       <c r="J94" s="3">
-        <v>-14700</v>
+        <v>-14500</v>
       </c>
       <c r="K94" s="3">
         <v>-4200</v>
@@ -6793,19 +6793,19 @@
         <v>5600</v>
       </c>
       <c r="E100" s="3">
-        <v>-17100</v>
+        <v>-16900</v>
       </c>
       <c r="F100" s="3">
         <v>1900</v>
       </c>
       <c r="G100" s="3">
-        <v>-28900</v>
+        <v>-28600</v>
       </c>
       <c r="H100" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="I100" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="J100" s="3">
         <v>-900</v>
@@ -6864,25 +6864,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="E101" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="F101" s="3">
-        <v>45500</v>
+        <v>45000</v>
       </c>
       <c r="G101" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="H101" s="3">
-        <v>-32800</v>
+        <v>-32400</v>
       </c>
       <c r="I101" s="3">
         <v>1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-26000</v>
+        <v>-25700</v>
       </c>
       <c r="K101" s="3">
         <v>-65700</v>
@@ -6938,22 +6938,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100900</v>
+        <v>-99900</v>
       </c>
       <c r="E102" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="F102" s="3">
-        <v>86700</v>
+        <v>85800</v>
       </c>
       <c r="G102" s="3">
-        <v>-135700</v>
+        <v>-134300</v>
       </c>
       <c r="H102" s="3">
-        <v>-320000</v>
+        <v>-316700</v>
       </c>
       <c r="I102" s="3">
-        <v>-155800</v>
+        <v>-154100</v>
       </c>
       <c r="J102" s="3">
         <v>-500</v>
